--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97128298-4B3E-43D9-9875-ACCD3C8C00FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D1895-B603-4063-83EE-7FC3027425EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="152">
   <si>
     <t>sheet名</t>
   </si>
@@ -352,10 +352,6 @@
   </si>
   <si>
     <t>鞋子S4</t>
-  </si>
-  <si>
-    <t>晶片宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星际币</t>
@@ -568,6 +564,156 @@
   <si>
     <t>时间限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际币</t>
+  </si>
+  <si>
+    <r>
+      <t>肩甲S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戒指S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项链S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头盔S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>衣服S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>武器S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>裤子S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鞋子S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级攻击晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级财富晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级防御晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级幸运晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶</t>
   </si>
 </sst>
 </file>
@@ -1128,14 +1274,14 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1143,20 +1289,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1164,11 +1310,11 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1177,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1204,10 +1350,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A6AE-C641-48B5-AE4D-CE70B2979CBD}">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,19 +1382,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>15</v>
@@ -1266,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>33</v>
@@ -1313,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1381,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
@@ -1408,13 +1557,13 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>27</v>
@@ -1466,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1475,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" s="3">
         <v>1</v>
@@ -1484,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -1493,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -1527,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1536,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
@@ -1545,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -1554,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -1574,7 +1723,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>47</v>
@@ -1586,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -1595,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
@@ -1604,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
@@ -1613,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -1632,7 +1783,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3">
         <v>60</v>
@@ -1647,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -1656,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
@@ -1665,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
@@ -1674,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S7" s="3">
         <v>1</v>
@@ -1693,7 +1844,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
@@ -1708,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1717,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -1726,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -1735,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -1756,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
         <v>60</v>
@@ -1771,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -1780,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9" s="3">
         <v>1</v>
@@ -1789,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -1798,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -1817,7 +1968,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
@@ -1832,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -1841,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="3">
         <v>1</v>
@@ -1850,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1859,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -1878,7 +2029,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -1893,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -1902,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
@@ -1911,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -1920,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -1940,7 +2091,9 @@
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>63</v>
@@ -1952,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1961,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
@@ -1970,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1979,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
@@ -1998,13 +2151,13 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2013,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2022,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M13" s="3">
         <v>1</v>
@@ -2031,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -2040,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
@@ -2059,13 +2212,13 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -2074,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -2083,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
@@ -2092,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -2101,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -2122,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>60</v>
@@ -2137,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2146,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M15" s="3">
         <v>1</v>
@@ -2155,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -2164,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
@@ -2183,13 +2336,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3">
         <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -2198,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -2207,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="3">
         <v>1</v>
@@ -2216,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -2225,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S16" s="3">
         <v>1</v>
@@ -2244,13 +2397,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2259,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2268,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" s="3">
         <v>1</v>
@@ -2277,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -2286,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
@@ -2306,7 +2459,9 @@
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -2318,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -2327,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M18" s="3">
         <v>1</v>
@@ -2336,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -2345,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S18" s="3">
         <v>1</v>
@@ -2364,13 +2519,13 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -2379,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2388,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
@@ -2397,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
@@ -2406,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S19" s="3">
         <v>1</v>
@@ -2425,13 +2580,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
         <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -2440,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2449,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M20" s="3">
         <v>1</v>
@@ -2458,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -2467,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S20" s="3">
         <v>1</v>
@@ -2488,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3">
         <v>60</v>
@@ -2503,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2512,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M21" s="3">
         <v>1</v>
@@ -2521,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -2530,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S21" s="3">
         <v>1</v>
@@ -2549,13 +2704,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3">
         <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -2564,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2573,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M22" s="3">
         <v>1</v>
@@ -2582,7 +2737,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2591,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S22" s="3">
         <v>1</v>
@@ -2610,13 +2765,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3">
         <v>60</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -2625,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2634,7 +2789,7 @@
         <v>13</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
@@ -2643,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2652,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S23" s="3">
         <v>1</v>
@@ -2672,7 +2827,9 @@
         <v>1</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>21</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>73</v>
@@ -2684,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2693,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
@@ -2702,7 +2859,7 @@
         <v>10</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2711,7 +2868,7 @@
         <v>10</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S24" s="3">
         <v>1</v>
@@ -2730,13 +2887,13 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3">
         <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -2745,7 +2902,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2754,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -2763,7 +2920,7 @@
         <v>10</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -2772,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S25" s="3">
         <v>1</v>
@@ -2791,13 +2948,13 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3">
         <v>60</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2806,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2815,7 +2972,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M26" s="3">
         <v>1</v>
@@ -2824,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2833,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S26" s="3">
         <v>1</v>
@@ -2854,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
         <v>60</v>
@@ -2869,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2878,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M27" s="3">
         <v>1</v>
@@ -2887,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2896,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S27" s="3">
         <v>1</v>
@@ -2915,13 +3072,13 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3">
         <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -2930,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2939,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M28" s="3">
         <v>1</v>
@@ -2948,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -2957,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S28" s="3">
         <v>1</v>
@@ -2976,13 +3133,13 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3">
         <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2991,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -3000,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M29" s="3">
         <v>1</v>
@@ -3009,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -3018,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S29" s="3">
         <v>1</v>
@@ -3038,7 +3195,9 @@
         <v>1</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>27</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>75</v>
@@ -3050,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -3059,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M30" s="3">
         <v>1</v>
@@ -3068,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P30" s="3">
         <v>0</v>
@@ -3077,7 +3236,7 @@
         <v>10</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S30" s="3">
         <v>1</v>
@@ -3096,13 +3255,13 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3">
         <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -3111,7 +3270,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -3120,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
@@ -3129,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -3138,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S31" s="3">
         <v>1</v>
@@ -3157,13 +3316,13 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E32" s="3">
         <v>60</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -3172,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -3181,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
@@ -3190,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -3199,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S32" s="3">
         <v>1</v>
@@ -3220,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3">
         <v>60</v>
@@ -3235,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -3244,7 +3403,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M33" s="3">
         <v>1</v>
@@ -3253,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -3262,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S33" s="3">
         <v>1</v>
@@ -3281,13 +3440,13 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3">
         <v>60</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -3296,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -3305,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M34" s="3">
         <v>1</v>
@@ -3314,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P34" s="3">
         <v>0</v>
@@ -3323,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S34" s="3">
         <v>1</v>
@@ -3342,13 +3501,13 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E35" s="3">
         <v>60</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -3357,7 +3516,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3366,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
@@ -3375,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -3384,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S35" s="3">
         <v>1</v>
@@ -3404,7 +3563,9 @@
         <v>1</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>33</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>78</v>
@@ -3416,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -3425,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M36" s="3">
         <v>1</v>
@@ -3434,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P36" s="3">
         <v>0</v>
@@ -3443,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S36" s="3">
         <v>1</v>
@@ -3462,13 +3623,13 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3">
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3477,7 +3638,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -3486,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -3495,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P37" s="3">
         <v>0</v>
@@ -3504,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S37" s="3">
         <v>1</v>
@@ -3523,13 +3684,13 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E38" s="3">
         <v>60</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -3538,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -3547,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M38" s="3">
         <v>1</v>
@@ -3556,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P38" s="3">
         <v>0</v>
@@ -3565,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S38" s="3">
         <v>1</v>
@@ -3586,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3">
         <v>60</v>
@@ -3601,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3610,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M39" s="3">
         <v>1</v>
@@ -3619,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -3628,7 +3789,7 @@
         <v>10</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S39" s="3">
         <v>1</v>
@@ -3647,13 +3808,13 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E40" s="3">
         <v>60</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -3662,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -3671,7 +3832,7 @@
         <v>10</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M40" s="3">
         <v>1</v>
@@ -3680,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P40" s="3">
         <v>0</v>
@@ -3689,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S40" s="3">
         <v>1</v>
@@ -3708,13 +3869,13 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E41" s="3">
         <v>60</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -3723,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3732,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M41" s="3">
         <v>1</v>
@@ -3741,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3750,7 +3911,7 @@
         <v>15</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S41" s="3">
         <v>1</v>
@@ -3770,7 +3931,9 @@
         <v>1</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>39</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
@@ -3782,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3791,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M42" s="3">
         <v>1</v>
@@ -3800,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3809,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S42" s="3">
         <v>1</v>
@@ -3828,13 +3991,13 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3">
         <v>60</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3843,7 +4006,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3852,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M43" s="3">
         <v>1</v>
@@ -3861,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3870,7 +4033,7 @@
         <v>10</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S43" s="3">
         <v>1</v>
@@ -3889,13 +4052,13 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E44" s="3">
         <v>60</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -3904,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3913,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M44" s="3">
         <v>1</v>
@@ -3922,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3931,7 +4094,7 @@
         <v>15</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S44" s="3">
         <v>1</v>
@@ -3952,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E45" s="3">
         <v>60</v>
@@ -3967,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3976,7 +4139,7 @@
         <v>10</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M45" s="3">
         <v>1</v>
@@ -3985,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3994,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S45" s="3">
         <v>1</v>
@@ -4013,13 +4176,13 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E46" s="3">
         <v>60</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -4028,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -4037,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M46" s="3">
         <v>1</v>
@@ -4046,7 +4209,7 @@
         <v>10</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -4055,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S46" s="3">
         <v>1</v>
@@ -4074,13 +4237,13 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E47" s="3">
         <v>60</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -4089,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -4098,7 +4261,7 @@
         <v>15</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M47" s="3">
         <v>1</v>
@@ -4107,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -4116,7 +4279,7 @@
         <v>15</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S47" s="3">
         <v>1</v>
@@ -4136,7 +4299,9 @@
         <v>1</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>45</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>82</v>
@@ -4148,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -4157,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M48" s="3">
         <v>1</v>
@@ -4166,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -4175,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S48" s="3">
         <v>1</v>
@@ -4194,13 +4359,13 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3">
         <v>60</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -4209,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -4218,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M49" s="3">
         <v>1</v>
@@ -4227,7 +4392,7 @@
         <v>10</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -4236,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S49" s="3">
         <v>1</v>
@@ -4255,13 +4420,13 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3">
         <v>60</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -4270,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -4279,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" s="3">
         <v>1</v>
@@ -4288,7 +4453,7 @@
         <v>10</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
@@ -4297,7 +4462,7 @@
         <v>15</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S50" s="3">
         <v>1</v>
@@ -4318,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3">
         <v>60</v>
@@ -4333,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
@@ -4342,7 +4507,7 @@
         <v>10</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M51" s="3">
         <v>1</v>
@@ -4351,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P51" s="3">
         <v>0</v>
@@ -4360,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S51" s="3">
         <v>1</v>
@@ -4379,13 +4544,13 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3">
         <v>60</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4394,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -4403,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M52" s="3">
         <v>1</v>
@@ -4412,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4421,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S52" s="3">
         <v>1</v>
@@ -4440,13 +4605,13 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E53" s="3">
         <v>60</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -4455,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -4464,7 +4629,7 @@
         <v>15</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M53" s="3">
         <v>1</v>
@@ -4473,7 +4638,7 @@
         <v>10</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
@@ -4482,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S53" s="3">
         <v>1</v>
@@ -4502,7 +4667,9 @@
         <v>1</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>51</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>84</v>
@@ -4514,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -4523,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M54" s="3">
         <v>1</v>
@@ -4532,7 +4699,7 @@
         <v>10</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -4541,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S54" s="3">
         <v>1</v>
@@ -4560,13 +4727,13 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E55" s="3">
         <v>60</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -4575,7 +4742,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -4584,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M55" s="3">
         <v>1</v>
@@ -4593,7 +4760,7 @@
         <v>10</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
@@ -4602,7 +4769,7 @@
         <v>10</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S55" s="3">
         <v>1</v>
@@ -4621,13 +4788,13 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E56" s="3">
         <v>60</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -4636,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -4645,7 +4812,7 @@
         <v>15</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M56" s="3">
         <v>1</v>
@@ -4654,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P56" s="3">
         <v>0</v>
@@ -4663,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S56" s="3">
         <v>1</v>
@@ -4684,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E57" s="3">
         <v>60</v>
@@ -4699,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4708,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M57" s="3">
         <v>1</v>
@@ -4717,7 +4884,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4726,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S57" s="3">
         <v>1</v>
@@ -4745,13 +4912,13 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3">
         <v>60</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4760,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4769,7 +4936,7 @@
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M58" s="3">
         <v>1</v>
@@ -4778,7 +4945,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4787,7 +4954,7 @@
         <v>10</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S58" s="3">
         <v>1</v>
@@ -4806,13 +4973,13 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E59" s="3">
         <v>60</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4821,7 +4988,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4830,7 +4997,7 @@
         <v>15</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M59" s="3">
         <v>1</v>
@@ -4839,7 +5006,7 @@
         <v>10</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4848,7 +5015,7 @@
         <v>15</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S59" s="3">
         <v>1</v>
@@ -4868,7 +5035,9 @@
         <v>1</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3">
+        <v>57</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
         <v>86</v>
@@ -4880,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -4889,7 +5058,7 @@
         <v>10</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M60" s="3">
         <v>1</v>
@@ -4898,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -4907,7 +5076,7 @@
         <v>10</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S60" s="3">
         <v>1</v>
@@ -4926,13 +5095,13 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E61" s="3">
         <v>60</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4941,7 +5110,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4950,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M61" s="3">
         <v>1</v>
@@ -4959,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4968,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S61" s="3">
         <v>1</v>
@@ -4987,13 +5156,13 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E62" s="3">
         <v>60</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5002,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -5011,7 +5180,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M62" s="3">
         <v>1</v>
@@ -5020,7 +5189,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -5029,7 +5198,7 @@
         <v>15</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S62" s="3">
         <v>1</v>
@@ -5050,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E63" s="3">
         <v>60</v>
@@ -5065,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
@@ -5074,7 +5243,7 @@
         <v>10</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M63" s="3">
         <v>1</v>
@@ -5083,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -5092,7 +5261,7 @@
         <v>10</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S63" s="3">
         <v>1</v>
@@ -5111,13 +5280,13 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E64" s="3">
         <v>60</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -5126,7 +5295,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J64" s="3">
         <v>0</v>
@@ -5135,7 +5304,7 @@
         <v>10</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M64" s="3">
         <v>1</v>
@@ -5144,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -5153,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S64" s="3">
         <v>1</v>
@@ -5172,13 +5341,13 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E65" s="3">
         <v>60</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -5187,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -5196,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M65" s="3">
         <v>1</v>
@@ -5205,7 +5374,7 @@
         <v>10</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P65" s="3">
         <v>0</v>
@@ -5214,7 +5383,7 @@
         <v>15</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S65" s="3">
         <v>1</v>
@@ -5234,7 +5403,9 @@
         <v>1</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>63</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>88</v>
@@ -5246,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -5255,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M66" s="3">
         <v>1</v>
@@ -5264,7 +5435,7 @@
         <v>10</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -5273,7 +5444,7 @@
         <v>10</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S66" s="3">
         <v>1</v>
@@ -5292,13 +5463,13 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E67" s="3">
         <v>60</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -5307,7 +5478,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -5316,7 +5487,7 @@
         <v>10</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M67" s="3">
         <v>1</v>
@@ -5325,7 +5496,7 @@
         <v>10</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P67" s="3">
         <v>0</v>
@@ -5334,7 +5505,7 @@
         <v>10</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S67" s="3">
         <v>1</v>
@@ -5353,13 +5524,13 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E68" s="3">
         <v>60</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -5368,7 +5539,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -5377,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M68" s="3">
         <v>1</v>
@@ -5386,7 +5557,7 @@
         <v>10</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P68" s="3">
         <v>0</v>
@@ -5395,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S68" s="3">
         <v>1</v>
@@ -5416,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E69" s="3">
         <v>60</v>
@@ -5431,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J69" s="3">
         <v>0</v>
@@ -5440,7 +5611,7 @@
         <v>10</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M69" s="3">
         <v>1</v>
@@ -5449,7 +5620,7 @@
         <v>10</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P69" s="3">
         <v>0</v>
@@ -5458,7 +5629,7 @@
         <v>10</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S69" s="3">
         <v>1</v>
@@ -5477,13 +5648,13 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E70" s="3">
         <v>60</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -5492,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -5501,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M70" s="3">
         <v>1</v>
@@ -5510,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -5519,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S70" s="3">
         <v>1</v>
@@ -5538,13 +5709,13 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E71" s="3">
         <v>60</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -5553,7 +5724,7 @@
         <v>10</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -5562,7 +5733,7 @@
         <v>15</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -5571,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P71" s="3">
         <v>0</v>
@@ -5580,7 +5751,7 @@
         <v>15</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S71" s="3">
         <v>1</v>
@@ -5600,7 +5771,9 @@
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>69</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
         <v>90</v>
@@ -5612,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -5621,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M72" s="3">
         <v>1</v>
@@ -5630,7 +5803,7 @@
         <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -5639,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S72" s="3">
         <v>1</v>
@@ -5658,13 +5831,13 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -5673,7 +5846,7 @@
         <v>10</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
@@ -5682,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M73" s="3">
         <v>1</v>
@@ -5691,7 +5864,7 @@
         <v>10</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P73" s="3">
         <v>0</v>
@@ -5700,7 +5873,7 @@
         <v>10</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S73" s="3">
         <v>1</v>
@@ -5719,13 +5892,13 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E74" s="3">
         <v>60</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -5734,7 +5907,7 @@
         <v>10</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -5743,7 +5916,7 @@
         <v>15</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M74" s="3">
         <v>1</v>
@@ -5752,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P74" s="3">
         <v>0</v>
@@ -5761,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S74" s="3">
         <v>1</v>
@@ -5782,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E75" s="3">
         <v>60</v>
@@ -5797,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -5806,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M75" s="3">
         <v>1</v>
@@ -5815,7 +5988,7 @@
         <v>10</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P75" s="3">
         <v>0</v>
@@ -5824,7 +5997,7 @@
         <v>10</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S75" s="3">
         <v>1</v>
@@ -5843,13 +6016,13 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E76" s="3">
         <v>60</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5858,7 +6031,7 @@
         <v>10</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -5867,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M76" s="3">
         <v>1</v>
@@ -5876,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -5885,7 +6058,7 @@
         <v>10</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S76" s="3">
         <v>1</v>
@@ -5904,13 +6077,13 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3">
         <v>60</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -5919,7 +6092,7 @@
         <v>10</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -5928,7 +6101,7 @@
         <v>15</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M77" s="3">
         <v>1</v>
@@ -5937,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P77" s="3">
         <v>0</v>
@@ -5946,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S77" s="3">
         <v>1</v>
@@ -5966,7 +6139,9 @@
         <v>1</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>75</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
         <v>92</v>
@@ -5978,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J78" s="3">
         <v>0</v>
@@ -5987,7 +6162,7 @@
         <v>10</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M78" s="3">
         <v>1</v>
@@ -5996,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P78" s="3">
         <v>0</v>
@@ -6005,7 +6180,7 @@
         <v>10</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S78" s="3">
         <v>1</v>
@@ -6024,13 +6199,13 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E79" s="3">
         <v>60</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -6039,7 +6214,7 @@
         <v>10</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
@@ -6048,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M79" s="3">
         <v>1</v>
@@ -6057,7 +6232,7 @@
         <v>10</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P79" s="3">
         <v>0</v>
@@ -6066,7 +6241,7 @@
         <v>10</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S79" s="3">
         <v>1</v>
@@ -6085,13 +6260,13 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E80" s="3">
         <v>60</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -6100,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J80" s="3">
         <v>0</v>
@@ -6109,7 +6284,7 @@
         <v>15</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M80" s="3">
         <v>1</v>
@@ -6118,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P80" s="3">
         <v>0</v>
@@ -6127,7 +6302,7 @@
         <v>15</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S80" s="3">
         <v>1</v>
@@ -6148,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E81" s="3">
         <v>60</v>
@@ -6163,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -6172,7 +6347,7 @@
         <v>10</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M81" s="3">
         <v>1</v>
@@ -6181,7 +6356,7 @@
         <v>10</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -6190,7 +6365,7 @@
         <v>10</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S81" s="3">
         <v>1</v>
@@ -6209,13 +6384,13 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -6224,7 +6399,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
@@ -6233,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M82" s="3">
         <v>1</v>
@@ -6242,7 +6417,7 @@
         <v>10</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P82" s="3">
         <v>0</v>
@@ -6251,7 +6426,7 @@
         <v>10</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S82" s="3">
         <v>1</v>
@@ -6270,13 +6445,13 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E83" s="3">
         <v>60</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6285,7 +6460,7 @@
         <v>10</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6294,7 +6469,7 @@
         <v>15</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M83" s="3">
         <v>1</v>
@@ -6303,7 +6478,7 @@
         <v>10</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6312,7 +6487,7 @@
         <v>15</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S83" s="3">
         <v>1</v>
@@ -6332,7 +6507,9 @@
         <v>1</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3">
+        <v>81</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
         <v>86</v>
@@ -6344,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
@@ -6353,7 +6530,7 @@
         <v>10</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M84" s="3">
         <v>1</v>
@@ -6362,7 +6539,7 @@
         <v>10</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P84" s="3">
         <v>0</v>
@@ -6371,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S84" s="3">
         <v>1</v>
@@ -6390,13 +6567,13 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E85" s="3">
         <v>60</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -6405,7 +6582,7 @@
         <v>10</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
@@ -6414,7 +6591,7 @@
         <v>10</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M85" s="3">
         <v>1</v>
@@ -6423,7 +6600,7 @@
         <v>10</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P85" s="3">
         <v>0</v>
@@ -6432,7 +6609,7 @@
         <v>10</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S85" s="3">
         <v>1</v>
@@ -6451,13 +6628,13 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3">
         <v>60</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -6466,7 +6643,7 @@
         <v>10</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J86" s="3">
         <v>0</v>
@@ -6475,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M86" s="3">
         <v>1</v>
@@ -6484,7 +6661,7 @@
         <v>10</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P86" s="3">
         <v>0</v>
@@ -6493,7 +6670,7 @@
         <v>15</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S86" s="3">
         <v>1</v>
@@ -6514,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E87" s="3">
         <v>60</v>
@@ -6529,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J87" s="3">
         <v>0</v>
@@ -6538,7 +6715,7 @@
         <v>10</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M87" s="3">
         <v>1</v>
@@ -6547,7 +6724,7 @@
         <v>10</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P87" s="3">
         <v>0</v>
@@ -6556,7 +6733,7 @@
         <v>10</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S87" s="3">
         <v>1</v>
@@ -6575,13 +6752,13 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E88" s="3">
         <v>60</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
@@ -6590,7 +6767,7 @@
         <v>10</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
@@ -6599,7 +6776,7 @@
         <v>10</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
@@ -6608,7 +6785,7 @@
         <v>10</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P88" s="3">
         <v>0</v>
@@ -6617,7 +6794,7 @@
         <v>10</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S88" s="3">
         <v>1</v>
@@ -6636,13 +6813,13 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3">
         <v>60</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -6651,7 +6828,7 @@
         <v>10</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -6660,7 +6837,7 @@
         <v>15</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M89" s="3">
         <v>1</v>
@@ -6669,7 +6846,7 @@
         <v>10</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6678,7 +6855,7 @@
         <v>15</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S89" s="3">
         <v>1</v>
@@ -6698,7 +6875,9 @@
         <v>1</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>87</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
         <v>88</v>
@@ -6710,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
@@ -6719,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M90" s="3">
         <v>1</v>
@@ -6728,7 +6907,7 @@
         <v>10</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P90" s="3">
         <v>0</v>
@@ -6737,7 +6916,7 @@
         <v>10</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S90" s="3">
         <v>1</v>
@@ -6756,13 +6935,13 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E91" s="3">
         <v>60</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6771,7 +6950,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6780,7 +6959,7 @@
         <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M91" s="3">
         <v>1</v>
@@ -6789,7 +6968,7 @@
         <v>10</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6798,7 +6977,7 @@
         <v>10</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S91" s="3">
         <v>1</v>
@@ -6817,13 +6996,13 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E92" s="3">
         <v>60</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -6832,7 +7011,7 @@
         <v>10</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J92" s="3">
         <v>0</v>
@@ -6841,7 +7020,7 @@
         <v>15</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M92" s="3">
         <v>1</v>
@@ -6850,7 +7029,7 @@
         <v>10</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P92" s="3">
         <v>0</v>
@@ -6859,7 +7038,7 @@
         <v>15</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S92" s="3">
         <v>1</v>
@@ -6880,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3">
         <v>60</v>
@@ -6895,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J93" s="3">
         <v>0</v>
@@ -6904,7 +7083,7 @@
         <v>10</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M93" s="3">
         <v>1</v>
@@ -6913,7 +7092,7 @@
         <v>10</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P93" s="3">
         <v>0</v>
@@ -6922,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S93" s="3">
         <v>1</v>
@@ -6941,13 +7120,13 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E94" s="3">
         <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6956,7 +7135,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6965,7 +7144,7 @@
         <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M94" s="3">
         <v>1</v>
@@ -6974,7 +7153,7 @@
         <v>10</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6983,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S94" s="3">
         <v>1</v>
@@ -7002,13 +7181,13 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E95" s="3">
         <v>60</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -7017,7 +7196,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J95" s="3">
         <v>0</v>
@@ -7026,7 +7205,7 @@
         <v>15</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M95" s="3">
         <v>1</v>
@@ -7035,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P95" s="3">
         <v>0</v>
@@ -7044,7 +7223,7 @@
         <v>15</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S95" s="3">
         <v>1</v>
@@ -7064,7 +7243,9 @@
         <v>1</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3">
+        <v>93</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
         <v>90</v>
@@ -7076,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7085,7 +7266,7 @@
         <v>10</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M96" s="3">
         <v>1</v>
@@ -7094,7 +7275,7 @@
         <v>10</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -7103,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S96" s="3">
         <v>1</v>
@@ -7122,13 +7303,13 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E97" s="3">
         <v>60</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -7137,7 +7318,7 @@
         <v>10</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J97" s="3">
         <v>0</v>
@@ -7146,7 +7327,7 @@
         <v>10</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M97" s="3">
         <v>1</v>
@@ -7155,7 +7336,7 @@
         <v>10</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P97" s="3">
         <v>0</v>
@@ -7164,7 +7345,7 @@
         <v>10</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S97" s="3">
         <v>1</v>
@@ -7183,13 +7364,13 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E98" s="3">
         <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -7198,7 +7379,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
@@ -7207,7 +7388,7 @@
         <v>15</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M98" s="3">
         <v>1</v>
@@ -7216,7 +7397,7 @@
         <v>10</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P98" s="3">
         <v>0</v>
@@ -7225,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S98" s="3">
         <v>1</v>
@@ -7246,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E99" s="3">
         <v>60</v>
@@ -7261,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J99" s="3">
         <v>0</v>
@@ -7270,7 +7451,7 @@
         <v>10</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M99" s="3">
         <v>1</v>
@@ -7279,7 +7460,7 @@
         <v>10</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P99" s="3">
         <v>0</v>
@@ -7288,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S99" s="3">
         <v>1</v>
@@ -7307,13 +7488,13 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E100" s="3">
         <v>60</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7322,7 +7503,7 @@
         <v>10</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -7331,7 +7512,7 @@
         <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M100" s="3">
         <v>1</v>
@@ -7340,7 +7521,7 @@
         <v>10</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7349,7 +7530,7 @@
         <v>10</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S100" s="3">
         <v>1</v>
@@ -7368,13 +7549,13 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E101" s="3">
         <v>60</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -7383,7 +7564,7 @@
         <v>10</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -7392,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M101" s="3">
         <v>1</v>
@@ -7401,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7410,7 +7591,7 @@
         <v>15</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S101" s="3">
         <v>1</v>
@@ -7426,18 +7607,18 @@
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="B102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3"/>
       <c r="D102" s="3">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E102" s="3">
         <v>60</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -7446,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -7455,7 +7636,7 @@
         <v>10</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M102" s="3">
         <v>1</v>
@@ -7464,7 +7645,7 @@
         <v>10</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7473,7 +7654,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S102" s="3">
         <v>1</v>
@@ -7490,26 +7671,24 @@
         <v>100</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E103" s="3">
         <v>60</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
       </c>
       <c r="H103" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J103" s="3">
         <v>0</v>
@@ -7518,7 +7697,7 @@
         <v>10</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M103" s="3">
         <v>1</v>
@@ -7536,7 +7715,7 @@
         <v>10</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S103" s="3">
         <v>1</v>
@@ -7547,6 +7726,2274 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
+    </row>
+    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3">
+        <v>101</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>10</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>10</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M104" s="3">
+        <v>1</v>
+      </c>
+      <c r="N104" s="3">
+        <v>10</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>15</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S104" s="3">
+        <v>1</v>
+      </c>
+      <c r="T104" s="3">
+        <v>10</v>
+      </c>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+    </row>
+    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>102</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>10</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M105" s="3">
+        <v>1</v>
+      </c>
+      <c r="N105" s="3">
+        <v>10</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>10</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S105" s="3">
+        <v>1</v>
+      </c>
+      <c r="T105" s="3">
+        <v>10</v>
+      </c>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+    </row>
+    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3">
+        <v>103</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>10</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3">
+        <v>10</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M106" s="3">
+        <v>1</v>
+      </c>
+      <c r="N106" s="3">
+        <v>10</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>10</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S106" s="3">
+        <v>1</v>
+      </c>
+      <c r="T106" s="3">
+        <v>10</v>
+      </c>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+    </row>
+    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
+        <v>104</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>10</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>10</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M107" s="3">
+        <v>1</v>
+      </c>
+      <c r="N107" s="3">
+        <v>10</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>15</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S107" s="3">
+        <v>1</v>
+      </c>
+      <c r="T107" s="3">
+        <v>10</v>
+      </c>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
+        <v>105</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>10</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M108" s="3">
+        <v>1</v>
+      </c>
+      <c r="N108" s="3">
+        <v>10</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>10</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S108" s="3">
+        <v>1</v>
+      </c>
+      <c r="T108" s="3">
+        <v>10</v>
+      </c>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+    </row>
+    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
+        <v>106</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>10</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3">
+        <v>10</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M109" s="3">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3">
+        <v>10</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>10</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S109" s="3">
+        <v>1</v>
+      </c>
+      <c r="T109" s="3">
+        <v>10</v>
+      </c>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
+        <v>107</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>10</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>10</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M110" s="3">
+        <v>1</v>
+      </c>
+      <c r="N110" s="3">
+        <v>10</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>15</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S110" s="3">
+        <v>1</v>
+      </c>
+      <c r="T110" s="3">
+        <v>10</v>
+      </c>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3">
+        <v>108</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>10</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3">
+        <v>10</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>10</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S111" s="3">
+        <v>1</v>
+      </c>
+      <c r="T111" s="3">
+        <v>10</v>
+      </c>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3">
+        <v>109</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>10</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>10</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3">
+        <v>10</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>10</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S112" s="3">
+        <v>1</v>
+      </c>
+      <c r="T112" s="3">
+        <v>10</v>
+      </c>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+    </row>
+    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3">
+        <v>110</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>10</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>10</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M113" s="3">
+        <v>1</v>
+      </c>
+      <c r="N113" s="3">
+        <v>10</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>15</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S113" s="3">
+        <v>1</v>
+      </c>
+      <c r="T113" s="3">
+        <v>10</v>
+      </c>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>111</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>10</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M114" s="3">
+        <v>1</v>
+      </c>
+      <c r="N114" s="3">
+        <v>10</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>10</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S114" s="3">
+        <v>1</v>
+      </c>
+      <c r="T114" s="3">
+        <v>10</v>
+      </c>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+    </row>
+    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3">
+        <v>112</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>10</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <v>10</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1</v>
+      </c>
+      <c r="N115" s="3">
+        <v>10</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>10</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S115" s="3">
+        <v>1</v>
+      </c>
+      <c r="T115" s="3">
+        <v>10</v>
+      </c>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+    </row>
+    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3">
+        <v>113</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>10</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>10</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1</v>
+      </c>
+      <c r="N116" s="3">
+        <v>10</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>15</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S116" s="3">
+        <v>1</v>
+      </c>
+      <c r="T116" s="3">
+        <v>10</v>
+      </c>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+    </row>
+    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3">
+        <v>114</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>10</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1</v>
+      </c>
+      <c r="N117" s="3">
+        <v>10</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>10</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S117" s="3">
+        <v>1</v>
+      </c>
+      <c r="T117" s="3">
+        <v>10</v>
+      </c>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+    </row>
+    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
+        <v>115</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>10</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>10</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M118" s="3">
+        <v>1</v>
+      </c>
+      <c r="N118" s="3">
+        <v>10</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P118" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>10</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S118" s="3">
+        <v>1</v>
+      </c>
+      <c r="T118" s="3">
+        <v>10</v>
+      </c>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+    </row>
+    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
+        <v>116</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>10</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>10</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1</v>
+      </c>
+      <c r="N119" s="3">
+        <v>10</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P119" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>15</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S119" s="3">
+        <v>1</v>
+      </c>
+      <c r="T119" s="3">
+        <v>10</v>
+      </c>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+    </row>
+    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
+        <v>117</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>10</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M120" s="3">
+        <v>1</v>
+      </c>
+      <c r="N120" s="3">
+        <v>10</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P120" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>10</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S120" s="3">
+        <v>1</v>
+      </c>
+      <c r="T120" s="3">
+        <v>10</v>
+      </c>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
+        <v>118</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>10</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>10</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M121" s="3">
+        <v>1</v>
+      </c>
+      <c r="N121" s="3">
+        <v>10</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P121" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>10</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S121" s="3">
+        <v>1</v>
+      </c>
+      <c r="T121" s="3">
+        <v>10</v>
+      </c>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
+        <v>119</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>10</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>10</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1</v>
+      </c>
+      <c r="N122" s="3">
+        <v>10</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P122" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>15</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S122" s="3">
+        <v>1</v>
+      </c>
+      <c r="T122" s="3">
+        <v>10</v>
+      </c>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3">
+        <v>120</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>10</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M123" s="3">
+        <v>1</v>
+      </c>
+      <c r="N123" s="3">
+        <v>10</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P123" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>10</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S123" s="3">
+        <v>1</v>
+      </c>
+      <c r="T123" s="3">
+        <v>10</v>
+      </c>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
+        <v>121</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>10</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>10</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M124" s="3">
+        <v>1</v>
+      </c>
+      <c r="N124" s="3">
+        <v>10</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P124" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>10</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S124" s="3">
+        <v>1</v>
+      </c>
+      <c r="T124" s="3">
+        <v>10</v>
+      </c>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <v>122</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>10</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>10</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M125" s="3">
+        <v>1</v>
+      </c>
+      <c r="N125" s="3">
+        <v>10</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P125" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>15</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S125" s="3">
+        <v>1</v>
+      </c>
+      <c r="T125" s="3">
+        <v>10</v>
+      </c>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+    </row>
+    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
+        <v>123</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>10</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1</v>
+      </c>
+      <c r="N126" s="3">
+        <v>10</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P126" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>10</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S126" s="3">
+        <v>1</v>
+      </c>
+      <c r="T126" s="3">
+        <v>10</v>
+      </c>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3">
+        <v>124</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>10</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>10</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M127" s="3">
+        <v>1</v>
+      </c>
+      <c r="N127" s="3">
+        <v>10</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P127" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>10</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S127" s="3">
+        <v>1</v>
+      </c>
+      <c r="T127" s="3">
+        <v>10</v>
+      </c>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+    </row>
+    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3">
+        <v>125</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>10</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>10</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1</v>
+      </c>
+      <c r="N128" s="3">
+        <v>10</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P128" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>15</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S128" s="3">
+        <v>1</v>
+      </c>
+      <c r="T128" s="3">
+        <v>10</v>
+      </c>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3">
+        <v>126</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>10</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M129" s="3">
+        <v>1</v>
+      </c>
+      <c r="N129" s="3">
+        <v>10</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P129" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>10</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S129" s="3">
+        <v>1</v>
+      </c>
+      <c r="T129" s="3">
+        <v>10</v>
+      </c>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>127</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>10</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>10</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1</v>
+      </c>
+      <c r="N130" s="3">
+        <v>10</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>10</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S130" s="3">
+        <v>1</v>
+      </c>
+      <c r="T130" s="3">
+        <v>10</v>
+      </c>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
+        <v>128</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>10</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>10</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M131" s="3">
+        <v>1</v>
+      </c>
+      <c r="N131" s="3">
+        <v>10</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P131" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>15</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S131" s="3">
+        <v>1</v>
+      </c>
+      <c r="T131" s="3">
+        <v>10</v>
+      </c>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
+        <v>129</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>10</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M132" s="3">
+        <v>1</v>
+      </c>
+      <c r="N132" s="3">
+        <v>10</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P132" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>10</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S132" s="3">
+        <v>1</v>
+      </c>
+      <c r="T132" s="3">
+        <v>10</v>
+      </c>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>130</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>10</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>10</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M133" s="3">
+        <v>1</v>
+      </c>
+      <c r="N133" s="3">
+        <v>10</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P133" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>10</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S133" s="3">
+        <v>1</v>
+      </c>
+      <c r="T133" s="3">
+        <v>10</v>
+      </c>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
+        <v>131</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>10</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>10</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M134" s="3">
+        <v>1</v>
+      </c>
+      <c r="N134" s="3">
+        <v>10</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P134" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>15</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S134" s="3">
+        <v>1</v>
+      </c>
+      <c r="T134" s="3">
+        <v>10</v>
+      </c>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3">
+        <v>132</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>10</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M135" s="3">
+        <v>1</v>
+      </c>
+      <c r="N135" s="3">
+        <v>10</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P135" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>10</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S135" s="3">
+        <v>1</v>
+      </c>
+      <c r="T135" s="3">
+        <v>10</v>
+      </c>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3">
+        <v>133</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>10</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>10</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M136" s="3">
+        <v>1</v>
+      </c>
+      <c r="N136" s="3">
+        <v>10</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>10</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S136" s="3">
+        <v>1</v>
+      </c>
+      <c r="T136" s="3">
+        <v>10</v>
+      </c>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3">
+        <v>134</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>10</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>10</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M137" s="3">
+        <v>1</v>
+      </c>
+      <c r="N137" s="3">
+        <v>10</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>15</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S137" s="3">
+        <v>1</v>
+      </c>
+      <c r="T137" s="3">
+        <v>10</v>
+      </c>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3">
+        <v>135</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>10</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M138" s="3">
+        <v>1</v>
+      </c>
+      <c r="N138" s="3">
+        <v>10</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P138" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>10</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S138" s="3">
+        <v>1</v>
+      </c>
+      <c r="T138" s="3">
+        <v>10</v>
+      </c>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+    </row>
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3">
+        <v>136</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>10</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>10</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M139" s="3">
+        <v>1</v>
+      </c>
+      <c r="N139" s="3">
+        <v>10</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P139" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>10</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S139" s="3">
+        <v>1</v>
+      </c>
+      <c r="T139" s="3">
+        <v>10</v>
+      </c>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+    </row>
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3">
+        <v>137</v>
+      </c>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>10</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>10</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M140" s="3">
+        <v>1</v>
+      </c>
+      <c r="N140" s="3">
+        <v>10</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P140" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>15</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S140" s="3">
+        <v>1</v>
+      </c>
+      <c r="T140" s="3">
+        <v>10</v>
+      </c>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+    </row>
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3">
+        <v>138</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>10</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1</v>
+      </c>
+      <c r="N141" s="3">
+        <v>10</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P141" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>10</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S141" s="3">
+        <v>1</v>
+      </c>
+      <c r="T141" s="3">
+        <v>10</v>
+      </c>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7575,22 +10022,22 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7598,19 +10045,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
       <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -7621,22 +10068,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -7647,13 +10094,13 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -7670,13 +10117,13 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3">
         <v>50</v>
@@ -7693,13 +10140,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="3">
         <v>400</v>
@@ -7722,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
@@ -7745,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3">
         <v>50</v>
@@ -7768,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
@@ -7791,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
@@ -7814,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="3">
         <v>50</v>
@@ -7837,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3">
         <v>50</v>
@@ -7860,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="3">
         <v>75</v>
@@ -7883,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="3">
         <v>75</v>
@@ -7906,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -7929,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="3">
         <v>100</v>
@@ -7952,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -7975,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -7998,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="3">
         <v>100</v>
@@ -8021,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -8044,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3">
         <v>150</v>
@@ -8067,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="3">
         <v>150</v>
@@ -8090,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="3">
         <v>600</v>
@@ -8113,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -8136,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="3">
         <v>300</v>
@@ -8159,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
@@ -8182,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="3">
         <v>300</v>
@@ -8205,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="3">
         <v>300</v>
@@ -8228,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="3">
         <v>450</v>
@@ -8251,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3">
         <v>450</v>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D1895-B603-4063-83EE-7FC3027425EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD53254-1D8D-4E14-B97B-2B0CC52DEB8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1723,9 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>47</v>
@@ -1783,7 +1781,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>60</v>
@@ -1844,7 +1842,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
@@ -1907,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <v>60</v>
@@ -1968,7 +1966,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
@@ -2029,7 +2027,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -2091,9 +2089,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>63</v>
@@ -2151,7 +2147,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>60</v>
@@ -2212,7 +2208,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>60</v>
@@ -2275,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>60</v>
@@ -2336,7 +2332,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>60</v>
@@ -2397,7 +2393,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
         <v>60</v>
@@ -2459,9 +2455,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>15</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -2519,7 +2513,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
         <v>60</v>
@@ -2580,7 +2574,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3">
         <v>60</v>
@@ -2643,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3">
         <v>60</v>
@@ -2704,7 +2698,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3">
         <v>60</v>
@@ -2765,7 +2759,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3">
         <v>60</v>
@@ -2827,9 +2821,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>21</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>73</v>
@@ -2887,7 +2879,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E25" s="3">
         <v>60</v>
@@ -2948,7 +2940,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3">
         <v>60</v>
@@ -3011,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E27" s="3">
         <v>60</v>
@@ -3072,7 +3064,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3">
         <v>60</v>
@@ -3133,7 +3125,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="3">
         <v>60</v>
@@ -3195,9 +3187,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>27</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>75</v>
@@ -3255,7 +3245,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31" s="3">
         <v>60</v>
@@ -3316,7 +3306,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E32" s="3">
         <v>60</v>
@@ -3379,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" s="3">
         <v>60</v>
@@ -3440,7 +3430,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3">
         <v>60</v>
@@ -3501,7 +3491,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3">
         <v>60</v>
@@ -3563,9 +3553,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <v>33</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>78</v>
@@ -3623,7 +3611,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E37" s="3">
         <v>60</v>
@@ -3684,7 +3672,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E38" s="3">
         <v>60</v>
@@ -3747,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3">
         <v>60</v>
@@ -3808,7 +3796,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3">
         <v>60</v>
@@ -3869,7 +3857,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E41" s="3">
         <v>60</v>
@@ -3931,9 +3919,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <v>39</v>
-      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>80</v>
@@ -3991,7 +3977,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E43" s="3">
         <v>60</v>
@@ -4052,7 +4038,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3">
         <v>60</v>
@@ -4115,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E45" s="3">
         <v>60</v>
@@ -4176,7 +4162,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E46" s="3">
         <v>60</v>
@@ -4237,7 +4223,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3">
         <v>60</v>
@@ -4299,9 +4285,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3">
-        <v>45</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>82</v>
@@ -4359,7 +4343,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E49" s="3">
         <v>60</v>
@@ -4420,7 +4404,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E50" s="3">
         <v>60</v>
@@ -4483,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E51" s="3">
         <v>60</v>
@@ -4544,7 +4528,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E52" s="3">
         <v>60</v>
@@ -4605,7 +4589,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E53" s="3">
         <v>60</v>
@@ -4667,9 +4651,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3">
-        <v>51</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>84</v>
@@ -4727,7 +4709,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E55" s="3">
         <v>60</v>
@@ -4788,7 +4770,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3">
         <v>60</v>
@@ -4851,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E57" s="3">
         <v>60</v>
@@ -4912,7 +4894,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3">
         <v>60</v>
@@ -4973,7 +4955,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E59" s="3">
         <v>60</v>
@@ -5035,9 +5017,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3">
-        <v>57</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
         <v>86</v>
@@ -5095,7 +5075,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E61" s="3">
         <v>60</v>
@@ -5156,7 +5136,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E62" s="3">
         <v>60</v>
@@ -5219,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E63" s="3">
         <v>60</v>
@@ -5280,7 +5260,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E64" s="3">
         <v>60</v>
@@ -5341,7 +5321,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E65" s="3">
         <v>60</v>
@@ -5403,9 +5383,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3">
-        <v>63</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>88</v>
@@ -5463,7 +5441,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E67" s="3">
         <v>60</v>
@@ -5524,7 +5502,7 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E68" s="3">
         <v>60</v>
@@ -5587,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E69" s="3">
         <v>60</v>
@@ -5648,7 +5626,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E70" s="3">
         <v>60</v>
@@ -5709,7 +5687,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E71" s="3">
         <v>60</v>
@@ -5771,9 +5749,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3">
-        <v>69</v>
-      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
         <v>90</v>
@@ -5831,7 +5807,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
@@ -5892,7 +5868,7 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E74" s="3">
         <v>60</v>
@@ -5955,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="3">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E75" s="3">
         <v>60</v>
@@ -6016,7 +5992,7 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E76" s="3">
         <v>60</v>
@@ -6077,7 +6053,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E77" s="3">
         <v>60</v>
@@ -6139,9 +6115,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3">
-        <v>75</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
         <v>92</v>
@@ -6199,7 +6173,7 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E79" s="3">
         <v>60</v>
@@ -6260,7 +6234,7 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E80" s="3">
         <v>60</v>
@@ -6323,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E81" s="3">
         <v>60</v>
@@ -6384,7 +6358,7 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -6445,7 +6419,7 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E83" s="3">
         <v>60</v>
@@ -6507,9 +6481,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3">
-        <v>81</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
         <v>86</v>
@@ -6567,7 +6539,7 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E85" s="3">
         <v>60</v>
@@ -6628,7 +6600,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E86" s="3">
         <v>60</v>
@@ -6691,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E87" s="3">
         <v>60</v>
@@ -6752,7 +6724,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E88" s="3">
         <v>60</v>
@@ -6813,7 +6785,7 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E89" s="3">
         <v>60</v>
@@ -6875,9 +6847,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3">
-        <v>87</v>
-      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
         <v>88</v>
@@ -6935,7 +6905,7 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E91" s="3">
         <v>60</v>
@@ -6996,7 +6966,7 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E92" s="3">
         <v>60</v>
@@ -7059,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E93" s="3">
         <v>60</v>
@@ -7120,7 +7090,7 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E94" s="3">
         <v>60</v>
@@ -7181,7 +7151,7 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E95" s="3">
         <v>60</v>
@@ -7243,9 +7213,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3">
-        <v>93</v>
-      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
         <v>90</v>
@@ -7303,7 +7271,7 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E97" s="3">
         <v>60</v>
@@ -7364,7 +7332,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E98" s="3">
         <v>60</v>
@@ -7427,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="3">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E99" s="3">
         <v>60</v>
@@ -7488,7 +7456,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E100" s="3">
         <v>60</v>
@@ -7549,7 +7517,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E101" s="3">
         <v>60</v>
@@ -7611,12 +7579,8 @@
         <v>1</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="3">
-        <v>99</v>
-      </c>
-      <c r="E102" s="3">
-        <v>60</v>
-      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
         <v>92</v>
       </c>
@@ -7673,7 +7637,7 @@
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E103" s="3">
         <v>60</v>
@@ -7734,9 +7698,11 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>101</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E104" s="3">
+        <v>60</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>138</v>
       </c>
@@ -7795,9 +7761,11 @@
         <v>1</v>
       </c>
       <c r="D105" s="3">
-        <v>102</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E105" s="3">
+        <v>60</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>93</v>
       </c>
@@ -7854,9 +7822,11 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>103</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E106" s="3">
+        <v>60</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>138</v>
       </c>
@@ -7913,9 +7883,11 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>104</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E107" s="3">
+        <v>60</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>138</v>
       </c>
@@ -7973,9 +7945,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3">
-        <v>105</v>
-      </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="4" t="s">
         <v>139</v>
@@ -8033,9 +8003,11 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3">
-        <v>106</v>
-      </c>
-      <c r="E109" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E109" s="3">
+        <v>60</v>
+      </c>
       <c r="F109" s="3" t="s">
         <v>138</v>
       </c>
@@ -8092,9 +8064,11 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3">
-        <v>107</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E110" s="3">
+        <v>60</v>
+      </c>
       <c r="F110" s="3" t="s">
         <v>138</v>
       </c>
@@ -8153,9 +8127,11 @@
         <v>1</v>
       </c>
       <c r="D111" s="3">
-        <v>108</v>
-      </c>
-      <c r="E111" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E111" s="3">
+        <v>60</v>
+      </c>
       <c r="F111" s="4" t="s">
         <v>140</v>
       </c>
@@ -8212,9 +8188,11 @@
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>109</v>
-      </c>
-      <c r="E112" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="E112" s="3">
+        <v>60</v>
+      </c>
       <c r="F112" s="3" t="s">
         <v>138</v>
       </c>
@@ -8271,9 +8249,11 @@
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>110</v>
-      </c>
-      <c r="E113" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="E113" s="3">
+        <v>60</v>
+      </c>
       <c r="F113" s="3" t="s">
         <v>138</v>
       </c>
@@ -8331,9 +8311,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="3">
-        <v>111</v>
-      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="4" t="s">
         <v>141</v>
@@ -8391,9 +8369,11 @@
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3">
-        <v>112</v>
-      </c>
-      <c r="E115" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E115" s="3">
+        <v>60</v>
+      </c>
       <c r="F115" s="3" t="s">
         <v>138</v>
       </c>
@@ -8450,9 +8430,11 @@
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3">
-        <v>113</v>
-      </c>
-      <c r="E116" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="E116" s="3">
+        <v>60</v>
+      </c>
       <c r="F116" s="3" t="s">
         <v>138</v>
       </c>
@@ -8511,9 +8493,11 @@
         <v>1</v>
       </c>
       <c r="D117" s="3">
-        <v>114</v>
-      </c>
-      <c r="E117" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E117" s="3">
+        <v>60</v>
+      </c>
       <c r="F117" s="4" t="s">
         <v>142</v>
       </c>
@@ -8570,9 +8554,11 @@
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3">
-        <v>115</v>
-      </c>
-      <c r="E118" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="E118" s="3">
+        <v>60</v>
+      </c>
       <c r="F118" s="3" t="s">
         <v>138</v>
       </c>
@@ -8629,9 +8615,11 @@
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3">
-        <v>116</v>
-      </c>
-      <c r="E119" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E119" s="3">
+        <v>60</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>138</v>
       </c>
@@ -8689,9 +8677,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3">
-        <v>117</v>
-      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="4" t="s">
         <v>143</v>
@@ -8749,9 +8735,11 @@
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3">
-        <v>118</v>
-      </c>
-      <c r="E121" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="E121" s="3">
+        <v>60</v>
+      </c>
       <c r="F121" s="3" t="s">
         <v>138</v>
       </c>
@@ -8808,9 +8796,11 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3">
-        <v>119</v>
-      </c>
-      <c r="E122" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E122" s="3">
+        <v>60</v>
+      </c>
       <c r="F122" s="3" t="s">
         <v>138</v>
       </c>
@@ -8869,9 +8859,11 @@
         <v>1</v>
       </c>
       <c r="D123" s="3">
-        <v>120</v>
-      </c>
-      <c r="E123" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E123" s="3">
+        <v>60</v>
+      </c>
       <c r="F123" s="4" t="s">
         <v>144</v>
       </c>
@@ -8928,9 +8920,11 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
-        <v>121</v>
-      </c>
-      <c r="E124" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E124" s="3">
+        <v>60</v>
+      </c>
       <c r="F124" s="3" t="s">
         <v>138</v>
       </c>
@@ -8987,9 +8981,11 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3">
-        <v>122</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E125" s="3">
+        <v>60</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>138</v>
       </c>
@@ -9047,9 +9043,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="3">
-        <v>123</v>
-      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="4" t="s">
         <v>145</v>
@@ -9107,9 +9101,11 @@
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>124</v>
-      </c>
-      <c r="E127" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="E127" s="3">
+        <v>60</v>
+      </c>
       <c r="F127" s="3" t="s">
         <v>138</v>
       </c>
@@ -9166,9 +9162,11 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>125</v>
-      </c>
-      <c r="E128" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="E128" s="3">
+        <v>60</v>
+      </c>
       <c r="F128" s="3" t="s">
         <v>138</v>
       </c>
@@ -9227,9 +9225,11 @@
         <v>1</v>
       </c>
       <c r="D129" s="3">
-        <v>126</v>
-      </c>
-      <c r="E129" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="E129" s="3">
+        <v>60</v>
+      </c>
       <c r="F129" s="4" t="s">
         <v>146</v>
       </c>
@@ -9286,9 +9286,11 @@
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3">
-        <v>127</v>
-      </c>
-      <c r="E130" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="E130" s="3">
+        <v>60</v>
+      </c>
       <c r="F130" s="3" t="s">
         <v>138</v>
       </c>
@@ -9345,9 +9347,11 @@
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3">
-        <v>128</v>
-      </c>
-      <c r="E131" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="E131" s="3">
+        <v>60</v>
+      </c>
       <c r="F131" s="3" t="s">
         <v>138</v>
       </c>
@@ -9405,9 +9409,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="3"/>
-      <c r="D132" s="3">
-        <v>129</v>
-      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="4" t="s">
         <v>147</v>
@@ -9465,9 +9467,11 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3">
-        <v>130</v>
-      </c>
-      <c r="E133" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E133" s="3">
+        <v>60</v>
+      </c>
       <c r="F133" s="3" t="s">
         <v>138</v>
       </c>
@@ -9524,9 +9528,11 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
-        <v>131</v>
-      </c>
-      <c r="E134" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="E134" s="3">
+        <v>60</v>
+      </c>
       <c r="F134" s="3" t="s">
         <v>138</v>
       </c>
@@ -9585,9 +9591,11 @@
         <v>1</v>
       </c>
       <c r="D135" s="3">
-        <v>132</v>
-      </c>
-      <c r="E135" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E135" s="3">
+        <v>60</v>
+      </c>
       <c r="F135" s="4" t="s">
         <v>148</v>
       </c>
@@ -9644,9 +9652,11 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>133</v>
-      </c>
-      <c r="E136" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E136" s="3">
+        <v>60</v>
+      </c>
       <c r="F136" s="3" t="s">
         <v>138</v>
       </c>
@@ -9703,9 +9713,11 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>134</v>
-      </c>
-      <c r="E137" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="E137" s="3">
+        <v>60</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>138</v>
       </c>
@@ -9763,9 +9775,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="3"/>
-      <c r="D138" s="3">
-        <v>135</v>
-      </c>
+      <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="4" t="s">
         <v>149</v>
@@ -9823,9 +9833,11 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>136</v>
-      </c>
-      <c r="E139" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="E139" s="3">
+        <v>60</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>138</v>
       </c>
@@ -9882,9 +9894,11 @@
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>137</v>
-      </c>
-      <c r="E140" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E140" s="3">
+        <v>60</v>
+      </c>
       <c r="F140" s="3" t="s">
         <v>138</v>
       </c>
@@ -9943,9 +9957,11 @@
         <v>1</v>
       </c>
       <c r="D141" s="3">
-        <v>138</v>
-      </c>
-      <c r="E141" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E141" s="3">
+        <v>60</v>
+      </c>
       <c r="F141" s="4" t="s">
         <v>150</v>
       </c>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705669A-ACA1-4BF0-B7A4-031E38F773C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9C867-EE05-4C5B-B588-2276662BFA0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="270">
   <si>
     <t>sheet名</t>
   </si>
@@ -722,6 +722,354 @@
   <si>
     <t>推荐战力</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关，10级属性</t>
+  </si>
+  <si>
+    <t>普通关，15级属性</t>
+  </si>
+  <si>
+    <t>宝箱关</t>
+  </si>
+  <si>
+    <t>普通关，20级属性</t>
+  </si>
+  <si>
+    <t>普通关，22级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，25级属性</t>
+  </si>
+  <si>
+    <t>普通关，27级属性</t>
+  </si>
+  <si>
+    <t>普通关，29级属性</t>
+  </si>
+  <si>
+    <t>普通关，35级</t>
+  </si>
+  <si>
+    <t>普通关，37级</t>
+  </si>
+  <si>
+    <t>BOSS关，40级属性</t>
+  </si>
+  <si>
+    <t>普通关，43</t>
+  </si>
+  <si>
+    <t>普通关，45</t>
+  </si>
+  <si>
+    <t>普通关，50</t>
+  </si>
+  <si>
+    <t>普通关，53</t>
+  </si>
+  <si>
+    <t>BOSS关，55级属性</t>
+  </si>
+  <si>
+    <t>普通关，57级属性</t>
+  </si>
+  <si>
+    <t>普通关，60级属性</t>
+  </si>
+  <si>
+    <t>普通关，65级属性</t>
+  </si>
+  <si>
+    <t>普通关，67级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，70级属性</t>
+  </si>
+  <si>
+    <t>普通关，72级属性</t>
+  </si>
+  <si>
+    <t>普通关，74级属性</t>
+  </si>
+  <si>
+    <t>普通关，76级属性</t>
+  </si>
+  <si>
+    <t>普通关，78级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，80级属性</t>
+  </si>
+  <si>
+    <t>普通关，83级属性</t>
+  </si>
+  <si>
+    <t>普通关，85级属性</t>
+  </si>
+  <si>
+    <t>普通关，90级属性</t>
+  </si>
+  <si>
+    <t>普通关，95级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，100级属性</t>
+  </si>
+  <si>
+    <t>普通关，102级属性</t>
+  </si>
+  <si>
+    <t>普通关，105级属性</t>
+  </si>
+  <si>
+    <t>普通关，110级属性</t>
+  </si>
+  <si>
+    <t>普通关，113级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，120级属性</t>
+  </si>
+  <si>
+    <t>普通关，122级属性</t>
+  </si>
+  <si>
+    <t>普通关，125级属性</t>
+  </si>
+  <si>
+    <t>普通关，130级属性</t>
+  </si>
+  <si>
+    <t>普通关，132级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，140级属性</t>
+  </si>
+  <si>
+    <t>普通关，142级属性</t>
+  </si>
+  <si>
+    <t>普通关，145级属性</t>
+  </si>
+  <si>
+    <t>普通关，150级属性</t>
+  </si>
+  <si>
+    <t>普通关，152级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，160级属性</t>
+  </si>
+  <si>
+    <t>普通关，163级属性</t>
+  </si>
+  <si>
+    <t>普通关，165级属性</t>
+  </si>
+  <si>
+    <t>普通关，170级属性</t>
+  </si>
+  <si>
+    <t>普通关，173级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，180级属性</t>
+  </si>
+  <si>
+    <t>普通关，182级属性</t>
+  </si>
+  <si>
+    <t>普通关，185级属性</t>
+  </si>
+  <si>
+    <t>普通关，190级属性</t>
+  </si>
+  <si>
+    <t>普通关，195级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，200级属性</t>
+  </si>
+  <si>
+    <t>普通关，205级属性</t>
+  </si>
+  <si>
+    <t>普通关，210级属性</t>
+  </si>
+  <si>
+    <t>普通关，220级属性</t>
+  </si>
+  <si>
+    <t>普通关，225级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，240级属性</t>
+  </si>
+  <si>
+    <t>普通关，243级属性</t>
+  </si>
+  <si>
+    <t>普通关，245级属性</t>
+  </si>
+  <si>
+    <t>普通关，250级属性</t>
+  </si>
+  <si>
+    <t>普通关，253级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，260级属性</t>
+  </si>
+  <si>
+    <t>普通关，265级属性</t>
+  </si>
+  <si>
+    <t>普通关，270级属性</t>
+  </si>
+  <si>
+    <t>普通关，285级属性</t>
+  </si>
+  <si>
+    <t>普通关，290级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，300级属性</t>
+  </si>
+  <si>
+    <t>普通关，302级属性</t>
+  </si>
+  <si>
+    <t>普通关，305级属性</t>
+  </si>
+  <si>
+    <t>普通关，310级属性</t>
+  </si>
+  <si>
+    <t>普通关，315级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，320级属性</t>
+  </si>
+  <si>
+    <t>普通关，323级属性</t>
+  </si>
+  <si>
+    <t>普通关，325级属性</t>
+  </si>
+  <si>
+    <t>普通关，340级属性</t>
+  </si>
+  <si>
+    <t>普通关，343级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，350级属性</t>
+  </si>
+  <si>
+    <t>普通关，352级属性</t>
+  </si>
+  <si>
+    <t>普通关，355级属性</t>
+  </si>
+  <si>
+    <t>普通关，360级属性</t>
+  </si>
+  <si>
+    <t>普通关，365级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，370级属性</t>
+  </si>
+  <si>
+    <t>普通关，372级属性</t>
+  </si>
+  <si>
+    <t>普通关，375级属性</t>
+  </si>
+  <si>
+    <t>普通关，385级属性</t>
+  </si>
+  <si>
+    <t>普通关，390级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，400级属性</t>
+  </si>
+  <si>
+    <t>普通关，402级属性</t>
+  </si>
+  <si>
+    <t>普通关，405级属性</t>
+  </si>
+  <si>
+    <t>普通关，410级属性</t>
+  </si>
+  <si>
+    <t>普通关，413级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，420级属性</t>
+  </si>
+  <si>
+    <t>普通关，423级属性</t>
+  </si>
+  <si>
+    <t>普通关，425级属性</t>
+  </si>
+  <si>
+    <t>普通关，430级属性</t>
+  </si>
+  <si>
+    <t>普通关，433级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，440级属性</t>
+  </si>
+  <si>
+    <t>普通关，442级属性</t>
+  </si>
+  <si>
+    <t>普通关，445级属性</t>
+  </si>
+  <si>
+    <t>普通关，450级属性</t>
+  </si>
+  <si>
+    <t>普通关，455级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，460级属性</t>
+  </si>
+  <si>
+    <t>普通关，462级属性</t>
+  </si>
+  <si>
+    <t>普通关，465级属性</t>
+  </si>
+  <si>
+    <t>普通关，470级属性</t>
+  </si>
+  <si>
+    <t>普通关，473级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，480级属性</t>
+  </si>
+  <si>
+    <t>普通关，483级属性</t>
+  </si>
+  <si>
+    <t>普通关，485级属性</t>
+  </si>
+  <si>
+    <t>普通关，490级属性</t>
+  </si>
+  <si>
+    <t>普通关，493级属性</t>
+  </si>
+  <si>
+    <t>BOSS关，500级属性</t>
   </si>
 </sst>
 </file>
@@ -1358,13 +1706,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A6AE-C641-48B5-AE4D-CE70B2979CBD}">
-  <dimension ref="A1:X141"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q97" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1376,19 +1724,21 @@
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
     <col min="11" max="11" width="22.625" customWidth="1"/>
-    <col min="12" max="15" width="21.375" customWidth="1"/>
-    <col min="16" max="16" width="24.25" customWidth="1"/>
-    <col min="17" max="17" width="23.125" customWidth="1"/>
-    <col min="18" max="18" width="24.25" customWidth="1"/>
-    <col min="19" max="19" width="20.875" customWidth="1"/>
-    <col min="20" max="20" width="22.625" customWidth="1"/>
-    <col min="21" max="21" width="26.625" customWidth="1"/>
-    <col min="22" max="22" width="19.25" customWidth="1"/>
-    <col min="23" max="23" width="21.75" customWidth="1"/>
-    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="12" max="14" width="21.375" customWidth="1"/>
+    <col min="15" max="15" width="40.25" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
+    <col min="17" max="17" width="24.25" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
+    <col min="19" max="19" width="24.25" customWidth="1"/>
+    <col min="20" max="20" width="20.875" customWidth="1"/>
+    <col min="21" max="21" width="22.625" customWidth="1"/>
+    <col min="22" max="22" width="26.625" customWidth="1"/>
+    <col min="23" max="23" width="19.25" customWidth="1"/>
+    <col min="24" max="24" width="21.75" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>132</v>
       </c>
@@ -1431,38 +1781,39 @@
       <c r="N1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1505,38 +1856,38 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1579,38 +1930,39 @@
       <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1649,32 +2001,35 @@
       <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
+      <c r="O4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R4" s="3">
-        <v>10</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U4" s="3">
-        <v>10</v>
-      </c>
-      <c r="V4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>10</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1713,32 +2068,35 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
+      <c r="O5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R5" s="3">
-        <v>10</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>10</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U5" s="3">
-        <v>10</v>
-      </c>
-      <c r="V5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>10</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1773,32 +2131,35 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
+      <c r="O6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R6" s="3">
-        <v>10</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>10</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U6" s="3">
-        <v>10</v>
-      </c>
-      <c r="V6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>10</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1837,32 +2198,35 @@
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="3">
-        <v>10</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
+      <c r="O7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R7" s="3">
-        <v>10</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>15</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U7" s="3">
-        <v>10</v>
-      </c>
-      <c r="V7" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>10</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1901,32 +2265,35 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
-        <v>10</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R8" s="3">
-        <v>10</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>15</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U8" s="3">
-        <v>10</v>
-      </c>
-      <c r="V8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>10</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1967,32 +2334,35 @@
       <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
-        <v>10</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R9" s="3">
-        <v>10</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>10</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U9" s="3">
-        <v>10</v>
-      </c>
-      <c r="V9" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>10</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2031,32 +2401,35 @@
       <c r="N10" s="3">
         <v>1</v>
       </c>
-      <c r="O10" s="3">
-        <v>10</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R10" s="3">
-        <v>10</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>15</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U10" s="3">
-        <v>10</v>
-      </c>
-      <c r="V10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>10</v>
+      </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2095,32 +2468,35 @@
       <c r="N11" s="3">
         <v>1</v>
       </c>
-      <c r="O11" s="3">
-        <v>10</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
+      <c r="O11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R11" s="3">
-        <v>10</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>15</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U11" s="3">
-        <v>10</v>
-      </c>
-      <c r="V11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>10</v>
+      </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2155,32 +2531,35 @@
       <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="3">
-        <v>10</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R12" s="3">
-        <v>10</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U12" s="3">
-        <v>10</v>
-      </c>
-      <c r="V12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>10</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2219,32 +2598,35 @@
       <c r="N13" s="3">
         <v>1</v>
       </c>
-      <c r="O13" s="3">
-        <v>10</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
+      <c r="O13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <v>5</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1</v>
+      <c r="T13" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U13" s="3">
-        <v>10</v>
-      </c>
-      <c r="V13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>10</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2283,32 +2665,35 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="3">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R14" s="3">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U14" s="3">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>10</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2349,32 +2734,35 @@
       <c r="N15" s="3">
         <v>1</v>
       </c>
-      <c r="O15" s="3">
-        <v>10</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R15" s="3">
-        <v>10</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U15" s="3">
-        <v>10</v>
-      </c>
-      <c r="V15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>10</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2413,32 +2801,35 @@
       <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="3">
-        <v>10</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
+      <c r="O16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
         <v>5</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
+      <c r="T16" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U16" s="3">
-        <v>10</v>
-      </c>
-      <c r="V16" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>10</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2477,32 +2868,35 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="3">
-        <v>10</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R17" s="3">
-        <v>10</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U17" s="3">
-        <v>10</v>
-      </c>
-      <c r="V17" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>10</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2537,32 +2931,35 @@
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="O18" s="3">
-        <v>10</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R18" s="3">
-        <v>10</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U18" s="3">
-        <v>10</v>
-      </c>
-      <c r="V18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>10</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2601,32 +2998,35 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="3">
-        <v>10</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
+      <c r="O19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
         <v>5</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
+      <c r="T19" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U19" s="3">
-        <v>10</v>
-      </c>
-      <c r="V19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>10</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2665,32 +3065,35 @@
       <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="3">
-        <v>10</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R20" s="3">
-        <v>10</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U20" s="3">
-        <v>10</v>
-      </c>
-      <c r="V20" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>10</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2731,32 +3134,35 @@
       <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="3">
-        <v>10</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R21" s="3">
-        <v>10</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U21" s="3">
-        <v>10</v>
-      </c>
-      <c r="V21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>10</v>
+      </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2795,32 +3201,35 @@
       <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="O22" s="3">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>7</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1</v>
+      <c r="T22" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U22" s="3">
-        <v>10</v>
-      </c>
-      <c r="V22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>10</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2859,32 +3268,35 @@
       <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="O23" s="3">
-        <v>10</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
+      <c r="O23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>13</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1</v>
+      <c r="T23" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U23" s="3">
-        <v>10</v>
-      </c>
-      <c r="V23" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>10</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2919,32 +3331,35 @@
       <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="O24" s="3">
-        <v>10</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R24" s="3">
-        <v>10</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U24" s="3">
-        <v>10</v>
-      </c>
-      <c r="V24" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>10</v>
+      </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2983,32 +3398,35 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="3">
-        <v>10</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
+      <c r="O25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
         <v>7</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1</v>
+      <c r="T25" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U25" s="3">
-        <v>10</v>
-      </c>
-      <c r="V25" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>10</v>
+      </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3047,32 +3465,35 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="3">
-        <v>10</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
+      <c r="O26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>13</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
+      <c r="T26" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U26" s="3">
-        <v>10</v>
-      </c>
-      <c r="V26" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>10</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3113,32 +3534,35 @@
       <c r="N27" s="3">
         <v>1</v>
       </c>
-      <c r="O27" s="3">
-        <v>10</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
+      <c r="O27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R27" s="3">
-        <v>10</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U27" s="3">
-        <v>10</v>
-      </c>
-      <c r="V27" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>10</v>
+      </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3177,32 +3601,35 @@
       <c r="N28" s="3">
         <v>1</v>
       </c>
-      <c r="O28" s="3">
-        <v>10</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
+      <c r="O28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R28" s="3">
-        <v>10</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U28" s="3">
-        <v>10</v>
-      </c>
-      <c r="V28" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>10</v>
+      </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3241,32 +3668,35 @@
       <c r="N29" s="3">
         <v>1</v>
       </c>
-      <c r="O29" s="3">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>15</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T29" s="3">
-        <v>1</v>
+      <c r="T29" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U29" s="3">
-        <v>10</v>
-      </c>
-      <c r="V29" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <v>10</v>
+      </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3301,32 +3731,35 @@
       <c r="N30" s="3">
         <v>1</v>
       </c>
-      <c r="O30" s="3">
-        <v>10</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
+      <c r="O30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P30" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R30" s="3">
-        <v>10</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>10</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U30" s="3">
-        <v>10</v>
-      </c>
-      <c r="V30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>10</v>
+      </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3365,32 +3798,35 @@
       <c r="N31" s="3">
         <v>1</v>
       </c>
-      <c r="O31" s="3">
-        <v>10</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
+      <c r="O31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P31" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R31" s="3">
-        <v>10</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>10</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U31" s="3">
-        <v>10</v>
-      </c>
-      <c r="V31" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>10</v>
+      </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3429,32 +3865,35 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="3">
-        <v>10</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>15</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1</v>
+      <c r="T32" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U32" s="3">
-        <v>10</v>
-      </c>
-      <c r="V32" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>10</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3495,32 +3934,35 @@
       <c r="N33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="3">
-        <v>10</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
+      <c r="O33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R33" s="3">
-        <v>10</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U33" s="3">
-        <v>10</v>
-      </c>
-      <c r="V33" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>10</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3559,32 +4001,35 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="3">
-        <v>10</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
+      <c r="O34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R34" s="3">
-        <v>10</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>10</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U34" s="3">
-        <v>10</v>
-      </c>
-      <c r="V34" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="3">
+        <v>10</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3623,32 +4068,35 @@
       <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="3">
-        <v>10</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
+      <c r="O35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>15</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1</v>
+      <c r="T35" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U35" s="3">
-        <v>10</v>
-      </c>
-      <c r="V35" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>10</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3683,32 +4131,35 @@
       <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="O36" s="3">
-        <v>10</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
+      <c r="O36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P36" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R36" s="3">
-        <v>10</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>10</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U36" s="3">
-        <v>10</v>
-      </c>
-      <c r="V36" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>10</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3747,32 +4198,35 @@
       <c r="N37" s="3">
         <v>1</v>
       </c>
-      <c r="O37" s="3">
-        <v>10</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
+      <c r="O37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P37" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R37" s="3">
-        <v>10</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T37" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>10</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U37" s="3">
-        <v>10</v>
-      </c>
-      <c r="V37" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <v>10</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3811,32 +4265,35 @@
       <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="O38" s="3">
-        <v>10</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
+      <c r="O38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P38" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
         <v>15</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T38" s="3">
-        <v>1</v>
+      <c r="T38" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U38" s="3">
-        <v>10</v>
-      </c>
-      <c r="V38" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="3">
+        <v>10</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3877,32 +4334,35 @@
       <c r="N39" s="3">
         <v>1</v>
       </c>
-      <c r="O39" s="3">
-        <v>10</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
+      <c r="O39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P39" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R39" s="3">
-        <v>10</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T39" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>10</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U39" s="3">
-        <v>10</v>
-      </c>
-      <c r="V39" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>10</v>
+      </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3941,32 +4401,35 @@
       <c r="N40" s="3">
         <v>1</v>
       </c>
-      <c r="O40" s="3">
-        <v>10</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
+      <c r="O40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P40" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R40" s="3">
-        <v>10</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T40" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>10</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U40" s="3">
-        <v>10</v>
-      </c>
-      <c r="V40" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="3">
+        <v>10</v>
+      </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4005,32 +4468,35 @@
       <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="O41" s="3">
-        <v>10</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P41" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>15</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1</v>
+      <c r="T41" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U41" s="3">
-        <v>10</v>
-      </c>
-      <c r="V41" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <v>10</v>
+      </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4065,32 +4531,35 @@
       <c r="N42" s="3">
         <v>1</v>
       </c>
-      <c r="O42" s="3">
-        <v>10</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P42" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R42" s="3">
-        <v>10</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T42" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U42" s="3">
-        <v>10</v>
-      </c>
-      <c r="V42" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>10</v>
+      </c>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4129,32 +4598,35 @@
       <c r="N43" s="3">
         <v>1</v>
       </c>
-      <c r="O43" s="3">
-        <v>10</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P43" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R43" s="3">
-        <v>10</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U43" s="3">
-        <v>10</v>
-      </c>
-      <c r="V43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="3">
+        <v>10</v>
+      </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4193,32 +4665,35 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="O44" s="3">
-        <v>10</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P44" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>15</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1</v>
+      <c r="T44" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U44" s="3">
-        <v>10</v>
-      </c>
-      <c r="V44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="3">
+        <v>10</v>
+      </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4259,32 +4734,35 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="3">
-        <v>10</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P45" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R45" s="3">
-        <v>10</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U45" s="3">
-        <v>10</v>
-      </c>
-      <c r="V45" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>10</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4323,32 +4801,35 @@
       <c r="N46" s="3">
         <v>1</v>
       </c>
-      <c r="O46" s="3">
-        <v>10</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P46" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R46" s="3">
-        <v>10</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U46" s="3">
-        <v>10</v>
-      </c>
-      <c r="V46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V46" s="3">
+        <v>10</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4387,32 +4868,35 @@
       <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="O47" s="3">
-        <v>10</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P47" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>15</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1</v>
+      <c r="T47" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U47" s="3">
-        <v>10</v>
-      </c>
-      <c r="V47" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V47" s="3">
+        <v>10</v>
+      </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4447,32 +4931,35 @@
       <c r="N48" s="3">
         <v>1</v>
       </c>
-      <c r="O48" s="3">
-        <v>10</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P48" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R48" s="3">
-        <v>10</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U48" s="3">
-        <v>10</v>
-      </c>
-      <c r="V48" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>10</v>
+      </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -4511,32 +4998,35 @@
       <c r="N49" s="3">
         <v>1</v>
       </c>
-      <c r="O49" s="3">
-        <v>10</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R49" s="3">
-        <v>10</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U49" s="3">
-        <v>10</v>
-      </c>
-      <c r="V49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="3">
+        <v>10</v>
+      </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -4575,32 +5065,35 @@
       <c r="N50" s="3">
         <v>1</v>
       </c>
-      <c r="O50" s="3">
-        <v>10</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0</v>
+      <c r="O50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P50" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
         <v>15</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T50" s="3">
-        <v>1</v>
+      <c r="T50" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U50" s="3">
-        <v>10</v>
-      </c>
-      <c r="V50" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="3">
+        <v>10</v>
+      </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -4641,32 +5134,35 @@
       <c r="N51" s="3">
         <v>1</v>
       </c>
-      <c r="O51" s="3">
-        <v>10</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
+      <c r="O51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P51" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R51" s="3">
-        <v>10</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T51" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>10</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U51" s="3">
-        <v>10</v>
-      </c>
-      <c r="V51" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>10</v>
+      </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -4705,32 +5201,35 @@
       <c r="N52" s="3">
         <v>1</v>
       </c>
-      <c r="O52" s="3">
-        <v>10</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P52" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R52" s="3">
-        <v>10</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U52" s="3">
-        <v>10</v>
-      </c>
-      <c r="V52" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="3">
+        <v>10</v>
+      </c>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -4769,32 +5268,35 @@
       <c r="N53" s="3">
         <v>1</v>
       </c>
-      <c r="O53" s="3">
-        <v>10</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
+      <c r="O53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P53" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
         <v>15</v>
       </c>
-      <c r="S53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T53" s="3">
-        <v>1</v>
+      <c r="T53" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U53" s="3">
-        <v>10</v>
-      </c>
-      <c r="V53" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V53" s="3">
+        <v>10</v>
+      </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -4829,32 +5331,35 @@
       <c r="N54" s="3">
         <v>1</v>
       </c>
-      <c r="O54" s="3">
-        <v>10</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P54" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R54" s="3">
-        <v>10</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U54" s="3">
-        <v>10</v>
-      </c>
-      <c r="V54" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>10</v>
+      </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -4893,32 +5398,35 @@
       <c r="N55" s="3">
         <v>1</v>
       </c>
-      <c r="O55" s="3">
-        <v>10</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0</v>
+      <c r="O55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P55" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R55" s="3">
-        <v>10</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T55" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <v>10</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U55" s="3">
-        <v>10</v>
-      </c>
-      <c r="V55" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V55" s="3">
+        <v>10</v>
+      </c>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -4957,32 +5465,35 @@
       <c r="N56" s="3">
         <v>1</v>
       </c>
-      <c r="O56" s="3">
-        <v>10</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0</v>
+      <c r="O56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P56" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
         <v>15</v>
       </c>
-      <c r="S56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T56" s="3">
-        <v>1</v>
+      <c r="T56" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U56" s="3">
-        <v>10</v>
-      </c>
-      <c r="V56" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>10</v>
+      </c>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -5023,32 +5534,35 @@
       <c r="N57" s="3">
         <v>1</v>
       </c>
-      <c r="O57" s="3">
-        <v>10</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P57" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R57" s="3">
-        <v>10</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U57" s="3">
-        <v>10</v>
-      </c>
-      <c r="V57" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>10</v>
+      </c>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -5087,32 +5601,35 @@
       <c r="N58" s="3">
         <v>1</v>
       </c>
-      <c r="O58" s="3">
-        <v>10</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R58" s="3">
-        <v>10</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U58" s="3">
-        <v>10</v>
-      </c>
-      <c r="V58" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="3">
+        <v>10</v>
+      </c>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -5151,32 +5668,35 @@
       <c r="N59" s="3">
         <v>1</v>
       </c>
-      <c r="O59" s="3">
-        <v>10</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P59" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>15</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1</v>
+      <c r="T59" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U59" s="3">
-        <v>10</v>
-      </c>
-      <c r="V59" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V59" s="3">
+        <v>10</v>
+      </c>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -5211,32 +5731,35 @@
       <c r="N60" s="3">
         <v>1</v>
       </c>
-      <c r="O60" s="3">
-        <v>10</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P60" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R60" s="3">
-        <v>10</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U60" s="3">
-        <v>10</v>
-      </c>
-      <c r="V60" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>10</v>
+      </c>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -5275,32 +5798,35 @@
       <c r="N61" s="3">
         <v>1</v>
       </c>
-      <c r="O61" s="3">
-        <v>10</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
+      <c r="O61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P61" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R61" s="3">
-        <v>10</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>10</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U61" s="3">
-        <v>10</v>
-      </c>
-      <c r="V61" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
+        <v>10</v>
+      </c>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -5339,32 +5865,35 @@
       <c r="N62" s="3">
         <v>1</v>
       </c>
-      <c r="O62" s="3">
-        <v>10</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P62" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>15</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1</v>
+      <c r="T62" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U62" s="3">
-        <v>10</v>
-      </c>
-      <c r="V62" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <v>10</v>
+      </c>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -5405,32 +5934,35 @@
       <c r="N63" s="3">
         <v>1</v>
       </c>
-      <c r="O63" s="3">
-        <v>10</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>0</v>
+      <c r="O63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P63" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R63" s="3">
-        <v>10</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T63" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>10</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U63" s="3">
-        <v>10</v>
-      </c>
-      <c r="V63" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>10</v>
+      </c>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -5469,32 +6001,35 @@
       <c r="N64" s="3">
         <v>1</v>
       </c>
-      <c r="O64" s="3">
-        <v>10</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0</v>
+      <c r="O64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P64" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R64" s="3">
-        <v>10</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T64" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>10</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U64" s="3">
-        <v>10</v>
-      </c>
-      <c r="V64" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="3">
+        <v>10</v>
+      </c>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -5533,32 +6068,35 @@
       <c r="N65" s="3">
         <v>1</v>
       </c>
-      <c r="O65" s="3">
-        <v>10</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>0</v>
+      <c r="O65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P65" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
         <v>15</v>
       </c>
-      <c r="S65" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T65" s="3">
-        <v>1</v>
+      <c r="T65" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U65" s="3">
-        <v>10</v>
-      </c>
-      <c r="V65" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
+        <v>10</v>
+      </c>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -5593,32 +6131,35 @@
       <c r="N66" s="3">
         <v>1</v>
       </c>
-      <c r="O66" s="3">
-        <v>10</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P66" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R66" s="3">
-        <v>10</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>10</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U66" s="3">
-        <v>10</v>
-      </c>
-      <c r="V66" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>10</v>
+      </c>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -5657,32 +6198,35 @@
       <c r="N67" s="3">
         <v>1</v>
       </c>
-      <c r="O67" s="3">
-        <v>10</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>0</v>
+      <c r="O67" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P67" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R67" s="3">
-        <v>10</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T67" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
+        <v>10</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U67" s="3">
-        <v>10</v>
-      </c>
-      <c r="V67" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V67" s="3">
+        <v>10</v>
+      </c>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -5721,32 +6265,35 @@
       <c r="N68" s="3">
         <v>1</v>
       </c>
-      <c r="O68" s="3">
-        <v>10</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>0</v>
+      <c r="O68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P68" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
         <v>15</v>
       </c>
-      <c r="S68" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T68" s="3">
-        <v>1</v>
+      <c r="T68" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U68" s="3">
-        <v>10</v>
-      </c>
-      <c r="V68" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="3">
+        <v>10</v>
+      </c>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -5787,32 +6334,35 @@
       <c r="N69" s="3">
         <v>1</v>
       </c>
-      <c r="O69" s="3">
-        <v>10</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0</v>
+      <c r="O69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P69" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R69" s="3">
-        <v>10</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T69" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>10</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U69" s="3">
-        <v>10</v>
-      </c>
-      <c r="V69" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>10</v>
+      </c>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -5851,32 +6401,35 @@
       <c r="N70" s="3">
         <v>1</v>
       </c>
-      <c r="O70" s="3">
-        <v>10</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
+      <c r="O70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P70" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R70" s="3">
-        <v>10</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>10</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U70" s="3">
-        <v>10</v>
-      </c>
-      <c r="V70" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V70" s="3">
+        <v>10</v>
+      </c>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -5915,32 +6468,35 @@
       <c r="N71" s="3">
         <v>1</v>
       </c>
-      <c r="O71" s="3">
-        <v>10</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>0</v>
+      <c r="O71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P71" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
         <v>15</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T71" s="3">
-        <v>1</v>
+      <c r="T71" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U71" s="3">
-        <v>10</v>
-      </c>
-      <c r="V71" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V71" s="3">
+        <v>10</v>
+      </c>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -5975,32 +6531,35 @@
       <c r="N72" s="3">
         <v>1</v>
       </c>
-      <c r="O72" s="3">
-        <v>10</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P72" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R72" s="3">
-        <v>10</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T72" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U72" s="3">
-        <v>10</v>
-      </c>
-      <c r="V72" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>10</v>
+      </c>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -6039,32 +6598,35 @@
       <c r="N73" s="3">
         <v>1</v>
       </c>
-      <c r="O73" s="3">
-        <v>10</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0</v>
+      <c r="O73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P73" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R73" s="3">
-        <v>10</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T73" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>10</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U73" s="3">
-        <v>10</v>
-      </c>
-      <c r="V73" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="3">
+        <v>10</v>
+      </c>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -6103,32 +6665,35 @@
       <c r="N74" s="3">
         <v>1</v>
       </c>
-      <c r="O74" s="3">
-        <v>10</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0</v>
+      <c r="O74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P74" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
         <v>15</v>
       </c>
-      <c r="S74" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T74" s="3">
-        <v>1</v>
+      <c r="T74" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U74" s="3">
-        <v>10</v>
-      </c>
-      <c r="V74" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V74" s="3">
+        <v>10</v>
+      </c>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6169,32 +6734,35 @@
       <c r="N75" s="3">
         <v>1</v>
       </c>
-      <c r="O75" s="3">
-        <v>10</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>0</v>
+      <c r="O75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P75" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R75" s="3">
-        <v>10</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T75" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>10</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U75" s="3">
-        <v>10</v>
-      </c>
-      <c r="V75" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>10</v>
+      </c>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -6233,32 +6801,35 @@
       <c r="N76" s="3">
         <v>1</v>
       </c>
-      <c r="O76" s="3">
-        <v>10</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P76" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R76" s="3">
-        <v>10</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U76" s="3">
-        <v>10</v>
-      </c>
-      <c r="V76" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <v>10</v>
+      </c>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -6297,32 +6868,35 @@
       <c r="N77" s="3">
         <v>1</v>
       </c>
-      <c r="O77" s="3">
-        <v>10</v>
-      </c>
-      <c r="P77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>0</v>
+      <c r="O77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P77" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
         <v>15</v>
       </c>
-      <c r="S77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T77" s="3">
-        <v>1</v>
+      <c r="T77" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U77" s="3">
-        <v>10</v>
-      </c>
-      <c r="V77" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V77" s="3">
+        <v>10</v>
+      </c>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -6357,32 +6931,35 @@
       <c r="N78" s="3">
         <v>1</v>
       </c>
-      <c r="O78" s="3">
-        <v>10</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
+      <c r="O78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P78" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R78" s="3">
-        <v>10</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T78" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <v>10</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U78" s="3">
-        <v>10</v>
-      </c>
-      <c r="V78" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>10</v>
+      </c>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -6421,32 +6998,35 @@
       <c r="N79" s="3">
         <v>1</v>
       </c>
-      <c r="O79" s="3">
-        <v>10</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>0</v>
+      <c r="O79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P79" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R79" s="3">
-        <v>10</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T79" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
+        <v>10</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U79" s="3">
-        <v>10</v>
-      </c>
-      <c r="V79" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V79" s="3">
+        <v>10</v>
+      </c>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -6485,32 +7065,35 @@
       <c r="N80" s="3">
         <v>1</v>
       </c>
-      <c r="O80" s="3">
-        <v>10</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
+      <c r="O80" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P80" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
         <v>15</v>
       </c>
-      <c r="S80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T80" s="3">
-        <v>1</v>
+      <c r="T80" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U80" s="3">
-        <v>10</v>
-      </c>
-      <c r="V80" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V80" s="3">
+        <v>10</v>
+      </c>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -6551,32 +7134,35 @@
       <c r="N81" s="3">
         <v>1</v>
       </c>
-      <c r="O81" s="3">
-        <v>10</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
+      <c r="O81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P81" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R81" s="3">
-        <v>10</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>10</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U81" s="3">
-        <v>10</v>
-      </c>
-      <c r="V81" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>10</v>
+      </c>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -6615,32 +7201,35 @@
       <c r="N82" s="3">
         <v>1</v>
       </c>
-      <c r="O82" s="3">
-        <v>10</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
+      <c r="O82" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P82" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R82" s="3">
-        <v>10</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T82" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
+        <v>10</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U82" s="3">
-        <v>10</v>
-      </c>
-      <c r="V82" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V82" s="3">
+        <v>10</v>
+      </c>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -6679,32 +7268,35 @@
       <c r="N83" s="3">
         <v>1</v>
       </c>
-      <c r="O83" s="3">
-        <v>10</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P83" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>15</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1</v>
+      <c r="T83" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U83" s="3">
-        <v>10</v>
-      </c>
-      <c r="V83" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="3">
+        <v>10</v>
+      </c>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -6739,32 +7331,35 @@
       <c r="N84" s="3">
         <v>1</v>
       </c>
-      <c r="O84" s="3">
-        <v>10</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
+      <c r="O84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P84" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R84" s="3">
-        <v>10</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T84" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>10</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U84" s="3">
-        <v>10</v>
-      </c>
-      <c r="V84" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>10</v>
+      </c>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -6803,32 +7398,35 @@
       <c r="N85" s="3">
         <v>1</v>
       </c>
-      <c r="O85" s="3">
-        <v>10</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
+      <c r="O85" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P85" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R85" s="3">
-        <v>10</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T85" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>10</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U85" s="3">
-        <v>10</v>
-      </c>
-      <c r="V85" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V85" s="3">
+        <v>10</v>
+      </c>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -6867,32 +7465,35 @@
       <c r="N86" s="3">
         <v>1</v>
       </c>
-      <c r="O86" s="3">
-        <v>10</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
+      <c r="O86" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P86" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
         <v>15</v>
       </c>
-      <c r="S86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T86" s="3">
-        <v>1</v>
+      <c r="T86" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U86" s="3">
-        <v>10</v>
-      </c>
-      <c r="V86" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V86" s="3">
+        <v>10</v>
+      </c>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -6933,32 +7534,35 @@
       <c r="N87" s="3">
         <v>1</v>
       </c>
-      <c r="O87" s="3">
-        <v>10</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>0</v>
+      <c r="O87" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P87" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R87" s="3">
-        <v>10</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T87" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>10</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U87" s="3">
-        <v>10</v>
-      </c>
-      <c r="V87" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>10</v>
+      </c>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -6997,32 +7601,35 @@
       <c r="N88" s="3">
         <v>1</v>
       </c>
-      <c r="O88" s="3">
-        <v>10</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>0</v>
+      <c r="O88" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P88" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R88" s="3">
-        <v>10</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T88" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>10</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U88" s="3">
-        <v>10</v>
-      </c>
-      <c r="V88" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V88" s="3">
+        <v>10</v>
+      </c>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -7061,32 +7668,35 @@
       <c r="N89" s="3">
         <v>1</v>
       </c>
-      <c r="O89" s="3">
-        <v>10</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P89" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>15</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T89" s="3">
-        <v>1</v>
+      <c r="T89" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U89" s="3">
-        <v>10</v>
-      </c>
-      <c r="V89" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V89" s="3">
+        <v>10</v>
+      </c>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -7121,32 +7731,35 @@
       <c r="N90" s="3">
         <v>1</v>
       </c>
-      <c r="O90" s="3">
-        <v>10</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>0</v>
+      <c r="O90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P90" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R90" s="3">
-        <v>10</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T90" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <v>10</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U90" s="3">
-        <v>10</v>
-      </c>
-      <c r="V90" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>10</v>
+      </c>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -7185,32 +7798,35 @@
       <c r="N91" s="3">
         <v>1</v>
       </c>
-      <c r="O91" s="3">
-        <v>10</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P91" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R91" s="3">
-        <v>10</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T91" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U91" s="3">
-        <v>10</v>
-      </c>
-      <c r="V91" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="3">
+        <v>10</v>
+      </c>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -7249,32 +7865,35 @@
       <c r="N92" s="3">
         <v>1</v>
       </c>
-      <c r="O92" s="3">
-        <v>10</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>0</v>
+      <c r="O92" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P92" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
         <v>15</v>
       </c>
-      <c r="S92" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T92" s="3">
-        <v>1</v>
+      <c r="T92" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U92" s="3">
-        <v>10</v>
-      </c>
-      <c r="V92" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V92" s="3">
+        <v>10</v>
+      </c>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -7315,32 +7934,35 @@
       <c r="N93" s="3">
         <v>1</v>
       </c>
-      <c r="O93" s="3">
-        <v>10</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>0</v>
+      <c r="O93" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P93" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R93" s="3">
-        <v>10</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T93" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>10</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U93" s="3">
-        <v>10</v>
-      </c>
-      <c r="V93" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>10</v>
+      </c>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -7379,32 +8001,35 @@
       <c r="N94" s="3">
         <v>1</v>
       </c>
-      <c r="O94" s="3">
-        <v>10</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P94" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R94" s="3">
-        <v>10</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T94" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>10</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U94" s="3">
-        <v>10</v>
-      </c>
-      <c r="V94" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V94" s="3">
+        <v>10</v>
+      </c>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -7443,32 +8068,35 @@
       <c r="N95" s="3">
         <v>1</v>
       </c>
-      <c r="O95" s="3">
-        <v>10</v>
-      </c>
-      <c r="P95" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>0</v>
+      <c r="O95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P95" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R95" s="3">
+        <v>0</v>
+      </c>
+      <c r="S95" s="3">
         <v>15</v>
       </c>
-      <c r="S95" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T95" s="3">
-        <v>1</v>
+      <c r="T95" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U95" s="3">
-        <v>10</v>
-      </c>
-      <c r="V95" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V95" s="3">
+        <v>10</v>
+      </c>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -7503,32 +8131,35 @@
       <c r="N96" s="3">
         <v>1</v>
       </c>
-      <c r="O96" s="3">
-        <v>10</v>
-      </c>
-      <c r="P96" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
+      <c r="O96" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R96" s="3">
-        <v>10</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T96" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>10</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U96" s="3">
-        <v>10</v>
-      </c>
-      <c r="V96" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>10</v>
+      </c>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -7567,32 +8198,35 @@
       <c r="N97" s="3">
         <v>1</v>
       </c>
-      <c r="O97" s="3">
-        <v>10</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>0</v>
+      <c r="O97" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="P97" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R97" s="3">
-        <v>10</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T97" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>10</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U97" s="3">
-        <v>10</v>
-      </c>
-      <c r="V97" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V97" s="3">
+        <v>10</v>
+      </c>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -7631,32 +8265,35 @@
       <c r="N98" s="3">
         <v>1</v>
       </c>
-      <c r="O98" s="3">
-        <v>10</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>0</v>
+      <c r="O98" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P98" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
         <v>15</v>
       </c>
-      <c r="S98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T98" s="3">
-        <v>1</v>
+      <c r="T98" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U98" s="3">
-        <v>10</v>
-      </c>
-      <c r="V98" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V98" s="3">
+        <v>10</v>
+      </c>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -7697,32 +8334,35 @@
       <c r="N99" s="3">
         <v>1</v>
       </c>
-      <c r="O99" s="3">
-        <v>10</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>0</v>
+      <c r="O99" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P99" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R99" s="3">
-        <v>10</v>
-      </c>
-      <c r="S99" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T99" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>10</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U99" s="3">
-        <v>10</v>
-      </c>
-      <c r="V99" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>10</v>
+      </c>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
-    </row>
-    <row r="100" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3"/>
+    </row>
+    <row r="100" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -7761,32 +8401,35 @@
       <c r="N100" s="3">
         <v>1</v>
       </c>
-      <c r="O100" s="3">
-        <v>10</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P100" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R100" s="3">
-        <v>10</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>10</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U100" s="3">
-        <v>10</v>
-      </c>
-      <c r="V100" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V100" s="3">
+        <v>10</v>
+      </c>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
-    </row>
-    <row r="101" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -7825,32 +8468,35 @@
       <c r="N101" s="3">
         <v>1</v>
       </c>
-      <c r="O101" s="3">
-        <v>10</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P101" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>15</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1</v>
+      <c r="T101" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U101" s="3">
-        <v>10</v>
-      </c>
-      <c r="V101" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V101" s="3">
+        <v>10</v>
+      </c>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
-    </row>
-    <row r="102" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3"/>
+    </row>
+    <row r="102" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -7885,32 +8531,35 @@
       <c r="N102" s="3">
         <v>1</v>
       </c>
-      <c r="O102" s="3">
-        <v>10</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P102" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="R102" s="3">
-        <v>10</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T102" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>10</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U102" s="3">
-        <v>10</v>
-      </c>
-      <c r="V102" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>10</v>
+      </c>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
-    </row>
-    <row r="103" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -7949,32 +8598,35 @@
       <c r="N103" s="3">
         <v>1</v>
       </c>
-      <c r="O103" s="3">
-        <v>10</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q103" s="3">
-        <v>0</v>
+      <c r="O103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P103" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R103" s="3">
-        <v>10</v>
-      </c>
-      <c r="S103" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T103" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <v>10</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U103" s="3">
-        <v>10</v>
-      </c>
-      <c r="V103" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V103" s="3">
+        <v>10</v>
+      </c>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
-    </row>
-    <row r="104" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -8013,32 +8665,35 @@
       <c r="N104" s="3">
         <v>1</v>
       </c>
-      <c r="O104" s="3">
-        <v>10</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q104" s="3">
-        <v>0</v>
+      <c r="O104" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P104" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R104" s="3">
+        <v>0</v>
+      </c>
+      <c r="S104" s="3">
         <v>15</v>
       </c>
-      <c r="S104" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T104" s="3">
-        <v>1</v>
+      <c r="T104" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U104" s="3">
-        <v>10</v>
-      </c>
-      <c r="V104" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V104" s="3">
+        <v>10</v>
+      </c>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
-    </row>
-    <row r="105" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y104" s="3"/>
+    </row>
+    <row r="105" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -8079,32 +8734,35 @@
       <c r="N105" s="3">
         <v>1</v>
       </c>
-      <c r="O105" s="3">
-        <v>10</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>0</v>
+      <c r="O105" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P105" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R105" s="3">
-        <v>10</v>
-      </c>
-      <c r="S105" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T105" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S105" s="3">
+        <v>10</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U105" s="3">
-        <v>10</v>
-      </c>
-      <c r="V105" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="3">
+        <v>10</v>
+      </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
-    </row>
-    <row r="106" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -8143,32 +8801,35 @@
       <c r="N106" s="3">
         <v>1</v>
       </c>
-      <c r="O106" s="3">
-        <v>10</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q106" s="3">
-        <v>0</v>
+      <c r="O106" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P106" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R106" s="3">
-        <v>10</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T106" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S106" s="3">
+        <v>10</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U106" s="3">
-        <v>10</v>
-      </c>
-      <c r="V106" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V106" s="3">
+        <v>10</v>
+      </c>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
-    </row>
-    <row r="107" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -8207,32 +8868,35 @@
       <c r="N107" s="3">
         <v>1</v>
       </c>
-      <c r="O107" s="3">
-        <v>10</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q107" s="3">
-        <v>0</v>
+      <c r="O107" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P107" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R107" s="3">
+        <v>0</v>
+      </c>
+      <c r="S107" s="3">
         <v>15</v>
       </c>
-      <c r="S107" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T107" s="3">
-        <v>1</v>
+      <c r="T107" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U107" s="3">
-        <v>10</v>
-      </c>
-      <c r="V107" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V107" s="3">
+        <v>10</v>
+      </c>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
-    </row>
-    <row r="108" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -8267,32 +8931,35 @@
       <c r="N108" s="3">
         <v>1</v>
       </c>
-      <c r="O108" s="3">
-        <v>10</v>
-      </c>
-      <c r="P108" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>0</v>
+      <c r="O108" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P108" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R108" s="3">
-        <v>10</v>
-      </c>
-      <c r="S108" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T108" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S108" s="3">
+        <v>10</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U108" s="3">
-        <v>10</v>
-      </c>
-      <c r="V108" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="3">
+        <v>10</v>
+      </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
-    </row>
-    <row r="109" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -8331,32 +8998,35 @@
       <c r="N109" s="3">
         <v>1</v>
       </c>
-      <c r="O109" s="3">
-        <v>10</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>0</v>
+      <c r="O109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P109" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R109" s="3">
-        <v>10</v>
-      </c>
-      <c r="S109" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T109" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S109" s="3">
+        <v>10</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U109" s="3">
-        <v>10</v>
-      </c>
-      <c r="V109" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V109" s="3">
+        <v>10</v>
+      </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
-    </row>
-    <row r="110" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -8395,32 +9065,35 @@
       <c r="N110" s="3">
         <v>1</v>
       </c>
-      <c r="O110" s="3">
-        <v>10</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q110" s="3">
-        <v>0</v>
+      <c r="O110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P110" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3">
         <v>15</v>
       </c>
-      <c r="S110" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T110" s="3">
-        <v>1</v>
+      <c r="T110" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U110" s="3">
-        <v>10</v>
-      </c>
-      <c r="V110" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V110" s="3">
+        <v>10</v>
+      </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
-    </row>
-    <row r="111" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y110" s="3"/>
+    </row>
+    <row r="111" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -8461,32 +9134,35 @@
       <c r="N111" s="3">
         <v>1</v>
       </c>
-      <c r="O111" s="3">
-        <v>10</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>0</v>
+      <c r="O111" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P111" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R111" s="3">
-        <v>10</v>
-      </c>
-      <c r="S111" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T111" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S111" s="3">
+        <v>10</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U111" s="3">
-        <v>10</v>
-      </c>
-      <c r="V111" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="3">
+        <v>10</v>
+      </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
-    </row>
-    <row r="112" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -8525,32 +9201,35 @@
       <c r="N112" s="3">
         <v>1</v>
       </c>
-      <c r="O112" s="3">
-        <v>10</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>0</v>
+      <c r="O112" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P112" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R112" s="3">
-        <v>10</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T112" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S112" s="3">
+        <v>10</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U112" s="3">
-        <v>10</v>
-      </c>
-      <c r="V112" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V112" s="3">
+        <v>10</v>
+      </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
-    </row>
-    <row r="113" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -8589,32 +9268,35 @@
       <c r="N113" s="3">
         <v>1</v>
       </c>
-      <c r="O113" s="3">
-        <v>10</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q113" s="3">
-        <v>0</v>
+      <c r="O113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P113" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R113" s="3">
+        <v>0</v>
+      </c>
+      <c r="S113" s="3">
         <v>15</v>
       </c>
-      <c r="S113" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T113" s="3">
-        <v>1</v>
+      <c r="T113" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U113" s="3">
-        <v>10</v>
-      </c>
-      <c r="V113" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V113" s="3">
+        <v>10</v>
+      </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
-    </row>
-    <row r="114" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -8649,32 +9331,35 @@
       <c r="N114" s="3">
         <v>1</v>
       </c>
-      <c r="O114" s="3">
-        <v>10</v>
-      </c>
-      <c r="P114" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q114" s="3">
-        <v>0</v>
+      <c r="O114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P114" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R114" s="3">
-        <v>10</v>
-      </c>
-      <c r="S114" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T114" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S114" s="3">
+        <v>10</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U114" s="3">
-        <v>10</v>
-      </c>
-      <c r="V114" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="3">
+        <v>10</v>
+      </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
-    </row>
-    <row r="115" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y114" s="3"/>
+    </row>
+    <row r="115" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -8713,32 +9398,35 @@
       <c r="N115" s="3">
         <v>1</v>
       </c>
-      <c r="O115" s="3">
-        <v>10</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q115" s="3">
-        <v>0</v>
+      <c r="O115" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P115" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R115" s="3">
-        <v>10</v>
-      </c>
-      <c r="S115" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T115" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S115" s="3">
+        <v>10</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U115" s="3">
-        <v>10</v>
-      </c>
-      <c r="V115" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V115" s="3">
+        <v>10</v>
+      </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
-    </row>
-    <row r="116" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y115" s="3"/>
+    </row>
+    <row r="116" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -8777,32 +9465,35 @@
       <c r="N116" s="3">
         <v>1</v>
       </c>
-      <c r="O116" s="3">
-        <v>10</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q116" s="3">
-        <v>0</v>
+      <c r="O116" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P116" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R116" s="3">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3">
         <v>15</v>
       </c>
-      <c r="S116" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T116" s="3">
-        <v>1</v>
+      <c r="T116" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U116" s="3">
-        <v>10</v>
-      </c>
-      <c r="V116" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V116" s="3">
+        <v>10</v>
+      </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
-    </row>
-    <row r="117" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y116" s="3"/>
+    </row>
+    <row r="117" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -8843,32 +9534,35 @@
       <c r="N117" s="3">
         <v>1</v>
       </c>
-      <c r="O117" s="3">
-        <v>10</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q117" s="3">
-        <v>0</v>
+      <c r="O117" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P117" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R117" s="3">
-        <v>10</v>
-      </c>
-      <c r="S117" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T117" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S117" s="3">
+        <v>10</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U117" s="3">
-        <v>10</v>
-      </c>
-      <c r="V117" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="3">
+        <v>10</v>
+      </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
-    </row>
-    <row r="118" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -8907,32 +9601,35 @@
       <c r="N118" s="3">
         <v>1</v>
       </c>
-      <c r="O118" s="3">
-        <v>10</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q118" s="3">
-        <v>0</v>
+      <c r="O118" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P118" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R118" s="3">
-        <v>10</v>
-      </c>
-      <c r="S118" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T118" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S118" s="3">
+        <v>10</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U118" s="3">
-        <v>10</v>
-      </c>
-      <c r="V118" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V118" s="3">
+        <v>10</v>
+      </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
-    </row>
-    <row r="119" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -8971,32 +9668,35 @@
       <c r="N119" s="3">
         <v>1</v>
       </c>
-      <c r="O119" s="3">
-        <v>10</v>
-      </c>
-      <c r="P119" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>0</v>
+      <c r="O119" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P119" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R119" s="3">
+        <v>0</v>
+      </c>
+      <c r="S119" s="3">
         <v>15</v>
       </c>
-      <c r="S119" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T119" s="3">
-        <v>1</v>
+      <c r="T119" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U119" s="3">
-        <v>10</v>
-      </c>
-      <c r="V119" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V119" s="3">
+        <v>10</v>
+      </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
-    </row>
-    <row r="120" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y119" s="3"/>
+    </row>
+    <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -9031,32 +9731,35 @@
       <c r="N120" s="3">
         <v>1</v>
       </c>
-      <c r="O120" s="3">
-        <v>10</v>
-      </c>
-      <c r="P120" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q120" s="3">
-        <v>0</v>
+      <c r="O120" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P120" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R120" s="3">
-        <v>10</v>
-      </c>
-      <c r="S120" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T120" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S120" s="3">
+        <v>10</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U120" s="3">
-        <v>10</v>
-      </c>
-      <c r="V120" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="3">
+        <v>10</v>
+      </c>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
-    </row>
-    <row r="121" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y120" s="3"/>
+    </row>
+    <row r="121" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -9095,32 +9798,35 @@
       <c r="N121" s="3">
         <v>1</v>
       </c>
-      <c r="O121" s="3">
-        <v>10</v>
-      </c>
-      <c r="P121" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q121" s="3">
-        <v>0</v>
+      <c r="O121" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P121" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R121" s="3">
-        <v>10</v>
-      </c>
-      <c r="S121" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T121" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S121" s="3">
+        <v>10</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U121" s="3">
-        <v>10</v>
-      </c>
-      <c r="V121" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V121" s="3">
+        <v>10</v>
+      </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
-    </row>
-    <row r="122" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -9159,32 +9865,35 @@
       <c r="N122" s="3">
         <v>1</v>
       </c>
-      <c r="O122" s="3">
-        <v>10</v>
-      </c>
-      <c r="P122" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>0</v>
+      <c r="O122" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P122" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R122" s="3">
+        <v>0</v>
+      </c>
+      <c r="S122" s="3">
         <v>15</v>
       </c>
-      <c r="S122" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T122" s="3">
-        <v>1</v>
+      <c r="T122" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U122" s="3">
-        <v>10</v>
-      </c>
-      <c r="V122" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V122" s="3">
+        <v>10</v>
+      </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
-    </row>
-    <row r="123" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -9225,32 +9934,35 @@
       <c r="N123" s="3">
         <v>1</v>
       </c>
-      <c r="O123" s="3">
-        <v>10</v>
-      </c>
-      <c r="P123" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>0</v>
+      <c r="O123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P123" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q123" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R123" s="3">
-        <v>10</v>
-      </c>
-      <c r="S123" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T123" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S123" s="3">
+        <v>10</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U123" s="3">
-        <v>10</v>
-      </c>
-      <c r="V123" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V123" s="3">
+        <v>10</v>
+      </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
-    </row>
-    <row r="124" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y123" s="3"/>
+    </row>
+    <row r="124" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -9289,32 +10001,35 @@
       <c r="N124" s="3">
         <v>1</v>
       </c>
-      <c r="O124" s="3">
-        <v>10</v>
-      </c>
-      <c r="P124" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>0</v>
+      <c r="O124" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P124" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R124" s="3">
-        <v>10</v>
-      </c>
-      <c r="S124" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T124" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S124" s="3">
+        <v>10</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U124" s="3">
-        <v>10</v>
-      </c>
-      <c r="V124" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V124" s="3">
+        <v>10</v>
+      </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
-    </row>
-    <row r="125" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y124" s="3"/>
+    </row>
+    <row r="125" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -9353,32 +10068,35 @@
       <c r="N125" s="3">
         <v>1</v>
       </c>
-      <c r="O125" s="3">
-        <v>10</v>
-      </c>
-      <c r="P125" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>0</v>
+      <c r="O125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P125" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R125" s="3">
+        <v>0</v>
+      </c>
+      <c r="S125" s="3">
         <v>15</v>
       </c>
-      <c r="S125" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T125" s="3">
-        <v>1</v>
+      <c r="T125" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U125" s="3">
-        <v>10</v>
-      </c>
-      <c r="V125" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V125" s="3">
+        <v>10</v>
+      </c>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
-    </row>
-    <row r="126" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y125" s="3"/>
+    </row>
+    <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -9413,32 +10131,35 @@
       <c r="N126" s="3">
         <v>1</v>
       </c>
-      <c r="O126" s="3">
-        <v>10</v>
-      </c>
-      <c r="P126" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q126" s="3">
-        <v>0</v>
+      <c r="O126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P126" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q126" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R126" s="3">
-        <v>10</v>
-      </c>
-      <c r="S126" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T126" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S126" s="3">
+        <v>10</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U126" s="3">
-        <v>10</v>
-      </c>
-      <c r="V126" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V126" s="3">
+        <v>10</v>
+      </c>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
-    </row>
-    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y126" s="3"/>
+    </row>
+    <row r="127" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -9477,32 +10198,35 @@
       <c r="N127" s="3">
         <v>1</v>
       </c>
-      <c r="O127" s="3">
-        <v>10</v>
-      </c>
-      <c r="P127" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q127" s="3">
-        <v>0</v>
+      <c r="O127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P127" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R127" s="3">
-        <v>10</v>
-      </c>
-      <c r="S127" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T127" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S127" s="3">
+        <v>10</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U127" s="3">
-        <v>10</v>
-      </c>
-      <c r="V127" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V127" s="3">
+        <v>10</v>
+      </c>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
-    </row>
-    <row r="128" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y127" s="3"/>
+    </row>
+    <row r="128" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -9541,32 +10265,35 @@
       <c r="N128" s="3">
         <v>1</v>
       </c>
-      <c r="O128" s="3">
-        <v>10</v>
-      </c>
-      <c r="P128" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q128" s="3">
-        <v>0</v>
+      <c r="O128" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P128" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3">
         <v>15</v>
       </c>
-      <c r="S128" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T128" s="3">
-        <v>1</v>
+      <c r="T128" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U128" s="3">
-        <v>10</v>
-      </c>
-      <c r="V128" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V128" s="3">
+        <v>10</v>
+      </c>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
-    </row>
-    <row r="129" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y128" s="3"/>
+    </row>
+    <row r="129" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -9607,32 +10334,35 @@
       <c r="N129" s="3">
         <v>1</v>
       </c>
-      <c r="O129" s="3">
-        <v>10</v>
-      </c>
-      <c r="P129" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q129" s="3">
-        <v>0</v>
+      <c r="O129" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P129" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R129" s="3">
-        <v>10</v>
-      </c>
-      <c r="S129" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T129" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S129" s="3">
+        <v>10</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U129" s="3">
-        <v>10</v>
-      </c>
-      <c r="V129" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V129" s="3">
+        <v>10</v>
+      </c>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
-    </row>
-    <row r="130" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y129" s="3"/>
+    </row>
+    <row r="130" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -9671,32 +10401,35 @@
       <c r="N130" s="3">
         <v>1</v>
       </c>
-      <c r="O130" s="3">
-        <v>10</v>
-      </c>
-      <c r="P130" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q130" s="3">
-        <v>0</v>
+      <c r="O130" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P130" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R130" s="3">
-        <v>10</v>
-      </c>
-      <c r="S130" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T130" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S130" s="3">
+        <v>10</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U130" s="3">
-        <v>10</v>
-      </c>
-      <c r="V130" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V130" s="3">
+        <v>10</v>
+      </c>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
-    </row>
-    <row r="131" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y130" s="3"/>
+    </row>
+    <row r="131" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -9735,32 +10468,35 @@
       <c r="N131" s="3">
         <v>1</v>
       </c>
-      <c r="O131" s="3">
-        <v>10</v>
-      </c>
-      <c r="P131" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q131" s="3">
-        <v>0</v>
+      <c r="O131" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P131" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R131" s="3">
+        <v>0</v>
+      </c>
+      <c r="S131" s="3">
         <v>15</v>
       </c>
-      <c r="S131" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T131" s="3">
-        <v>1</v>
+      <c r="T131" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U131" s="3">
-        <v>10</v>
-      </c>
-      <c r="V131" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V131" s="3">
+        <v>10</v>
+      </c>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
-    </row>
-    <row r="132" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y131" s="3"/>
+    </row>
+    <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -9795,32 +10531,35 @@
       <c r="N132" s="3">
         <v>1</v>
       </c>
-      <c r="O132" s="3">
-        <v>10</v>
-      </c>
-      <c r="P132" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q132" s="3">
-        <v>0</v>
+      <c r="O132" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P132" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R132" s="3">
-        <v>10</v>
-      </c>
-      <c r="S132" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T132" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S132" s="3">
+        <v>10</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U132" s="3">
-        <v>10</v>
-      </c>
-      <c r="V132" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V132" s="3">
+        <v>10</v>
+      </c>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
-    </row>
-    <row r="133" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y132" s="3"/>
+    </row>
+    <row r="133" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -9859,32 +10598,35 @@
       <c r="N133" s="3">
         <v>1</v>
       </c>
-      <c r="O133" s="3">
-        <v>10</v>
-      </c>
-      <c r="P133" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q133" s="3">
-        <v>0</v>
+      <c r="O133" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P133" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R133" s="3">
-        <v>10</v>
-      </c>
-      <c r="S133" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T133" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S133" s="3">
+        <v>10</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U133" s="3">
-        <v>10</v>
-      </c>
-      <c r="V133" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V133" s="3">
+        <v>10</v>
+      </c>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
-    </row>
-    <row r="134" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y133" s="3"/>
+    </row>
+    <row r="134" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -9923,32 +10665,35 @@
       <c r="N134" s="3">
         <v>1</v>
       </c>
-      <c r="O134" s="3">
-        <v>10</v>
-      </c>
-      <c r="P134" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q134" s="3">
-        <v>0</v>
+      <c r="O134" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P134" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R134" s="3">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3">
         <v>15</v>
       </c>
-      <c r="S134" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T134" s="3">
-        <v>1</v>
+      <c r="T134" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U134" s="3">
-        <v>10</v>
-      </c>
-      <c r="V134" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V134" s="3">
+        <v>10</v>
+      </c>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
-    </row>
-    <row r="135" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -9989,32 +10734,35 @@
       <c r="N135" s="3">
         <v>1</v>
       </c>
-      <c r="O135" s="3">
-        <v>10</v>
-      </c>
-      <c r="P135" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q135" s="3">
-        <v>0</v>
+      <c r="O135" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P135" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R135" s="3">
-        <v>10</v>
-      </c>
-      <c r="S135" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T135" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S135" s="3">
+        <v>10</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U135" s="3">
-        <v>10</v>
-      </c>
-      <c r="V135" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="3">
+        <v>10</v>
+      </c>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
-    </row>
-    <row r="136" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y135" s="3"/>
+    </row>
+    <row r="136" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -10053,32 +10801,35 @@
       <c r="N136" s="3">
         <v>1</v>
       </c>
-      <c r="O136" s="3">
-        <v>10</v>
-      </c>
-      <c r="P136" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q136" s="3">
-        <v>0</v>
+      <c r="O136" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P136" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R136" s="3">
-        <v>10</v>
-      </c>
-      <c r="S136" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T136" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S136" s="3">
+        <v>10</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U136" s="3">
-        <v>10</v>
-      </c>
-      <c r="V136" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V136" s="3">
+        <v>10</v>
+      </c>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
-    </row>
-    <row r="137" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y136" s="3"/>
+    </row>
+    <row r="137" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -10117,32 +10868,35 @@
       <c r="N137" s="3">
         <v>1</v>
       </c>
-      <c r="O137" s="3">
-        <v>10</v>
-      </c>
-      <c r="P137" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q137" s="3">
-        <v>0</v>
+      <c r="O137" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P137" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R137" s="3">
+        <v>0</v>
+      </c>
+      <c r="S137" s="3">
         <v>15</v>
       </c>
-      <c r="S137" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T137" s="3">
-        <v>1</v>
+      <c r="T137" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U137" s="3">
-        <v>10</v>
-      </c>
-      <c r="V137" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V137" s="3">
+        <v>10</v>
+      </c>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
-    </row>
-    <row r="138" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -10177,32 +10931,35 @@
       <c r="N138" s="3">
         <v>1</v>
       </c>
-      <c r="O138" s="3">
-        <v>10</v>
-      </c>
-      <c r="P138" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q138" s="3">
-        <v>0</v>
+      <c r="O138" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P138" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="R138" s="3">
-        <v>10</v>
-      </c>
-      <c r="S138" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T138" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S138" s="3">
+        <v>10</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U138" s="3">
-        <v>10</v>
-      </c>
-      <c r="V138" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V138" s="3">
+        <v>10</v>
+      </c>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
-    </row>
-    <row r="139" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y138" s="3"/>
+    </row>
+    <row r="139" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -10241,32 +10998,35 @@
       <c r="N139" s="3">
         <v>1</v>
       </c>
-      <c r="O139" s="3">
-        <v>10</v>
-      </c>
-      <c r="P139" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q139" s="3">
-        <v>0</v>
+      <c r="O139" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P139" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R139" s="3">
-        <v>10</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T139" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S139" s="3">
+        <v>10</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U139" s="3">
-        <v>10</v>
-      </c>
-      <c r="V139" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V139" s="3">
+        <v>10</v>
+      </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
-    </row>
-    <row r="140" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -10305,32 +11065,35 @@
       <c r="N140" s="3">
         <v>1</v>
       </c>
-      <c r="O140" s="3">
-        <v>10</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q140" s="3">
-        <v>0</v>
+      <c r="O140" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P140" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="R140" s="3">
+        <v>0</v>
+      </c>
+      <c r="S140" s="3">
         <v>15</v>
       </c>
-      <c r="S140" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T140" s="3">
-        <v>1</v>
+      <c r="T140" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="U140" s="3">
-        <v>10</v>
-      </c>
-      <c r="V140" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V140" s="3">
+        <v>10</v>
+      </c>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
-    </row>
-    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y140" s="3"/>
+    </row>
+    <row r="141" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -10371,30 +11134,42 @@
       <c r="N141" s="3">
         <v>1</v>
       </c>
-      <c r="O141" s="3">
-        <v>10</v>
-      </c>
-      <c r="P141" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q141" s="3">
-        <v>0</v>
+      <c r="O141" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P141" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="R141" s="3">
-        <v>10</v>
-      </c>
-      <c r="S141" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T141" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S141" s="3">
+        <v>10</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="U141" s="3">
-        <v>10</v>
-      </c>
-      <c r="V141" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V141" s="3">
+        <v>10</v>
+      </c>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q144" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10408,7 +11183,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10530,7 +11305,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10553,7 +11328,7 @@
         <v>400</v>
       </c>
       <c r="G6" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9C867-EE05-4C5B-B588-2276662BFA0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EDDCC-B553-40A7-984C-D9FD1671A136}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1706,13 +1706,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A6AE-C641-48B5-AE4D-CE70B2979CBD}">
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1724,21 +1724,20 @@
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
     <col min="11" max="11" width="22.625" customWidth="1"/>
-    <col min="12" max="14" width="21.375" customWidth="1"/>
-    <col min="15" max="15" width="40.25" customWidth="1"/>
-    <col min="16" max="16" width="21.375" customWidth="1"/>
-    <col min="17" max="17" width="24.25" customWidth="1"/>
-    <col min="18" max="18" width="23.125" customWidth="1"/>
-    <col min="19" max="19" width="24.25" customWidth="1"/>
-    <col min="20" max="20" width="20.875" customWidth="1"/>
-    <col min="21" max="21" width="22.625" customWidth="1"/>
-    <col min="22" max="22" width="26.625" customWidth="1"/>
-    <col min="23" max="23" width="19.25" customWidth="1"/>
-    <col min="24" max="24" width="21.75" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="12" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="24.25" customWidth="1"/>
+    <col min="17" max="17" width="23.125" customWidth="1"/>
+    <col min="18" max="18" width="24.25" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="20" max="20" width="22.625" customWidth="1"/>
+    <col min="21" max="21" width="26.625" customWidth="1"/>
+    <col min="22" max="22" width="19.25" customWidth="1"/>
+    <col min="23" max="23" width="21.75" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="29" max="29" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>132</v>
       </c>
@@ -1781,39 +1780,39 @@
       <c r="N1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="P1" s="6" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1856,38 +1855,38 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
       <c r="V2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1930,39 +1929,39 @@
       <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="P3" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>102</v>
@@ -2001,35 +2000,35 @@
       <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>94</v>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>10</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC4" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>102</v>
@@ -2068,35 +2067,35 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P5" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>94</v>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>10</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>102</v>
+        <v>8</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
       </c>
       <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC5" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>102</v>
@@ -2131,35 +2130,35 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>94</v>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>10</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC6" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>102</v>
@@ -2198,35 +2197,35 @@
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>94</v>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>15</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC7" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>102</v>
@@ -2265,35 +2264,35 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>94</v>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>15</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>102</v>
@@ -2334,35 +2333,35 @@
       <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P9" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>94</v>
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>10</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>94</v>
+        <v>25</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>102</v>
@@ -2401,35 +2400,35 @@
       <c r="N10" s="3">
         <v>1</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>94</v>
+      <c r="O10" s="3">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
         <v>15</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>102</v>
+      <c r="S10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>102</v>
@@ -2468,35 +2467,35 @@
       <c r="N11" s="3">
         <v>1</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>94</v>
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
         <v>15</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>102</v>
+      <c r="S11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>102</v>
@@ -2531,35 +2530,35 @@
       <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>94</v>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>95</v>
@@ -2598,35 +2597,35 @@
       <c r="N13" s="3">
         <v>1</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>94</v>
+      <c r="O13" s="3">
+        <v>10</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>5</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>95</v>
@@ -2665,35 +2664,35 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P14" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>94</v>
+      <c r="O14" s="3">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
       </c>
       <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>102</v>
@@ -2734,35 +2733,35 @@
       <c r="N15" s="3">
         <v>1</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="P15" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>95</v>
+      <c r="O15" s="3">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>10</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>95</v>
@@ -2801,35 +2800,35 @@
       <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>94</v>
+      <c r="O16" s="3">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>5</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>1</v>
-      </c>
-      <c r="V16" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>95</v>
@@ -2868,35 +2867,35 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>94</v>
+      <c r="O17" s="3">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>10</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
       </c>
       <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>102</v>
@@ -2931,35 +2930,35 @@
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>95</v>
+      <c r="O18" s="3">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>10</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>95</v>
@@ -2998,35 +2997,35 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>94</v>
+      <c r="O19" s="3">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>5</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
       </c>
       <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>95</v>
@@ -3065,35 +3064,35 @@
       <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>94</v>
+      <c r="O20" s="3">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>10</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
       </c>
       <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>102</v>
@@ -3134,35 +3133,35 @@
       <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="P21" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>95</v>
+      <c r="O21" s="3">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>10</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>95</v>
@@ -3201,35 +3200,35 @@
       <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P22" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>94</v>
+      <c r="O22" s="3">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1</v>
       </c>
       <c r="U22" s="3">
-        <v>1</v>
-      </c>
-      <c r="V22" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>95</v>
@@ -3268,35 +3267,35 @@
       <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>94</v>
+      <c r="O23" s="3">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>13</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
       </c>
       <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>102</v>
@@ -3331,35 +3330,35 @@
       <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>95</v>
+      <c r="O24" s="3">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>10</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>95</v>
@@ -3398,35 +3397,35 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>94</v>
+      <c r="O25" s="3">
+        <v>10</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>7</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
       </c>
       <c r="U25" s="3">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>95</v>
@@ -3465,35 +3464,35 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>94</v>
+      <c r="O26" s="3">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>13</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
       </c>
       <c r="U26" s="3">
-        <v>1</v>
-      </c>
-      <c r="V26" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>102</v>
@@ -3534,35 +3533,35 @@
       <c r="N27" s="3">
         <v>1</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P27" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>95</v>
+      <c r="O27" s="3">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>10</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>95</v>
@@ -3601,35 +3600,35 @@
       <c r="N28" s="3">
         <v>1</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P28" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>94</v>
+      <c r="O28" s="3">
+        <v>10</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>10</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
       </c>
       <c r="U28" s="3">
-        <v>1</v>
-      </c>
-      <c r="V28" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>95</v>
@@ -3668,35 +3667,35 @@
       <c r="N29" s="3">
         <v>1</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="P29" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>94</v>
+      <c r="O29" s="3">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>15</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
       </c>
       <c r="U29" s="3">
-        <v>1</v>
-      </c>
-      <c r="V29" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>102</v>
@@ -3731,35 +3730,35 @@
       <c r="N30" s="3">
         <v>1</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>95</v>
+      <c r="O30" s="3">
+        <v>10</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>10</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
       </c>
       <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>95</v>
@@ -3798,35 +3797,35 @@
       <c r="N31" s="3">
         <v>1</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P31" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>94</v>
+      <c r="O31" s="3">
+        <v>10</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
       </c>
       <c r="R31" s="3">
-        <v>0</v>
-      </c>
-      <c r="S31" s="3">
-        <v>10</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
       </c>
       <c r="U31" s="3">
-        <v>1</v>
-      </c>
-      <c r="V31" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>95</v>
@@ -3865,35 +3864,35 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="P32" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>94</v>
+      <c r="O32" s="3">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>15</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
       </c>
       <c r="U32" s="3">
-        <v>1</v>
-      </c>
-      <c r="V32" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>102</v>
@@ -3934,35 +3933,35 @@
       <c r="N33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="P33" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>95</v>
+      <c r="O33" s="3">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>10</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>95</v>
@@ -4001,35 +4000,35 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P34" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>94</v>
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
       </c>
       <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3">
-        <v>10</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
       </c>
       <c r="U34" s="3">
-        <v>1</v>
-      </c>
-      <c r="V34" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>95</v>
@@ -4068,35 +4067,35 @@
       <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P35" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>94</v>
+      <c r="O35" s="3">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>15</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
       </c>
       <c r="U35" s="3">
-        <v>1</v>
-      </c>
-      <c r="V35" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>102</v>
@@ -4131,35 +4130,35 @@
       <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P36" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>95</v>
+      <c r="O36" s="3">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>0</v>
-      </c>
-      <c r="S36" s="3">
-        <v>10</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0</v>
       </c>
       <c r="U36" s="3">
-        <v>0</v>
-      </c>
-      <c r="V36" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC36" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>95</v>
@@ -4198,35 +4197,35 @@
       <c r="N37" s="3">
         <v>1</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P37" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>94</v>
+      <c r="O37" s="3">
+        <v>10</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
       </c>
       <c r="R37" s="3">
-        <v>0</v>
-      </c>
-      <c r="S37" s="3">
-        <v>10</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1</v>
       </c>
       <c r="U37" s="3">
-        <v>1</v>
-      </c>
-      <c r="V37" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC37" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>95</v>
@@ -4265,35 +4264,35 @@
       <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P38" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>94</v>
+      <c r="O38" s="3">
+        <v>10</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
       </c>
       <c r="R38" s="3">
-        <v>0</v>
-      </c>
-      <c r="S38" s="3">
-        <v>15</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1</v>
       </c>
       <c r="U38" s="3">
-        <v>1</v>
-      </c>
-      <c r="V38" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC38" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>102</v>
@@ -4334,35 +4333,35 @@
       <c r="N39" s="3">
         <v>1</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P39" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>95</v>
+      <c r="O39" s="3">
+        <v>10</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
       </c>
       <c r="R39" s="3">
-        <v>0</v>
-      </c>
-      <c r="S39" s="3">
-        <v>10</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0</v>
       </c>
       <c r="U39" s="3">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>95</v>
@@ -4401,35 +4400,35 @@
       <c r="N40" s="3">
         <v>1</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P40" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>94</v>
+      <c r="O40" s="3">
+        <v>10</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
       </c>
       <c r="R40" s="3">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3">
-        <v>10</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1</v>
       </c>
       <c r="U40" s="3">
-        <v>1</v>
-      </c>
-      <c r="V40" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>95</v>
@@ -4468,35 +4467,35 @@
       <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P41" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>94</v>
+      <c r="O41" s="3">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>15</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1</v>
       </c>
       <c r="U41" s="3">
-        <v>1</v>
-      </c>
-      <c r="V41" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>102</v>
@@ -4531,35 +4530,35 @@
       <c r="N42" s="3">
         <v>1</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P42" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>95</v>
+      <c r="O42" s="3">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>10</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>95</v>
@@ -4598,35 +4597,35 @@
       <c r="N43" s="3">
         <v>1</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="P43" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>94</v>
+      <c r="O43" s="3">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>10</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1</v>
       </c>
       <c r="U43" s="3">
-        <v>1</v>
-      </c>
-      <c r="V43" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>95</v>
@@ -4665,35 +4664,35 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P44" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>94</v>
+      <c r="O44" s="3">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>15</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1</v>
       </c>
       <c r="U44" s="3">
-        <v>1</v>
-      </c>
-      <c r="V44" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>102</v>
@@ -4734,35 +4733,35 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P45" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>95</v>
+      <c r="O45" s="3">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>10</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>95</v>
@@ -4801,35 +4800,35 @@
       <c r="N46" s="3">
         <v>1</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P46" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>94</v>
+      <c r="O46" s="3">
+        <v>10</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>10</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1</v>
       </c>
       <c r="U46" s="3">
-        <v>1</v>
-      </c>
-      <c r="V46" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>95</v>
@@ -4868,35 +4867,35 @@
       <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P47" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>94</v>
+      <c r="O47" s="3">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>15</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" s="3">
+        <v>1</v>
       </c>
       <c r="U47" s="3">
-        <v>1</v>
-      </c>
-      <c r="V47" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>102</v>
@@ -4931,35 +4930,35 @@
       <c r="N48" s="3">
         <v>1</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P48" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>95</v>
+      <c r="O48" s="3">
+        <v>10</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>10</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>95</v>
@@ -4998,35 +4997,35 @@
       <c r="N49" s="3">
         <v>1</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P49" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>94</v>
+      <c r="O49" s="3">
+        <v>10</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>10</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1</v>
       </c>
       <c r="U49" s="3">
-        <v>1</v>
-      </c>
-      <c r="V49" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>95</v>
@@ -5065,35 +5064,35 @@
       <c r="N50" s="3">
         <v>1</v>
       </c>
-      <c r="O50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P50" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>94</v>
+      <c r="O50" s="3">
+        <v>10</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
       </c>
       <c r="R50" s="3">
-        <v>0</v>
-      </c>
-      <c r="S50" s="3">
-        <v>15</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1</v>
       </c>
       <c r="U50" s="3">
-        <v>1</v>
-      </c>
-      <c r="V50" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>102</v>
@@ -5134,35 +5133,35 @@
       <c r="N51" s="3">
         <v>1</v>
       </c>
-      <c r="O51" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P51" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>95</v>
+      <c r="O51" s="3">
+        <v>10</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
       </c>
       <c r="R51" s="3">
-        <v>0</v>
-      </c>
-      <c r="S51" s="3">
-        <v>10</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
       </c>
       <c r="U51" s="3">
-        <v>0</v>
-      </c>
-      <c r="V51" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>95</v>
@@ -5201,35 +5200,35 @@
       <c r="N52" s="3">
         <v>1</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P52" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>94</v>
+      <c r="O52" s="3">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>10</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T52" s="3">
+        <v>1</v>
       </c>
       <c r="U52" s="3">
-        <v>1</v>
-      </c>
-      <c r="V52" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>95</v>
@@ -5268,35 +5267,35 @@
       <c r="N53" s="3">
         <v>1</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P53" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>94</v>
+      <c r="O53" s="3">
+        <v>10</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
       </c>
       <c r="R53" s="3">
-        <v>0</v>
-      </c>
-      <c r="S53" s="3">
-        <v>15</v>
-      </c>
-      <c r="T53" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T53" s="3">
+        <v>1</v>
       </c>
       <c r="U53" s="3">
-        <v>1</v>
-      </c>
-      <c r="V53" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>102</v>
@@ -5331,35 +5330,35 @@
       <c r="N54" s="3">
         <v>1</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P54" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>95</v>
+      <c r="O54" s="3">
+        <v>10</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>10</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>95</v>
@@ -5398,35 +5397,35 @@
       <c r="N55" s="3">
         <v>1</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="P55" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>94</v>
+      <c r="O55" s="3">
+        <v>10</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
       </c>
       <c r="R55" s="3">
-        <v>0</v>
-      </c>
-      <c r="S55" s="3">
-        <v>10</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T55" s="3">
+        <v>1</v>
       </c>
       <c r="U55" s="3">
-        <v>1</v>
-      </c>
-      <c r="V55" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>95</v>
@@ -5465,35 +5464,35 @@
       <c r="N56" s="3">
         <v>1</v>
       </c>
-      <c r="O56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P56" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>94</v>
+      <c r="O56" s="3">
+        <v>10</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
       </c>
       <c r="R56" s="3">
-        <v>0</v>
-      </c>
-      <c r="S56" s="3">
-        <v>15</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T56" s="3">
+        <v>1</v>
       </c>
       <c r="U56" s="3">
-        <v>1</v>
-      </c>
-      <c r="V56" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>102</v>
@@ -5534,35 +5533,35 @@
       <c r="N57" s="3">
         <v>1</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P57" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>95</v>
+      <c r="O57" s="3">
+        <v>10</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>10</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>95</v>
@@ -5601,35 +5600,35 @@
       <c r="N58" s="3">
         <v>1</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>94</v>
+      <c r="O58" s="3">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>10</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1</v>
       </c>
       <c r="U58" s="3">
-        <v>1</v>
-      </c>
-      <c r="V58" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>95</v>
@@ -5668,35 +5667,35 @@
       <c r="N59" s="3">
         <v>1</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P59" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>94</v>
+      <c r="O59" s="3">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>15</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1</v>
       </c>
       <c r="U59" s="3">
-        <v>1</v>
-      </c>
-      <c r="V59" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>102</v>
@@ -5731,35 +5730,35 @@
       <c r="N60" s="3">
         <v>1</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P60" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>95</v>
+      <c r="O60" s="3">
+        <v>10</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>10</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>95</v>
@@ -5798,35 +5797,35 @@
       <c r="N61" s="3">
         <v>1</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P61" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>94</v>
+      <c r="O61" s="3">
+        <v>10</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>10</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1</v>
       </c>
       <c r="U61" s="3">
-        <v>1</v>
-      </c>
-      <c r="V61" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>95</v>
@@ -5865,35 +5864,35 @@
       <c r="N62" s="3">
         <v>1</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P62" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>94</v>
+      <c r="O62" s="3">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>15</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1</v>
       </c>
       <c r="U62" s="3">
-        <v>1</v>
-      </c>
-      <c r="V62" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>102</v>
@@ -5934,35 +5933,35 @@
       <c r="N63" s="3">
         <v>1</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="P63" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>95</v>
+      <c r="O63" s="3">
+        <v>10</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
       </c>
       <c r="R63" s="3">
-        <v>0</v>
-      </c>
-      <c r="S63" s="3">
-        <v>10</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
       </c>
       <c r="U63" s="3">
-        <v>0</v>
-      </c>
-      <c r="V63" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>95</v>
@@ -6001,35 +6000,35 @@
       <c r="N64" s="3">
         <v>1</v>
       </c>
-      <c r="O64" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="P64" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="3" t="s">
-        <v>94</v>
+      <c r="O64" s="3">
+        <v>10</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
       </c>
       <c r="R64" s="3">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3">
-        <v>10</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T64" s="3">
+        <v>1</v>
       </c>
       <c r="U64" s="3">
-        <v>1</v>
-      </c>
-      <c r="V64" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>95</v>
@@ -6068,35 +6067,35 @@
       <c r="N65" s="3">
         <v>1</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="P65" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="3" t="s">
-        <v>94</v>
+      <c r="O65" s="3">
+        <v>10</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
       </c>
       <c r="R65" s="3">
-        <v>0</v>
-      </c>
-      <c r="S65" s="3">
-        <v>15</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T65" s="3">
+        <v>1</v>
       </c>
       <c r="U65" s="3">
-        <v>1</v>
-      </c>
-      <c r="V65" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>102</v>
@@ -6131,35 +6130,35 @@
       <c r="N66" s="3">
         <v>1</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P66" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>95</v>
+      <c r="O66" s="3">
+        <v>10</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>10</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
-      </c>
-      <c r="V66" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>95</v>
@@ -6198,35 +6197,35 @@
       <c r="N67" s="3">
         <v>1</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P67" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>94</v>
+      <c r="O67" s="3">
+        <v>10</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
       </c>
       <c r="R67" s="3">
-        <v>0</v>
-      </c>
-      <c r="S67" s="3">
-        <v>10</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T67" s="3">
+        <v>1</v>
       </c>
       <c r="U67" s="3">
-        <v>1</v>
-      </c>
-      <c r="V67" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>95</v>
@@ -6265,35 +6264,35 @@
       <c r="N68" s="3">
         <v>1</v>
       </c>
-      <c r="O68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="P68" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>94</v>
+      <c r="O68" s="3">
+        <v>10</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
       </c>
       <c r="R68" s="3">
-        <v>0</v>
-      </c>
-      <c r="S68" s="3">
-        <v>15</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T68" s="3">
+        <v>1</v>
       </c>
       <c r="U68" s="3">
-        <v>1</v>
-      </c>
-      <c r="V68" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>102</v>
@@ -6334,35 +6333,35 @@
       <c r="N69" s="3">
         <v>1</v>
       </c>
-      <c r="O69" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="P69" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>95</v>
+      <c r="O69" s="3">
+        <v>10</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
       </c>
       <c r="R69" s="3">
-        <v>0</v>
-      </c>
-      <c r="S69" s="3">
-        <v>10</v>
-      </c>
-      <c r="T69" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
       </c>
       <c r="U69" s="3">
-        <v>0</v>
-      </c>
-      <c r="V69" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>95</v>
@@ -6401,35 +6400,35 @@
       <c r="N70" s="3">
         <v>1</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P70" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>94</v>
+      <c r="O70" s="3">
+        <v>10</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>10</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T70" s="3">
+        <v>1</v>
       </c>
       <c r="U70" s="3">
-        <v>1</v>
-      </c>
-      <c r="V70" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>95</v>
@@ -6468,35 +6467,35 @@
       <c r="N71" s="3">
         <v>1</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P71" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>94</v>
+      <c r="O71" s="3">
+        <v>10</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
       </c>
       <c r="R71" s="3">
-        <v>0</v>
-      </c>
-      <c r="S71" s="3">
-        <v>15</v>
-      </c>
-      <c r="T71" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T71" s="3">
+        <v>1</v>
       </c>
       <c r="U71" s="3">
-        <v>1</v>
-      </c>
-      <c r="V71" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>102</v>
@@ -6531,35 +6530,35 @@
       <c r="N72" s="3">
         <v>1</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P72" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>95</v>
+      <c r="O72" s="3">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>10</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
       </c>
       <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>95</v>
@@ -6598,35 +6597,35 @@
       <c r="N73" s="3">
         <v>1</v>
       </c>
-      <c r="O73" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P73" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q73" s="3" t="s">
-        <v>94</v>
+      <c r="O73" s="3">
+        <v>10</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
       </c>
       <c r="R73" s="3">
-        <v>0</v>
-      </c>
-      <c r="S73" s="3">
-        <v>10</v>
-      </c>
-      <c r="T73" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T73" s="3">
+        <v>1</v>
       </c>
       <c r="U73" s="3">
-        <v>1</v>
-      </c>
-      <c r="V73" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>95</v>
@@ -6665,35 +6664,35 @@
       <c r="N74" s="3">
         <v>1</v>
       </c>
-      <c r="O74" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P74" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>94</v>
+      <c r="O74" s="3">
+        <v>10</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
       </c>
       <c r="R74" s="3">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3">
-        <v>15</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T74" s="3">
+        <v>1</v>
       </c>
       <c r="U74" s="3">
-        <v>1</v>
-      </c>
-      <c r="V74" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>102</v>
@@ -6734,35 +6733,35 @@
       <c r="N75" s="3">
         <v>1</v>
       </c>
-      <c r="O75" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="P75" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>122</v>
+      <c r="O75" s="3">
+        <v>10</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
       </c>
       <c r="R75" s="3">
-        <v>0</v>
-      </c>
-      <c r="S75" s="3">
-        <v>10</v>
-      </c>
-      <c r="T75" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
       </c>
       <c r="U75" s="3">
-        <v>0</v>
-      </c>
-      <c r="V75" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>95</v>
@@ -6801,35 +6800,35 @@
       <c r="N76" s="3">
         <v>1</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P76" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>94</v>
+      <c r="O76" s="3">
+        <v>10</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>10</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T76" s="3">
+        <v>1</v>
       </c>
       <c r="U76" s="3">
-        <v>1</v>
-      </c>
-      <c r="V76" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-    </row>
-    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>95</v>
@@ -6868,35 +6867,35 @@
       <c r="N77" s="3">
         <v>1</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P77" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q77" s="3" t="s">
-        <v>94</v>
+      <c r="O77" s="3">
+        <v>10</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
       </c>
       <c r="R77" s="3">
-        <v>0</v>
-      </c>
-      <c r="S77" s="3">
-        <v>15</v>
-      </c>
-      <c r="T77" s="3" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T77" s="3">
+        <v>1</v>
       </c>
       <c r="U77" s="3">
-        <v>1</v>
-      </c>
-      <c r="V77" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-    </row>
-    <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>102</v>
@@ -6931,35 +6930,35 @@
       <c r="N78" s="3">
         <v>1</v>
       </c>
-      <c r="O78" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P78" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>122</v>
+      <c r="O78" s="3">
+        <v>10</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
       </c>
       <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3">
-        <v>10</v>
-      </c>
-      <c r="T78" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
       </c>
       <c r="U78" s="3">
-        <v>0</v>
-      </c>
-      <c r="V78" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-    </row>
-    <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC78" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>95</v>
@@ -6998,35 +6997,35 @@
       <c r="N79" s="3">
         <v>1</v>
       </c>
-      <c r="O79" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P79" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>94</v>
+      <c r="O79" s="3">
+        <v>10</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
       </c>
       <c r="R79" s="3">
-        <v>0</v>
-      </c>
-      <c r="S79" s="3">
-        <v>10</v>
-      </c>
-      <c r="T79" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T79" s="3">
+        <v>1</v>
       </c>
       <c r="U79" s="3">
-        <v>1</v>
-      </c>
-      <c r="V79" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-    </row>
-    <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC79" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>95</v>
@@ -7065,35 +7064,35 @@
       <c r="N80" s="3">
         <v>1</v>
       </c>
-      <c r="O80" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P80" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>94</v>
+      <c r="O80" s="3">
+        <v>10</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
       </c>
       <c r="R80" s="3">
-        <v>0</v>
-      </c>
-      <c r="S80" s="3">
-        <v>15</v>
-      </c>
-      <c r="T80" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T80" s="3">
+        <v>1</v>
       </c>
       <c r="U80" s="3">
-        <v>1</v>
-      </c>
-      <c r="V80" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC80" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>102</v>
@@ -7134,35 +7133,35 @@
       <c r="N81" s="3">
         <v>1</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="P81" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>122</v>
+      <c r="O81" s="3">
+        <v>10</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>10</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>95</v>
@@ -7201,35 +7200,35 @@
       <c r="N82" s="3">
         <v>1</v>
       </c>
-      <c r="O82" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P82" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>94</v>
+      <c r="O82" s="3">
+        <v>10</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
       </c>
       <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3">
-        <v>10</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T82" s="3">
+        <v>1</v>
       </c>
       <c r="U82" s="3">
-        <v>1</v>
-      </c>
-      <c r="V82" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>95</v>
@@ -7268,35 +7267,35 @@
       <c r="N83" s="3">
         <v>1</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P83" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>94</v>
+      <c r="O83" s="3">
+        <v>10</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>15</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1</v>
       </c>
       <c r="U83" s="3">
-        <v>1</v>
-      </c>
-      <c r="V83" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>102</v>
@@ -7331,35 +7330,35 @@
       <c r="N84" s="3">
         <v>1</v>
       </c>
-      <c r="O84" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P84" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="4" t="s">
-        <v>122</v>
+      <c r="O84" s="3">
+        <v>10</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
       </c>
       <c r="R84" s="3">
-        <v>0</v>
-      </c>
-      <c r="S84" s="3">
-        <v>10</v>
-      </c>
-      <c r="T84" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
       </c>
       <c r="U84" s="3">
-        <v>0</v>
-      </c>
-      <c r="V84" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>95</v>
@@ -7398,35 +7397,35 @@
       <c r="N85" s="3">
         <v>1</v>
       </c>
-      <c r="O85" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P85" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q85" s="3" t="s">
-        <v>94</v>
+      <c r="O85" s="3">
+        <v>10</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
       </c>
       <c r="R85" s="3">
-        <v>0</v>
-      </c>
-      <c r="S85" s="3">
-        <v>10</v>
-      </c>
-      <c r="T85" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T85" s="3">
+        <v>1</v>
       </c>
       <c r="U85" s="3">
-        <v>1</v>
-      </c>
-      <c r="V85" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>95</v>
@@ -7465,35 +7464,35 @@
       <c r="N86" s="3">
         <v>1</v>
       </c>
-      <c r="O86" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="P86" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>94</v>
+      <c r="O86" s="3">
+        <v>10</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
       </c>
       <c r="R86" s="3">
-        <v>0</v>
-      </c>
-      <c r="S86" s="3">
-        <v>15</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T86" s="3">
+        <v>1</v>
       </c>
       <c r="U86" s="3">
-        <v>1</v>
-      </c>
-      <c r="V86" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-    </row>
-    <row r="87" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>102</v>
@@ -7534,35 +7533,35 @@
       <c r="N87" s="3">
         <v>1</v>
       </c>
-      <c r="O87" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="P87" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>122</v>
+      <c r="O87" s="3">
+        <v>10</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
       </c>
       <c r="R87" s="3">
-        <v>0</v>
-      </c>
-      <c r="S87" s="3">
-        <v>10</v>
-      </c>
-      <c r="T87" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
       </c>
       <c r="U87" s="3">
-        <v>0</v>
-      </c>
-      <c r="V87" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-    </row>
-    <row r="88" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>95</v>
@@ -7601,35 +7600,35 @@
       <c r="N88" s="3">
         <v>1</v>
       </c>
-      <c r="O88" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="P88" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>94</v>
+      <c r="O88" s="3">
+        <v>10</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
       </c>
       <c r="R88" s="3">
-        <v>0</v>
-      </c>
-      <c r="S88" s="3">
-        <v>10</v>
-      </c>
-      <c r="T88" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T88" s="3">
+        <v>1</v>
       </c>
       <c r="U88" s="3">
-        <v>1</v>
-      </c>
-      <c r="V88" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-    </row>
-    <row r="89" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>95</v>
@@ -7668,35 +7667,35 @@
       <c r="N89" s="3">
         <v>1</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P89" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>94</v>
+      <c r="O89" s="3">
+        <v>10</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>15</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T89" s="3">
+        <v>1</v>
       </c>
       <c r="U89" s="3">
-        <v>1</v>
-      </c>
-      <c r="V89" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>102</v>
@@ -7731,35 +7730,35 @@
       <c r="N90" s="3">
         <v>1</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P90" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>122</v>
+      <c r="O90" s="3">
+        <v>10</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
       </c>
       <c r="R90" s="3">
-        <v>0</v>
-      </c>
-      <c r="S90" s="3">
-        <v>10</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T90" s="3">
+        <v>0</v>
       </c>
       <c r="U90" s="3">
-        <v>0</v>
-      </c>
-      <c r="V90" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>95</v>
@@ -7798,35 +7797,35 @@
       <c r="N91" s="3">
         <v>1</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P91" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>94</v>
+      <c r="O91" s="3">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T91" s="3">
+        <v>1</v>
       </c>
       <c r="U91" s="3">
-        <v>1</v>
-      </c>
-      <c r="V91" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>95</v>
@@ -7865,35 +7864,35 @@
       <c r="N92" s="3">
         <v>1</v>
       </c>
-      <c r="O92" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P92" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>94</v>
+      <c r="O92" s="3">
+        <v>10</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
       </c>
       <c r="R92" s="3">
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
-        <v>15</v>
-      </c>
-      <c r="T92" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T92" s="3">
+        <v>1</v>
       </c>
       <c r="U92" s="3">
-        <v>1</v>
-      </c>
-      <c r="V92" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>102</v>
@@ -7934,35 +7933,35 @@
       <c r="N93" s="3">
         <v>1</v>
       </c>
-      <c r="O93" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="P93" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>122</v>
+      <c r="O93" s="3">
+        <v>10</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
       </c>
       <c r="R93" s="3">
-        <v>0</v>
-      </c>
-      <c r="S93" s="3">
-        <v>10</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
       </c>
       <c r="U93" s="3">
-        <v>0</v>
-      </c>
-      <c r="V93" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>95</v>
@@ -8001,35 +8000,35 @@
       <c r="N94" s="3">
         <v>1</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P94" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>94</v>
+      <c r="O94" s="3">
+        <v>10</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>10</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T94" s="3">
+        <v>1</v>
       </c>
       <c r="U94" s="3">
-        <v>1</v>
-      </c>
-      <c r="V94" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>95</v>
@@ -8068,35 +8067,35 @@
       <c r="N95" s="3">
         <v>1</v>
       </c>
-      <c r="O95" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P95" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>94</v>
+      <c r="O95" s="3">
+        <v>10</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
       </c>
       <c r="R95" s="3">
-        <v>0</v>
-      </c>
-      <c r="S95" s="3">
-        <v>15</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T95" s="3">
+        <v>1</v>
       </c>
       <c r="U95" s="3">
-        <v>1</v>
-      </c>
-      <c r="V95" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>102</v>
@@ -8131,35 +8130,35 @@
       <c r="N96" s="3">
         <v>1</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P96" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>122</v>
+      <c r="O96" s="3">
+        <v>10</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>10</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>95</v>
@@ -8198,35 +8197,35 @@
       <c r="N97" s="3">
         <v>1</v>
       </c>
-      <c r="O97" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="P97" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>94</v>
+      <c r="O97" s="3">
+        <v>10</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
       </c>
       <c r="R97" s="3">
-        <v>0</v>
-      </c>
-      <c r="S97" s="3">
-        <v>10</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T97" s="3">
+        <v>1</v>
       </c>
       <c r="U97" s="3">
-        <v>1</v>
-      </c>
-      <c r="V97" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>95</v>
@@ -8265,35 +8264,35 @@
       <c r="N98" s="3">
         <v>1</v>
       </c>
-      <c r="O98" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P98" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>94</v>
+      <c r="O98" s="3">
+        <v>10</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
       </c>
       <c r="R98" s="3">
-        <v>0</v>
-      </c>
-      <c r="S98" s="3">
-        <v>15</v>
-      </c>
-      <c r="T98" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T98" s="3">
+        <v>1</v>
       </c>
       <c r="U98" s="3">
-        <v>1</v>
-      </c>
-      <c r="V98" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="3">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>102</v>
@@ -8334,35 +8333,35 @@
       <c r="N99" s="3">
         <v>1</v>
       </c>
-      <c r="O99" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P99" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>122</v>
+      <c r="O99" s="3">
+        <v>10</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
       </c>
       <c r="R99" s="3">
-        <v>0</v>
-      </c>
-      <c r="S99" s="3">
-        <v>10</v>
-      </c>
-      <c r="T99" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
       </c>
       <c r="U99" s="3">
-        <v>0</v>
-      </c>
-      <c r="V99" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>95</v>
@@ -8401,35 +8400,35 @@
       <c r="N100" s="3">
         <v>1</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="P100" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>94</v>
+      <c r="O100" s="3">
+        <v>10</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>10</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T100" s="3">
+        <v>1</v>
       </c>
       <c r="U100" s="3">
-        <v>1</v>
-      </c>
-      <c r="V100" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -8451,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>95</v>
@@ -8468,35 +8467,35 @@
       <c r="N101" s="3">
         <v>1</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="P101" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>94</v>
+      <c r="O101" s="3">
+        <v>10</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>15</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1</v>
       </c>
       <c r="U101" s="3">
-        <v>1</v>
-      </c>
-      <c r="V101" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>102</v>
@@ -8531,35 +8530,35 @@
       <c r="N102" s="3">
         <v>1</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P102" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>122</v>
+      <c r="O102" s="3">
+        <v>10</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>10</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V102" s="3"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-    </row>
-    <row r="103" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC102" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>94</v>
@@ -8590,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>102</v>
@@ -8598,35 +8597,35 @@
       <c r="N103" s="3">
         <v>1</v>
       </c>
-      <c r="O103" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P103" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>94</v>
+      <c r="O103" s="3">
+        <v>10</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>0</v>
       </c>
       <c r="R103" s="3">
-        <v>0</v>
-      </c>
-      <c r="S103" s="3">
-        <v>10</v>
-      </c>
-      <c r="T103" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T103" s="3">
+        <v>1</v>
       </c>
       <c r="U103" s="3">
-        <v>1</v>
-      </c>
-      <c r="V103" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC103" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>151</v>
@@ -8665,35 +8664,35 @@
       <c r="N104" s="3">
         <v>1</v>
       </c>
-      <c r="O104" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="P104" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q104" s="3" t="s">
-        <v>94</v>
+      <c r="O104" s="3">
+        <v>10</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>0</v>
       </c>
       <c r="R104" s="3">
-        <v>0</v>
-      </c>
-      <c r="S104" s="3">
-        <v>15</v>
-      </c>
-      <c r="T104" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T104" s="3">
+        <v>1</v>
       </c>
       <c r="U104" s="3">
-        <v>1</v>
-      </c>
-      <c r="V104" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC104" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>102</v>
@@ -8734,35 +8733,35 @@
       <c r="N105" s="3">
         <v>1</v>
       </c>
-      <c r="O105" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="P105" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="4" t="s">
-        <v>95</v>
+      <c r="O105" s="3">
+        <v>10</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>0</v>
       </c>
       <c r="R105" s="3">
-        <v>0</v>
-      </c>
-      <c r="S105" s="3">
-        <v>10</v>
-      </c>
-      <c r="T105" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T105" s="3">
+        <v>0</v>
       </c>
       <c r="U105" s="3">
-        <v>0</v>
-      </c>
-      <c r="V105" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V105" s="3"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC105" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>151</v>
@@ -8801,35 +8800,35 @@
       <c r="N106" s="3">
         <v>1</v>
       </c>
-      <c r="O106" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P106" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>94</v>
+      <c r="O106" s="3">
+        <v>10</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>0</v>
       </c>
       <c r="R106" s="3">
-        <v>0</v>
-      </c>
-      <c r="S106" s="3">
-        <v>10</v>
-      </c>
-      <c r="T106" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T106" s="3">
+        <v>1</v>
       </c>
       <c r="U106" s="3">
-        <v>1</v>
-      </c>
-      <c r="V106" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC106" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>151</v>
@@ -8868,35 +8867,35 @@
       <c r="N107" s="3">
         <v>1</v>
       </c>
-      <c r="O107" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="P107" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q107" s="3" t="s">
-        <v>94</v>
+      <c r="O107" s="3">
+        <v>10</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>0</v>
       </c>
       <c r="R107" s="3">
-        <v>0</v>
-      </c>
-      <c r="S107" s="3">
-        <v>15</v>
-      </c>
-      <c r="T107" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T107" s="3">
+        <v>1</v>
       </c>
       <c r="U107" s="3">
-        <v>1</v>
-      </c>
-      <c r="V107" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC107" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>102</v>
@@ -8931,35 +8930,35 @@
       <c r="N108" s="3">
         <v>1</v>
       </c>
-      <c r="O108" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P108" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q108" s="3" t="s">
-        <v>95</v>
+      <c r="O108" s="3">
+        <v>10</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>0</v>
       </c>
       <c r="R108" s="3">
-        <v>0</v>
-      </c>
-      <c r="S108" s="3">
-        <v>10</v>
-      </c>
-      <c r="T108" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T108" s="3">
+        <v>0</v>
       </c>
       <c r="U108" s="3">
-        <v>0</v>
-      </c>
-      <c r="V108" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V108" s="3"/>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC108" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>151</v>
@@ -8998,35 +8997,35 @@
       <c r="N109" s="3">
         <v>1</v>
       </c>
-      <c r="O109" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P109" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>94</v>
+      <c r="O109" s="3">
+        <v>10</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>0</v>
       </c>
       <c r="R109" s="3">
-        <v>0</v>
-      </c>
-      <c r="S109" s="3">
-        <v>10</v>
-      </c>
-      <c r="T109" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T109" s="3">
+        <v>1</v>
       </c>
       <c r="U109" s="3">
-        <v>1</v>
-      </c>
-      <c r="V109" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V109" s="3"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
-      <c r="Y109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC109" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>151</v>
@@ -9065,35 +9064,35 @@
       <c r="N110" s="3">
         <v>1</v>
       </c>
-      <c r="O110" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="P110" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q110" s="3" t="s">
-        <v>94</v>
+      <c r="O110" s="3">
+        <v>10</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>0</v>
       </c>
       <c r="R110" s="3">
-        <v>0</v>
-      </c>
-      <c r="S110" s="3">
-        <v>15</v>
-      </c>
-      <c r="T110" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T110" s="3">
+        <v>1</v>
       </c>
       <c r="U110" s="3">
-        <v>1</v>
-      </c>
-      <c r="V110" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V110" s="3"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC110" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>102</v>
@@ -9134,35 +9133,35 @@
       <c r="N111" s="3">
         <v>1</v>
       </c>
-      <c r="O111" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P111" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q111" s="4" t="s">
-        <v>95</v>
+      <c r="O111" s="3">
+        <v>10</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>0</v>
       </c>
       <c r="R111" s="3">
-        <v>0</v>
-      </c>
-      <c r="S111" s="3">
-        <v>10</v>
-      </c>
-      <c r="T111" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T111" s="3">
+        <v>0</v>
       </c>
       <c r="U111" s="3">
-        <v>0</v>
-      </c>
-      <c r="V111" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V111" s="3"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC111" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>151</v>
@@ -9201,35 +9200,35 @@
       <c r="N112" s="3">
         <v>1</v>
       </c>
-      <c r="O112" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P112" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>94</v>
+      <c r="O112" s="3">
+        <v>10</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>0</v>
       </c>
       <c r="R112" s="3">
-        <v>0</v>
-      </c>
-      <c r="S112" s="3">
-        <v>10</v>
-      </c>
-      <c r="T112" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T112" s="3">
+        <v>1</v>
       </c>
       <c r="U112" s="3">
-        <v>1</v>
-      </c>
-      <c r="V112" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V112" s="3"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC112" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>151</v>
@@ -9268,35 +9267,35 @@
       <c r="N113" s="3">
         <v>1</v>
       </c>
-      <c r="O113" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P113" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>94</v>
+      <c r="O113" s="3">
+        <v>10</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>0</v>
       </c>
       <c r="R113" s="3">
-        <v>0</v>
-      </c>
-      <c r="S113" s="3">
-        <v>15</v>
-      </c>
-      <c r="T113" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T113" s="3">
+        <v>1</v>
       </c>
       <c r="U113" s="3">
-        <v>1</v>
-      </c>
-      <c r="V113" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V113" s="3"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC113" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>102</v>
@@ -9331,35 +9330,35 @@
       <c r="N114" s="3">
         <v>1</v>
       </c>
-      <c r="O114" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P114" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q114" s="3" t="s">
-        <v>95</v>
+      <c r="O114" s="3">
+        <v>10</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>0</v>
       </c>
       <c r="R114" s="3">
-        <v>0</v>
-      </c>
-      <c r="S114" s="3">
-        <v>10</v>
-      </c>
-      <c r="T114" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T114" s="3">
+        <v>0</v>
       </c>
       <c r="U114" s="3">
-        <v>0</v>
-      </c>
-      <c r="V114" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V114" s="3"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-    </row>
-    <row r="115" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC114" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>151</v>
@@ -9398,35 +9397,35 @@
       <c r="N115" s="3">
         <v>1</v>
       </c>
-      <c r="O115" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="P115" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q115" s="3" t="s">
-        <v>94</v>
+      <c r="O115" s="3">
+        <v>10</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>0</v>
       </c>
       <c r="R115" s="3">
-        <v>0</v>
-      </c>
-      <c r="S115" s="3">
-        <v>10</v>
-      </c>
-      <c r="T115" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T115" s="3">
+        <v>1</v>
       </c>
       <c r="U115" s="3">
-        <v>1</v>
-      </c>
-      <c r="V115" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V115" s="3"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-    </row>
-    <row r="116" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC115" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>151</v>
@@ -9465,35 +9464,35 @@
       <c r="N116" s="3">
         <v>1</v>
       </c>
-      <c r="O116" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="P116" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q116" s="3" t="s">
-        <v>94</v>
+      <c r="O116" s="3">
+        <v>10</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>0</v>
       </c>
       <c r="R116" s="3">
-        <v>0</v>
-      </c>
-      <c r="S116" s="3">
-        <v>15</v>
-      </c>
-      <c r="T116" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T116" s="3">
+        <v>1</v>
       </c>
       <c r="U116" s="3">
-        <v>1</v>
-      </c>
-      <c r="V116" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V116" s="3"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-    </row>
-    <row r="117" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC116" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>102</v>
@@ -9534,35 +9533,35 @@
       <c r="N117" s="3">
         <v>1</v>
       </c>
-      <c r="O117" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P117" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="4" t="s">
-        <v>95</v>
+      <c r="O117" s="3">
+        <v>10</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>0</v>
       </c>
       <c r="R117" s="3">
-        <v>0</v>
-      </c>
-      <c r="S117" s="3">
-        <v>10</v>
-      </c>
-      <c r="T117" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T117" s="3">
+        <v>0</v>
       </c>
       <c r="U117" s="3">
-        <v>0</v>
-      </c>
-      <c r="V117" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V117" s="3"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC117" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>151</v>
@@ -9601,35 +9600,35 @@
       <c r="N118" s="3">
         <v>1</v>
       </c>
-      <c r="O118" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P118" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q118" s="3" t="s">
-        <v>94</v>
+      <c r="O118" s="3">
+        <v>10</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>0</v>
       </c>
       <c r="R118" s="3">
-        <v>0</v>
-      </c>
-      <c r="S118" s="3">
-        <v>10</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T118" s="3">
+        <v>1</v>
       </c>
       <c r="U118" s="3">
-        <v>1</v>
-      </c>
-      <c r="V118" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V118" s="3"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC118" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>151</v>
@@ -9668,35 +9667,35 @@
       <c r="N119" s="3">
         <v>1</v>
       </c>
-      <c r="O119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="P119" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q119" s="3" t="s">
-        <v>94</v>
+      <c r="O119" s="3">
+        <v>10</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>0</v>
       </c>
       <c r="R119" s="3">
-        <v>0</v>
-      </c>
-      <c r="S119" s="3">
-        <v>15</v>
-      </c>
-      <c r="T119" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T119" s="3">
+        <v>1</v>
       </c>
       <c r="U119" s="3">
-        <v>1</v>
-      </c>
-      <c r="V119" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V119" s="3"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC119" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>102</v>
@@ -9731,35 +9730,35 @@
       <c r="N120" s="3">
         <v>1</v>
       </c>
-      <c r="O120" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P120" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q120" s="3" t="s">
-        <v>95</v>
+      <c r="O120" s="3">
+        <v>10</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>0</v>
       </c>
       <c r="R120" s="3">
-        <v>0</v>
-      </c>
-      <c r="S120" s="3">
-        <v>10</v>
-      </c>
-      <c r="T120" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T120" s="3">
+        <v>0</v>
       </c>
       <c r="U120" s="3">
-        <v>0</v>
-      </c>
-      <c r="V120" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC120" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>151</v>
@@ -9798,35 +9797,35 @@
       <c r="N121" s="3">
         <v>1</v>
       </c>
-      <c r="O121" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P121" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q121" s="3" t="s">
-        <v>94</v>
+      <c r="O121" s="3">
+        <v>10</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>0</v>
       </c>
       <c r="R121" s="3">
-        <v>0</v>
-      </c>
-      <c r="S121" s="3">
-        <v>10</v>
-      </c>
-      <c r="T121" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T121" s="3">
+        <v>1</v>
       </c>
       <c r="U121" s="3">
-        <v>1</v>
-      </c>
-      <c r="V121" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-    </row>
-    <row r="122" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC121" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>151</v>
@@ -9865,35 +9864,35 @@
       <c r="N122" s="3">
         <v>1</v>
       </c>
-      <c r="O122" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="P122" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q122" s="3" t="s">
-        <v>94</v>
+      <c r="O122" s="3">
+        <v>10</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>0</v>
       </c>
       <c r="R122" s="3">
-        <v>0</v>
-      </c>
-      <c r="S122" s="3">
-        <v>15</v>
-      </c>
-      <c r="T122" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T122" s="3">
+        <v>1</v>
       </c>
       <c r="U122" s="3">
-        <v>1</v>
-      </c>
-      <c r="V122" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V122" s="3"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC122" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>102</v>
@@ -9934,35 +9933,35 @@
       <c r="N123" s="3">
         <v>1</v>
       </c>
-      <c r="O123" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P123" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q123" s="4" t="s">
-        <v>95</v>
+      <c r="O123" s="3">
+        <v>10</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>0</v>
       </c>
       <c r="R123" s="3">
-        <v>0</v>
-      </c>
-      <c r="S123" s="3">
-        <v>10</v>
-      </c>
-      <c r="T123" s="3" t="s">
-        <v>94</v>
+        <v>160</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T123" s="3">
+        <v>0</v>
       </c>
       <c r="U123" s="3">
-        <v>0</v>
-      </c>
-      <c r="V123" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V123" s="3"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-    </row>
-    <row r="124" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC123" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>151</v>
@@ -10001,35 +10000,35 @@
       <c r="N124" s="3">
         <v>1</v>
       </c>
-      <c r="O124" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="P124" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q124" s="3" t="s">
-        <v>94</v>
+      <c r="O124" s="3">
+        <v>10</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>0</v>
       </c>
       <c r="R124" s="3">
-        <v>0</v>
-      </c>
-      <c r="S124" s="3">
-        <v>10</v>
-      </c>
-      <c r="T124" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T124" s="3">
+        <v>1</v>
       </c>
       <c r="U124" s="3">
-        <v>1</v>
-      </c>
-      <c r="V124" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC124" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>151</v>
@@ -10068,35 +10067,35 @@
       <c r="N125" s="3">
         <v>1</v>
       </c>
-      <c r="O125" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="P125" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q125" s="3" t="s">
-        <v>94</v>
+      <c r="O125" s="3">
+        <v>10</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>0</v>
       </c>
       <c r="R125" s="3">
-        <v>0</v>
-      </c>
-      <c r="S125" s="3">
-        <v>15</v>
-      </c>
-      <c r="T125" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T125" s="3">
+        <v>1</v>
       </c>
       <c r="U125" s="3">
-        <v>1</v>
-      </c>
-      <c r="V125" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V125" s="3"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC125" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>102</v>
@@ -10131,35 +10130,35 @@
       <c r="N126" s="3">
         <v>1</v>
       </c>
-      <c r="O126" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P126" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q126" s="3" t="s">
-        <v>95</v>
+      <c r="O126" s="3">
+        <v>10</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>0</v>
       </c>
       <c r="R126" s="3">
-        <v>0</v>
-      </c>
-      <c r="S126" s="3">
-        <v>10</v>
-      </c>
-      <c r="T126" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T126" s="3">
+        <v>0</v>
       </c>
       <c r="U126" s="3">
-        <v>0</v>
-      </c>
-      <c r="V126" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V126" s="3"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC126" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>151</v>
@@ -10198,35 +10197,35 @@
       <c r="N127" s="3">
         <v>1</v>
       </c>
-      <c r="O127" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P127" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q127" s="3" t="s">
-        <v>94</v>
+      <c r="O127" s="3">
+        <v>10</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>0</v>
       </c>
       <c r="R127" s="3">
-        <v>0</v>
-      </c>
-      <c r="S127" s="3">
-        <v>10</v>
-      </c>
-      <c r="T127" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T127" s="3">
+        <v>1</v>
       </c>
       <c r="U127" s="3">
-        <v>1</v>
-      </c>
-      <c r="V127" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V127" s="3"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC127" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>151</v>
@@ -10265,35 +10264,35 @@
       <c r="N128" s="3">
         <v>1</v>
       </c>
-      <c r="O128" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="P128" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q128" s="3" t="s">
-        <v>94</v>
+      <c r="O128" s="3">
+        <v>10</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>0</v>
       </c>
       <c r="R128" s="3">
-        <v>0</v>
-      </c>
-      <c r="S128" s="3">
-        <v>15</v>
-      </c>
-      <c r="T128" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T128" s="3">
+        <v>1</v>
       </c>
       <c r="U128" s="3">
-        <v>1</v>
-      </c>
-      <c r="V128" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V128" s="3"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-    </row>
-    <row r="129" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC128" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="M129" s="3" t="s">
         <v>102</v>
@@ -10334,35 +10333,35 @@
       <c r="N129" s="3">
         <v>1</v>
       </c>
-      <c r="O129" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="P129" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q129" s="4" t="s">
-        <v>95</v>
+      <c r="O129" s="3">
+        <v>10</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>0</v>
       </c>
       <c r="R129" s="3">
-        <v>0</v>
-      </c>
-      <c r="S129" s="3">
-        <v>10</v>
-      </c>
-      <c r="T129" s="3" t="s">
-        <v>94</v>
+        <v>160</v>
+      </c>
+      <c r="S129" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T129" s="3">
+        <v>0</v>
       </c>
       <c r="U129" s="3">
-        <v>0</v>
-      </c>
-      <c r="V129" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V129" s="3"/>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-    </row>
-    <row r="130" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC129" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>151</v>
@@ -10401,35 +10400,35 @@
       <c r="N130" s="3">
         <v>1</v>
       </c>
-      <c r="O130" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="P130" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q130" s="3" t="s">
-        <v>94</v>
+      <c r="O130" s="3">
+        <v>10</v>
+      </c>
+      <c r="P130" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>0</v>
       </c>
       <c r="R130" s="3">
-        <v>0</v>
-      </c>
-      <c r="S130" s="3">
-        <v>10</v>
-      </c>
-      <c r="T130" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T130" s="3">
+        <v>1</v>
       </c>
       <c r="U130" s="3">
-        <v>1</v>
-      </c>
-      <c r="V130" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V130" s="3"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-    </row>
-    <row r="131" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC130" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="3">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>151</v>
@@ -10468,35 +10467,35 @@
       <c r="N131" s="3">
         <v>1</v>
       </c>
-      <c r="O131" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="P131" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q131" s="3" t="s">
-        <v>94</v>
+      <c r="O131" s="3">
+        <v>10</v>
+      </c>
+      <c r="P131" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>0</v>
       </c>
       <c r="R131" s="3">
-        <v>0</v>
-      </c>
-      <c r="S131" s="3">
-        <v>15</v>
-      </c>
-      <c r="T131" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T131" s="3">
+        <v>1</v>
       </c>
       <c r="U131" s="3">
-        <v>1</v>
-      </c>
-      <c r="V131" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V131" s="3"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC131" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="M132" s="3" t="s">
         <v>102</v>
@@ -10531,35 +10530,35 @@
       <c r="N132" s="3">
         <v>1</v>
       </c>
-      <c r="O132" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P132" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q132" s="3" t="s">
-        <v>95</v>
+      <c r="O132" s="3">
+        <v>10</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>0</v>
       </c>
       <c r="R132" s="3">
-        <v>0</v>
-      </c>
-      <c r="S132" s="3">
-        <v>10</v>
-      </c>
-      <c r="T132" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T132" s="3">
+        <v>0</v>
       </c>
       <c r="U132" s="3">
-        <v>0</v>
-      </c>
-      <c r="V132" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V132" s="3"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC132" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>151</v>
@@ -10598,35 +10597,35 @@
       <c r="N133" s="3">
         <v>1</v>
       </c>
-      <c r="O133" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="P133" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q133" s="3" t="s">
-        <v>94</v>
+      <c r="O133" s="3">
+        <v>10</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>0</v>
       </c>
       <c r="R133" s="3">
-        <v>0</v>
-      </c>
-      <c r="S133" s="3">
-        <v>10</v>
-      </c>
-      <c r="T133" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T133" s="3">
+        <v>1</v>
       </c>
       <c r="U133" s="3">
-        <v>1</v>
-      </c>
-      <c r="V133" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V133" s="3"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC133" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>151</v>
@@ -10665,35 +10664,35 @@
       <c r="N134" s="3">
         <v>1</v>
       </c>
-      <c r="O134" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="P134" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q134" s="3" t="s">
-        <v>94</v>
+      <c r="O134" s="3">
+        <v>10</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>0</v>
       </c>
       <c r="R134" s="3">
-        <v>0</v>
-      </c>
-      <c r="S134" s="3">
-        <v>15</v>
-      </c>
-      <c r="T134" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T134" s="3">
+        <v>1</v>
       </c>
       <c r="U134" s="3">
-        <v>1</v>
-      </c>
-      <c r="V134" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V134" s="3"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC134" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3">
-        <v>10</v>
+        <v>435</v>
       </c>
       <c r="M135" s="3" t="s">
         <v>102</v>
@@ -10734,35 +10733,35 @@
       <c r="N135" s="3">
         <v>1</v>
       </c>
-      <c r="O135" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P135" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q135" s="4" t="s">
-        <v>95</v>
+      <c r="O135" s="3">
+        <v>10</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>0</v>
       </c>
       <c r="R135" s="3">
-        <v>0</v>
-      </c>
-      <c r="S135" s="3">
-        <v>10</v>
-      </c>
-      <c r="T135" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T135" s="3">
+        <v>0</v>
       </c>
       <c r="U135" s="3">
-        <v>0</v>
-      </c>
-      <c r="V135" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V135" s="3"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC135" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>151</v>
@@ -10801,35 +10800,35 @@
       <c r="N136" s="3">
         <v>1</v>
       </c>
-      <c r="O136" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P136" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q136" s="3" t="s">
-        <v>94</v>
+      <c r="O136" s="3">
+        <v>10</v>
+      </c>
+      <c r="P136" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>0</v>
       </c>
       <c r="R136" s="3">
-        <v>0</v>
-      </c>
-      <c r="S136" s="3">
-        <v>10</v>
-      </c>
-      <c r="T136" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T136" s="3">
+        <v>1</v>
       </c>
       <c r="U136" s="3">
-        <v>1</v>
-      </c>
-      <c r="V136" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V136" s="3"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC136" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>151</v>
@@ -10868,35 +10867,35 @@
       <c r="N137" s="3">
         <v>1</v>
       </c>
-      <c r="O137" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P137" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q137" s="3" t="s">
-        <v>94</v>
+      <c r="O137" s="3">
+        <v>10</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>0</v>
       </c>
       <c r="R137" s="3">
-        <v>0</v>
-      </c>
-      <c r="S137" s="3">
-        <v>15</v>
-      </c>
-      <c r="T137" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T137" s="3">
+        <v>1</v>
       </c>
       <c r="U137" s="3">
-        <v>1</v>
-      </c>
-      <c r="V137" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V137" s="3"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-    </row>
-    <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC137" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="3">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>102</v>
@@ -10931,35 +10930,35 @@
       <c r="N138" s="3">
         <v>1</v>
       </c>
-      <c r="O138" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P138" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q138" s="3" t="s">
-        <v>95</v>
+      <c r="O138" s="3">
+        <v>10</v>
+      </c>
+      <c r="P138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>0</v>
       </c>
       <c r="R138" s="3">
-        <v>0</v>
-      </c>
-      <c r="S138" s="3">
-        <v>10</v>
-      </c>
-      <c r="T138" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T138" s="3">
+        <v>0</v>
       </c>
       <c r="U138" s="3">
-        <v>0</v>
-      </c>
-      <c r="V138" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V138" s="3"/>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC138" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="3">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>151</v>
@@ -10998,35 +10997,35 @@
       <c r="N139" s="3">
         <v>1</v>
       </c>
-      <c r="O139" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="P139" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>94</v>
+      <c r="O139" s="3">
+        <v>10</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>0</v>
       </c>
       <c r="R139" s="3">
-        <v>0</v>
-      </c>
-      <c r="S139" s="3">
-        <v>10</v>
-      </c>
-      <c r="T139" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T139" s="3">
+        <v>1</v>
       </c>
       <c r="U139" s="3">
-        <v>1</v>
-      </c>
-      <c r="V139" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V139" s="3"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC139" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="3">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>151</v>
@@ -11065,35 +11064,35 @@
       <c r="N140" s="3">
         <v>1</v>
       </c>
-      <c r="O140" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="P140" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q140" s="3" t="s">
-        <v>94</v>
+      <c r="O140" s="3">
+        <v>10</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>0</v>
       </c>
       <c r="R140" s="3">
-        <v>0</v>
-      </c>
-      <c r="S140" s="3">
-        <v>15</v>
-      </c>
-      <c r="T140" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T140" s="3">
+        <v>1</v>
       </c>
       <c r="U140" s="3">
-        <v>1</v>
-      </c>
-      <c r="V140" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V140" s="3"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
-      <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC140" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="3">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="M141" s="3" t="s">
         <v>102</v>
@@ -11134,42 +11133,42 @@
       <c r="N141" s="3">
         <v>1</v>
       </c>
-      <c r="O141" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P141" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q141" s="4" t="s">
-        <v>95</v>
+      <c r="O141" s="3">
+        <v>10</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>0</v>
       </c>
       <c r="R141" s="3">
-        <v>0</v>
-      </c>
-      <c r="S141" s="3">
-        <v>10</v>
-      </c>
-      <c r="T141" s="3" t="s">
-        <v>94</v>
+        <v>200</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T141" s="3">
+        <v>0</v>
       </c>
       <c r="U141" s="3">
-        <v>0</v>
-      </c>
-      <c r="V141" s="3">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="V141" s="3"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
-      <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q144" s="1"/>
+      <c r="AC141" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P142" s="1"/>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P143" s="1"/>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P144" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EDDCC-B553-40A7-984C-D9FD1671A136}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480135F7-428B-4064-B4ED-C456CB685654}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="276">
   <si>
     <t>sheet名</t>
   </si>
@@ -355,10 +355,6 @@
   </si>
   <si>
     <t>星际币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙晶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1070,6 +1066,32 @@
   </si>
   <si>
     <t>BOSS关，500级属性</t>
+  </si>
+  <si>
+    <t>龙魂</t>
+  </si>
+  <si>
+    <t>龙魂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepAward[4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepAward[4].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepAward[4].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙元</t>
+  </si>
+  <si>
+    <t>龙元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1630,14 +1652,14 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1645,20 +1667,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1666,11 +1688,11 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1679,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1706,13 +1728,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A6AE-C641-48B5-AE4D-CE70B2979CBD}">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1734,27 +1756,30 @@
     <col min="22" max="22" width="19.25" customWidth="1"/>
     <col min="23" max="23" width="21.75" customWidth="1"/>
     <col min="24" max="24" width="22" customWidth="1"/>
-    <col min="29" max="29" width="40.25" customWidth="1"/>
+    <col min="25" max="25" width="19.25" customWidth="1"/>
+    <col min="26" max="26" width="21.75" customWidth="1"/>
+    <col min="27" max="27" width="22" customWidth="1"/>
+    <col min="32" max="32" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
@@ -1775,13 +1800,13 @@
         <v>20</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>33</v>
@@ -1810,9 +1835,18 @@
       <c r="X1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1857,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1885,8 +1919,17 @@
       <c r="X2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1894,16 +1937,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -1924,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>27</v>
@@ -1959,9 +2002,18 @@
       <c r="X3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1986,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1995,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -2013,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T4" s="3">
         <v>1</v>
@@ -2024,11 +2076,14 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="AC4" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2053,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -2062,7 +2117,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -2080,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T5" s="3">
         <v>1</v>
@@ -2091,11 +2146,14 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="AC5" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2116,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -2125,7 +2183,7 @@
         <v>35</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -2143,10 +2201,10 @@
         <v>15</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="3">
         <v>10</v>
@@ -2154,11 +2212,14 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2183,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -2192,7 +2253,7 @@
         <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -2210,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
@@ -2221,11 +2282,14 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="AC7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AF7" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2250,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -2259,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -2277,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T8" s="3">
         <v>1</v>
@@ -2288,11 +2352,14 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="AC8" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2319,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2328,7 +2395,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -2346,10 +2413,10 @@
         <v>25</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="3">
         <v>10</v>
@@ -2357,11 +2424,14 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="AC9" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AF9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2386,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2395,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -2413,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T10" s="3">
         <v>1</v>
@@ -2424,11 +2494,14 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="AC10" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AF10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2453,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2462,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -2480,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T11" s="3">
         <v>1</v>
@@ -2491,11 +2564,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="AC11" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AF11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2516,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2525,7 +2601,7 @@
         <v>75</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -2543,22 +2619,25 @@
         <v>30</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="AC12" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AF12" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2583,16 +2662,16 @@
         <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -2610,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T13" s="3">
         <v>1</v>
@@ -2621,11 +2700,14 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="AC13" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AF13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2650,16 +2732,16 @@
         <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -2677,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T14" s="3">
         <v>1</v>
@@ -2688,11 +2770,14 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="AC14" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AF14" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2719,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2728,7 +2813,7 @@
         <v>110</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -2746,22 +2831,25 @@
         <v>45</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="AC15" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AF15" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2786,16 +2874,16 @@
         <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -2813,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T16" s="3">
         <v>1</v>
@@ -2824,11 +2912,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="AC16" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AF16" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2853,16 +2944,16 @@
         <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -2880,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T17" s="3">
         <v>1</v>
@@ -2891,11 +2982,14 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="AC17" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2916,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2925,7 +3019,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -2943,22 +3037,25 @@
         <v>40</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="AC18" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AF18" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2983,16 +3080,16 @@
         <v>50</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -3010,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T19" s="3">
         <v>1</v>
@@ -3021,11 +3118,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="AC19" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AF19" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3050,16 +3150,16 @@
         <v>50</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -3077,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T20" s="3">
         <v>1</v>
@@ -3088,11 +3188,14 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="AC20" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AF20" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3119,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -3128,7 +3231,7 @@
         <v>125</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3146,22 +3249,25 @@
         <v>50</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="AC21" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AF21" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3186,16 +3292,16 @@
         <v>60</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -3213,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T22" s="3">
         <v>1</v>
@@ -3224,11 +3330,14 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="AC22" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AF22" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3253,16 +3362,16 @@
         <v>60</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -3280,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T23" s="3">
         <v>1</v>
@@ -3291,11 +3400,14 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="AC23" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AF23" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3316,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3325,7 +3437,7 @@
         <v>125</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -3343,22 +3455,25 @@
         <v>50</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="AC24" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AF24" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3383,16 +3498,16 @@
         <v>60</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -3410,7 +3525,7 @@
         <v>25</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T25" s="3">
         <v>1</v>
@@ -3421,11 +3536,14 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="AC25" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AF25" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3450,16 +3568,16 @@
         <v>60</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -3477,7 +3595,7 @@
         <v>25</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T26" s="3">
         <v>1</v>
@@ -3488,11 +3606,14 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AF26" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3519,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -3528,7 +3649,7 @@
         <v>160</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -3546,22 +3667,25 @@
         <v>65</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="AC27" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AF27" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3586,16 +3710,16 @@
         <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -3613,7 +3737,7 @@
         <v>30</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T28" s="3">
         <v>1</v>
@@ -3624,11 +3748,14 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="AC28" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AF28" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3653,16 +3780,16 @@
         <v>75</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -3680,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T29" s="3">
         <v>1</v>
@@ -3691,11 +3818,14 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="AC29" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AF29" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3716,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -3725,7 +3855,7 @@
         <v>150</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -3743,22 +3873,25 @@
         <v>60</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="AC30" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AF30" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3783,16 +3916,16 @@
         <v>75</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -3810,7 +3943,7 @@
         <v>30</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T31" s="3">
         <v>1</v>
@@ -3821,11 +3954,14 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="AC31" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AF31" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3850,16 +3986,16 @@
         <v>75</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
@@ -3877,7 +4013,7 @@
         <v>30</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T32" s="3">
         <v>1</v>
@@ -3888,11 +4024,14 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="AC32" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AF32" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3919,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -3928,7 +4067,7 @@
         <v>185</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
@@ -3946,22 +4085,25 @@
         <v>75</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="AC33" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AF33" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3986,16 +4128,16 @@
         <v>75</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -4013,7 +4155,7 @@
         <v>30</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T34" s="3">
         <v>1</v>
@@ -4024,11 +4166,14 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="AC34" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AF34" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4053,16 +4198,16 @@
         <v>75</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
@@ -4080,7 +4225,7 @@
         <v>30</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T35" s="3">
         <v>1</v>
@@ -4091,11 +4236,14 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="AC35" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AF35" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4116,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -4125,7 +4273,7 @@
         <v>150</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N36" s="3">
         <v>1</v>
@@ -4143,22 +4291,25 @@
         <v>60</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
       </c>
       <c r="U36" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="AC36" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AF36" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4183,16 +4334,16 @@
         <v>85</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -4210,7 +4361,7 @@
         <v>35</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T37" s="3">
         <v>1</v>
@@ -4221,11 +4372,14 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="AC37" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AF37" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4250,16 +4404,16 @@
         <v>85</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -4277,7 +4431,7 @@
         <v>35</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T38" s="3">
         <v>1</v>
@@ -4288,11 +4442,14 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="AC38" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AF38" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4319,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -4328,7 +4485,7 @@
         <v>225</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
@@ -4346,22 +4503,25 @@
         <v>90</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="AC39" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AF39" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4386,16 +4546,16 @@
         <v>85</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N40" s="3">
         <v>1</v>
@@ -4413,7 +4573,7 @@
         <v>35</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T40" s="3">
         <v>1</v>
@@ -4424,11 +4584,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="AC40" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AF40" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4453,16 +4616,16 @@
         <v>85</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" s="3">
         <v>1</v>
@@ -4480,7 +4643,7 @@
         <v>35</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T41" s="3">
         <v>1</v>
@@ -4491,11 +4654,14 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="AC41" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AF41" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4516,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -4525,7 +4691,7 @@
         <v>175</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N42" s="3">
         <v>1</v>
@@ -4543,22 +4709,25 @@
         <v>70</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="AC42" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AF42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4583,16 +4752,16 @@
         <v>85</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N43" s="3">
         <v>1</v>
@@ -4610,7 +4779,7 @@
         <v>35</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T43" s="3">
         <v>1</v>
@@ -4621,11 +4790,14 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="AC43" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AF43" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4650,16 +4822,16 @@
         <v>85</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N44" s="3">
         <v>1</v>
@@ -4677,7 +4849,7 @@
         <v>35</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T44" s="3">
         <v>1</v>
@@ -4688,11 +4860,14 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="AC44" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AF44" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4719,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -4728,7 +4903,7 @@
         <v>225</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N45" s="3">
         <v>1</v>
@@ -4746,22 +4921,25 @@
         <v>90</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="AC45" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AF45" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4786,16 +4964,16 @@
         <v>85</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N46" s="3">
         <v>1</v>
@@ -4813,7 +4991,7 @@
         <v>35</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T46" s="3">
         <v>1</v>
@@ -4824,11 +5002,14 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="AC46" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AF46" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4853,16 +5034,16 @@
         <v>85</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N47" s="3">
         <v>1</v>
@@ -4880,7 +5061,7 @@
         <v>35</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T47" s="3">
         <v>1</v>
@@ -4891,11 +5072,14 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-      <c r="AC47" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AF47" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4916,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -4925,7 +5109,7 @@
         <v>175</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -4943,22 +5127,25 @@
         <v>70</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="AC48" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AF48" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -4983,16 +5170,16 @@
         <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N49" s="3">
         <v>1</v>
@@ -5010,7 +5197,7 @@
         <v>40</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T49" s="3">
         <v>1</v>
@@ -5021,11 +5208,14 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="AC49" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AF49" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -5050,16 +5240,16 @@
         <v>100</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
@@ -5077,7 +5267,7 @@
         <v>40</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T50" s="3">
         <v>1</v>
@@ -5088,11 +5278,14 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="AC50" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AF50" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5119,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -5128,7 +5321,7 @@
         <v>250</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -5146,22 +5339,25 @@
         <v>100</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T51" s="3">
         <v>0</v>
       </c>
       <c r="U51" s="3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="AC51" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AF51" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -5186,16 +5382,16 @@
         <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -5213,7 +5409,7 @@
         <v>40</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T52" s="3">
         <v>1</v>
@@ -5224,11 +5420,14 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="AC52" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AF52" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -5253,16 +5452,16 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N53" s="3">
         <v>1</v>
@@ -5280,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T53" s="3">
         <v>1</v>
@@ -5291,11 +5490,14 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="AC53" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AF53" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5316,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -5325,7 +5527,7 @@
         <v>200</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N54" s="3">
         <v>1</v>
@@ -5343,22 +5545,25 @@
         <v>80</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="AC54" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AF54" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -5383,16 +5588,16 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -5410,7 +5615,7 @@
         <v>40</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T55" s="3">
         <v>1</v>
@@ -5421,11 +5626,14 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="AC55" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AF55" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -5450,16 +5658,16 @@
         <v>100</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N56" s="3">
         <v>1</v>
@@ -5477,7 +5685,7 @@
         <v>40</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T56" s="3">
         <v>1</v>
@@ -5488,11 +5696,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="AC56" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AF56" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -5519,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -5528,7 +5739,7 @@
         <v>250</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -5546,22 +5757,25 @@
         <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-      <c r="AC57" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AF57" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -5586,16 +5800,16 @@
         <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N58" s="3">
         <v>1</v>
@@ -5613,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T58" s="3">
         <v>1</v>
@@ -5624,11 +5838,14 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="AC58" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AF58" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -5653,16 +5870,16 @@
         <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N59" s="3">
         <v>1</v>
@@ -5680,7 +5897,7 @@
         <v>40</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T59" s="3">
         <v>1</v>
@@ -5691,11 +5908,14 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-      <c r="AC59" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AF59" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -5716,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -5725,7 +5945,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N60" s="3">
         <v>1</v>
@@ -5743,22 +5963,25 @@
         <v>80</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-      <c r="AC60" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AF60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -5783,16 +6006,16 @@
         <v>110</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
@@ -5810,7 +6033,7 @@
         <v>45</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T61" s="3">
         <v>1</v>
@@ -5821,11 +6044,14 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-      <c r="AC61" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AF61" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -5850,16 +6076,16 @@
         <v>110</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
@@ -5877,7 +6103,7 @@
         <v>45</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T62" s="3">
         <v>1</v>
@@ -5888,11 +6114,14 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-      <c r="AC62" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AF62" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -5919,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -5928,7 +6157,7 @@
         <v>275</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
@@ -5946,22 +6175,25 @@
         <v>110</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T63" s="3">
         <v>0</v>
       </c>
       <c r="U63" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="AC63" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AF63" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -5986,16 +6218,16 @@
         <v>110</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
@@ -6013,7 +6245,7 @@
         <v>45</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T64" s="3">
         <v>1</v>
@@ -6024,11 +6256,14 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-      <c r="AC64" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AF64" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -6053,16 +6288,16 @@
         <v>110</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -6080,7 +6315,7 @@
         <v>45</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T65" s="3">
         <v>1</v>
@@ -6091,11 +6326,14 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-      <c r="AC65" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AF65" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -6116,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -6125,7 +6363,7 @@
         <v>225</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
@@ -6143,22 +6381,25 @@
         <v>90</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-      <c r="AC66" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AF66" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -6183,16 +6424,16 @@
         <v>110</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="L67" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
@@ -6210,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T67" s="3">
         <v>1</v>
@@ -6221,11 +6462,14 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="AC67" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AF67" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -6250,16 +6494,16 @@
         <v>110</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" s="3">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
@@ -6277,7 +6521,7 @@
         <v>45</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T68" s="3">
         <v>1</v>
@@ -6288,11 +6532,14 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="AC68" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AF68" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -6319,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -6328,7 +6575,7 @@
         <v>275</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N69" s="3">
         <v>1</v>
@@ -6346,22 +6593,25 @@
         <v>110</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T69" s="3">
         <v>0</v>
       </c>
       <c r="U69" s="3">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="AC69" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AF69" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -6386,16 +6636,16 @@
         <v>110</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N70" s="3">
         <v>1</v>
@@ -6413,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T70" s="3">
         <v>1</v>
@@ -6424,11 +6674,14 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="AC70" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AF70" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -6453,16 +6706,16 @@
         <v>110</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
       </c>
       <c r="L71" s="3">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N71" s="3">
         <v>1</v>
@@ -6480,7 +6733,7 @@
         <v>45</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T71" s="3">
         <v>1</v>
@@ -6491,11 +6744,14 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-      <c r="AC71" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AF71" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -6516,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -6525,7 +6781,7 @@
         <v>225</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N72" s="3">
         <v>1</v>
@@ -6543,22 +6799,25 @@
         <v>90</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
       <c r="U72" s="3">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="AC72" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AF72" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -6583,16 +6842,16 @@
         <v>125</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
       </c>
       <c r="L73" s="3">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
@@ -6610,7 +6869,7 @@
         <v>50</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T73" s="3">
         <v>1</v>
@@ -6621,11 +6880,14 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-      <c r="AC73" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AF73" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -6650,16 +6912,16 @@
         <v>125</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
       </c>
       <c r="L74" s="3">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
@@ -6677,7 +6939,7 @@
         <v>50</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T74" s="3">
         <v>1</v>
@@ -6688,11 +6950,14 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="AC74" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AF74" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -6719,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K75" s="3">
         <v>0</v>
@@ -6728,7 +6993,7 @@
         <v>285</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N75" s="3">
         <v>1</v>
@@ -6746,22 +7011,25 @@
         <v>115</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T75" s="3">
         <v>0</v>
       </c>
       <c r="U75" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-      <c r="AC75" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AF75" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -6786,16 +7054,16 @@
         <v>110</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
@@ -6813,7 +7081,7 @@
         <v>45</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T76" s="3">
         <v>1</v>
@@ -6824,11 +7092,14 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-      <c r="AC76" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AF76" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -6853,16 +7124,16 @@
         <v>110</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
       </c>
       <c r="L77" s="3">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N77" s="3">
         <v>1</v>
@@ -6880,7 +7151,7 @@
         <v>45</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T77" s="3">
         <v>1</v>
@@ -6891,11 +7162,14 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-      <c r="AC77" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AF77" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -6916,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
@@ -6925,7 +7199,7 @@
         <v>225</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N78" s="3">
         <v>1</v>
@@ -6943,22 +7217,31 @@
         <v>90</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T78" s="3">
         <v>0</v>
       </c>
       <c r="U78" s="3">
-        <v>10</v>
-      </c>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="AC78" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+      <c r="X78" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AF78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -6983,16 +7266,16 @@
         <v>125</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
       </c>
       <c r="L79" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
@@ -7010,7 +7293,7 @@
         <v>50</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T79" s="3">
         <v>1</v>
@@ -7021,11 +7304,14 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-      <c r="AC79" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AF79" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -7050,16 +7336,16 @@
         <v>125</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N80" s="3">
         <v>1</v>
@@ -7077,7 +7363,7 @@
         <v>50</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T80" s="3">
         <v>1</v>
@@ -7088,11 +7374,14 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-      <c r="AC80" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AF80" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -7119,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -7128,7 +7417,7 @@
         <v>310</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N81" s="3">
         <v>1</v>
@@ -7146,22 +7435,31 @@
         <v>125</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>10</v>
-      </c>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="AC81" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AF81" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -7186,16 +7484,16 @@
         <v>125</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
       </c>
       <c r="L82" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N82" s="3">
         <v>1</v>
@@ -7213,7 +7511,7 @@
         <v>50</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T82" s="3">
         <v>1</v>
@@ -7224,11 +7522,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-      <c r="AC82" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AF82" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -7253,16 +7554,16 @@
         <v>125</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N83" s="3">
         <v>1</v>
@@ -7280,7 +7581,7 @@
         <v>50</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T83" s="3">
         <v>1</v>
@@ -7291,11 +7592,14 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
-      <c r="AC83" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AF83" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -7316,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -7325,7 +7629,7 @@
         <v>250</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N84" s="3">
         <v>1</v>
@@ -7343,22 +7647,31 @@
         <v>100</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T84" s="3">
         <v>0</v>
       </c>
       <c r="U84" s="3">
-        <v>10</v>
-      </c>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="AC84" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AF84" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -7374,7 +7687,7 @@
         <v>22765852</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -7383,16 +7696,16 @@
         <v>125</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
       </c>
       <c r="L85" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N85" s="3">
         <v>1</v>
@@ -7410,7 +7723,7 @@
         <v>50</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T85" s="3">
         <v>1</v>
@@ -7421,11 +7734,14 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-      <c r="AC85" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AF85" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -7441,7 +7757,7 @@
         <v>23995509</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -7450,16 +7766,16 @@
         <v>125</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
       </c>
       <c r="L86" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N86" s="3">
         <v>1</v>
@@ -7477,7 +7793,7 @@
         <v>50</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T86" s="3">
         <v>1</v>
@@ -7488,11 +7804,14 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-      <c r="AC86" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AF86" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -7519,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -7528,7 +7847,7 @@
         <v>310</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N87" s="3">
         <v>1</v>
@@ -7546,22 +7865,31 @@
         <v>125</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T87" s="3">
         <v>0</v>
       </c>
       <c r="U87" s="3">
-        <v>10</v>
-      </c>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="AC87" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AF87" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -7577,7 +7905,7 @@
         <v>26496736</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -7586,16 +7914,16 @@
         <v>125</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
       </c>
       <c r="L88" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N88" s="3">
         <v>1</v>
@@ -7613,7 +7941,7 @@
         <v>50</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T88" s="3">
         <v>1</v>
@@ -7624,11 +7952,14 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-      <c r="AC88" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AF88" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -7644,7 +7975,7 @@
         <v>26535434</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -7653,16 +7984,16 @@
         <v>125</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N89" s="3">
         <v>1</v>
@@ -7680,7 +8011,7 @@
         <v>50</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T89" s="3">
         <v>1</v>
@@ -7691,11 +8022,14 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-      <c r="AC89" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AF89" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -7716,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
@@ -7725,7 +8059,7 @@
         <v>250</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N90" s="3">
         <v>1</v>
@@ -7743,22 +8077,31 @@
         <v>100</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T90" s="3">
         <v>0</v>
       </c>
       <c r="U90" s="3">
-        <v>10</v>
-      </c>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="AC90" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0</v>
+      </c>
+      <c r="X90" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AF90" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -7774,7 +8117,7 @@
         <v>26599815</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -7783,16 +8126,16 @@
         <v>135</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N91" s="3">
         <v>1</v>
@@ -7810,7 +8153,7 @@
         <v>55</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T91" s="3">
         <v>1</v>
@@ -7821,11 +8164,14 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-      <c r="AC91" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AF91" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -7841,7 +8187,7 @@
         <v>26664236</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -7850,16 +8196,16 @@
         <v>135</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K92" s="3">
         <v>0</v>
       </c>
       <c r="L92" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N92" s="3">
         <v>1</v>
@@ -7877,7 +8223,7 @@
         <v>55</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T92" s="3">
         <v>1</v>
@@ -7888,11 +8234,14 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-      <c r="AC92" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AF92" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -7919,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K93" s="3">
         <v>0</v>
@@ -7928,7 +8277,7 @@
         <v>325</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N93" s="3">
         <v>1</v>
@@ -7946,22 +8295,31 @@
         <v>130</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T93" s="3">
         <v>0</v>
       </c>
       <c r="U93" s="3">
-        <v>10</v>
-      </c>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-      <c r="AC93" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AF93" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -7977,7 +8335,7 @@
         <v>31624603</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -7986,16 +8344,16 @@
         <v>135</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N94" s="3">
         <v>1</v>
@@ -8013,7 +8371,7 @@
         <v>55</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T94" s="3">
         <v>1</v>
@@ -8024,11 +8382,14 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="AC94" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AF94" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -8044,7 +8405,7 @@
         <v>31654560</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -8053,16 +8414,16 @@
         <v>135</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K95" s="3">
         <v>0</v>
       </c>
       <c r="L95" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N95" s="3">
         <v>1</v>
@@ -8080,7 +8441,7 @@
         <v>55</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T95" s="3">
         <v>1</v>
@@ -8091,11 +8452,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-      <c r="AC95" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AF95" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -8116,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -8125,7 +8489,7 @@
         <v>275</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N96" s="3">
         <v>1</v>
@@ -8143,22 +8507,31 @@
         <v>110</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>10</v>
-      </c>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="AC96" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AF96" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -8174,7 +8547,7 @@
         <v>38499654</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -8183,16 +8556,16 @@
         <v>135</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K97" s="3">
         <v>0</v>
       </c>
       <c r="L97" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N97" s="3">
         <v>1</v>
@@ -8210,7 +8583,7 @@
         <v>55</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T97" s="3">
         <v>1</v>
@@ -8221,11 +8594,14 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-      <c r="AC97" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AF97" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -8241,7 +8617,7 @@
         <v>38547396</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -8250,16 +8626,16 @@
         <v>135</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K98" s="3">
         <v>0</v>
       </c>
       <c r="L98" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N98" s="3">
         <v>1</v>
@@ -8277,7 +8653,7 @@
         <v>55</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T98" s="3">
         <v>1</v>
@@ -8288,11 +8664,14 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-      <c r="AC98" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AF98" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -8319,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
@@ -8328,7 +8707,7 @@
         <v>325</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N99" s="3">
         <v>1</v>
@@ -8346,22 +8725,31 @@
         <v>130</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T99" s="3">
         <v>0</v>
       </c>
       <c r="U99" s="3">
-        <v>10</v>
-      </c>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="AC99" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AF99" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -8377,7 +8765,7 @@
         <v>38690272</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -8386,16 +8774,16 @@
         <v>135</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N100" s="3">
         <v>1</v>
@@ -8413,7 +8801,7 @@
         <v>55</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T100" s="3">
         <v>1</v>
@@ -8424,11 +8812,14 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
-      <c r="AC100" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AF100" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -8444,7 +8835,7 @@
         <v>38737923</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -8453,16 +8844,16 @@
         <v>135</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N101" s="3">
         <v>1</v>
@@ -8480,7 +8871,7 @@
         <v>55</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T101" s="3">
         <v>1</v>
@@ -8491,11 +8882,14 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
-      <c r="AC101" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AF101" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -8516,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -8525,7 +8919,7 @@
         <v>275</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N102" s="3">
         <v>1</v>
@@ -8543,22 +8937,31 @@
         <v>110</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>10</v>
-      </c>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="AC102" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AF102" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -8574,7 +8977,7 @@
         <v>40328854</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -8583,16 +8986,16 @@
         <v>150</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="K103" s="3">
         <v>0</v>
       </c>
       <c r="L103" s="3">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N103" s="3">
         <v>1</v>
@@ -8610,7 +9013,7 @@
         <v>60</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T103" s="3">
         <v>1</v>
@@ -8621,11 +9024,14 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
-      <c r="AC103" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AF103" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -8641,7 +9047,7 @@
         <v>40565046</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -8650,16 +9056,16 @@
         <v>150</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K104" s="3">
         <v>0</v>
       </c>
       <c r="L104" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N104" s="3">
         <v>1</v>
@@ -8677,7 +9083,7 @@
         <v>60</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T104" s="3">
         <v>1</v>
@@ -8688,11 +9094,14 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
-      <c r="AC104" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AF104" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -8719,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K105" s="3">
         <v>0</v>
@@ -8728,7 +9137,7 @@
         <v>350</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N105" s="3">
         <v>1</v>
@@ -8746,22 +9155,31 @@
         <v>140</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T105" s="3">
         <v>0</v>
       </c>
       <c r="U105" s="3">
-        <v>10</v>
-      </c>
-      <c r="V105" s="3"/>
-      <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-      <c r="AC105" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W105" s="3">
+        <v>0</v>
+      </c>
+      <c r="X105" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AF105" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -8777,7 +9195,7 @@
         <v>40937542</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -8786,16 +9204,16 @@
         <v>150</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K106" s="3">
         <v>0</v>
       </c>
       <c r="L106" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N106" s="3">
         <v>1</v>
@@ -8813,7 +9231,7 @@
         <v>60</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T106" s="3">
         <v>1</v>
@@ -8824,11 +9242,14 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
-      <c r="AC106" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AF106" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -8844,7 +9265,7 @@
         <v>41079214</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -8853,16 +9274,16 @@
         <v>150</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
       </c>
       <c r="L107" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N107" s="3">
         <v>1</v>
@@ -8880,7 +9301,7 @@
         <v>60</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T107" s="3">
         <v>1</v>
@@ -8891,11 +9312,14 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
-      <c r="AC107" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AF107" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -8907,7 +9331,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -8916,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
@@ -8925,7 +9349,7 @@
         <v>300</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N108" s="3">
         <v>1</v>
@@ -8943,22 +9367,31 @@
         <v>120</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T108" s="3">
         <v>0</v>
       </c>
       <c r="U108" s="3">
-        <v>10</v>
-      </c>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="AC108" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W108" s="3">
+        <v>0</v>
+      </c>
+      <c r="X108" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AF108" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -8974,7 +9407,7 @@
         <v>48200137</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -8983,16 +9416,16 @@
         <v>150</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K109" s="3">
         <v>0</v>
       </c>
       <c r="L109" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N109" s="3">
         <v>1</v>
@@ -9010,7 +9443,7 @@
         <v>60</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T109" s="3">
         <v>1</v>
@@ -9021,11 +9454,14 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
-      <c r="AC109" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AF109" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -9041,7 +9477,7 @@
         <v>48298910</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -9050,16 +9486,16 @@
         <v>150</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K110" s="3">
         <v>0</v>
       </c>
       <c r="L110" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N110" s="3">
         <v>1</v>
@@ -9077,7 +9513,7 @@
         <v>60</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T110" s="3">
         <v>1</v>
@@ -9088,11 +9524,14 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
-      <c r="AC110" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AF110" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -9110,7 +9549,7 @@
         <v>57388220</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -9119,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
@@ -9128,7 +9567,7 @@
         <v>375</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N111" s="3">
         <v>1</v>
@@ -9146,22 +9585,31 @@
         <v>150</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T111" s="3">
         <v>0</v>
       </c>
       <c r="U111" s="3">
-        <v>10</v>
-      </c>
-      <c r="V111" s="3"/>
-      <c r="W111" s="3"/>
-      <c r="X111" s="3"/>
-      <c r="AC111" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W111" s="3">
+        <v>0</v>
+      </c>
+      <c r="X111" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AF111" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -9177,7 +9625,7 @@
         <v>57434080</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -9186,16 +9634,16 @@
         <v>150</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K112" s="3">
         <v>0</v>
       </c>
       <c r="L112" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N112" s="3">
         <v>1</v>
@@ -9213,7 +9661,7 @@
         <v>60</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T112" s="3">
         <v>1</v>
@@ -9224,11 +9672,14 @@
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
-      <c r="AC112" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AF112" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -9244,7 +9695,7 @@
         <v>57503264</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -9253,16 +9704,16 @@
         <v>150</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K113" s="3">
         <v>0</v>
       </c>
       <c r="L113" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N113" s="3">
         <v>1</v>
@@ -9280,7 +9731,7 @@
         <v>60</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T113" s="3">
         <v>1</v>
@@ -9291,11 +9742,14 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
-      <c r="AC113" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AF113" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -9307,7 +9761,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -9316,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K114" s="3">
         <v>0</v>
@@ -9325,7 +9779,7 @@
         <v>300</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N114" s="3">
         <v>1</v>
@@ -9343,22 +9797,31 @@
         <v>120</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T114" s="3">
         <v>0</v>
       </c>
       <c r="U114" s="3">
-        <v>10</v>
-      </c>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="AC114" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W114" s="3">
+        <v>0</v>
+      </c>
+      <c r="X114" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AF114" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -9374,7 +9837,7 @@
         <v>64137706</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -9383,16 +9846,16 @@
         <v>150</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K115" s="3">
         <v>0</v>
       </c>
       <c r="L115" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N115" s="3">
         <v>1</v>
@@ -9410,7 +9873,7 @@
         <v>60</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T115" s="3">
         <v>1</v>
@@ -9421,11 +9884,14 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
-      <c r="AC115" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AF115" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -9441,7 +9907,7 @@
         <v>64328720</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -9450,16 +9916,16 @@
         <v>150</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K116" s="3">
         <v>0</v>
       </c>
       <c r="L116" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N116" s="3">
         <v>1</v>
@@ -9477,7 +9943,7 @@
         <v>60</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T116" s="3">
         <v>1</v>
@@ -9488,11 +9954,14 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
-      <c r="AC116" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AF116" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -9510,7 +9979,7 @@
         <v>64835719</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -9519,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K117" s="3">
         <v>0</v>
@@ -9528,7 +9997,7 @@
         <v>375</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N117" s="3">
         <v>1</v>
@@ -9546,22 +10015,31 @@
         <v>150</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T117" s="3">
         <v>0</v>
       </c>
       <c r="U117" s="3">
-        <v>10</v>
-      </c>
-      <c r="V117" s="3"/>
-      <c r="W117" s="3"/>
-      <c r="X117" s="3"/>
-      <c r="AC117" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="V117" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W117" s="3">
+        <v>0</v>
+      </c>
+      <c r="X117" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AF117" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -9577,7 +10055,7 @@
         <v>64952096</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -9586,16 +10064,16 @@
         <v>150</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K118" s="3">
         <v>0</v>
       </c>
       <c r="L118" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N118" s="3">
         <v>1</v>
@@ -9613,7 +10091,7 @@
         <v>60</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T118" s="3">
         <v>1</v>
@@ -9624,11 +10102,14 @@
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
-      <c r="AC118" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AF118" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -9644,7 +10125,7 @@
         <v>65029697</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -9653,16 +10134,16 @@
         <v>150</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K119" s="3">
         <v>0</v>
       </c>
       <c r="L119" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N119" s="3">
         <v>1</v>
@@ -9680,7 +10161,7 @@
         <v>60</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T119" s="3">
         <v>1</v>
@@ -9691,11 +10172,14 @@
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
-      <c r="AC119" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AF119" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -9707,7 +10191,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -9716,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K120" s="3">
         <v>0</v>
@@ -9725,7 +10209,7 @@
         <v>300</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N120" s="3">
         <v>1</v>
@@ -9743,22 +10227,31 @@
         <v>120</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T120" s="3">
         <v>0</v>
       </c>
       <c r="U120" s="3">
-        <v>10</v>
-      </c>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="AC120" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="V120" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W120" s="3">
+        <v>0</v>
+      </c>
+      <c r="X120" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AF120" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -9774,7 +10267,7 @@
         <v>72228603</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -9783,16 +10276,16 @@
         <v>160</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K121" s="3">
         <v>0</v>
       </c>
       <c r="L121" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N121" s="3">
         <v>1</v>
@@ -9810,7 +10303,7 @@
         <v>65</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T121" s="3">
         <v>1</v>
@@ -9821,11 +10314,14 @@
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
-      <c r="AC121" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AF121" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -9841,7 +10337,7 @@
         <v>73372777</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -9850,16 +10346,16 @@
         <v>160</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K122" s="3">
         <v>0</v>
       </c>
       <c r="L122" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N122" s="3">
         <v>1</v>
@@ -9877,7 +10373,7 @@
         <v>65</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T122" s="3">
         <v>1</v>
@@ -9888,11 +10384,14 @@
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
-      <c r="AC122" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AF122" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -9910,7 +10409,7 @@
         <v>75019457</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -9919,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K123" s="3">
         <v>0</v>
@@ -9928,7 +10427,7 @@
         <v>400</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N123" s="3">
         <v>1</v>
@@ -9946,22 +10445,31 @@
         <v>160</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T123" s="3">
         <v>0</v>
       </c>
       <c r="U123" s="3">
-        <v>10</v>
-      </c>
-      <c r="V123" s="3"/>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
-      <c r="AC123" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V123" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W123" s="3">
+        <v>0</v>
+      </c>
+      <c r="X123" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AF123" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -9977,7 +10485,7 @@
         <v>75073262</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -9986,16 +10494,16 @@
         <v>160</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K124" s="3">
         <v>0</v>
       </c>
       <c r="L124" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N124" s="3">
         <v>1</v>
@@ -10013,7 +10521,7 @@
         <v>65</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T124" s="3">
         <v>1</v>
@@ -10024,11 +10532,14 @@
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
-      <c r="AC124" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AF124" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -10044,7 +10555,7 @@
         <v>75154070</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -10053,16 +10564,16 @@
         <v>160</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K125" s="3">
         <v>0</v>
       </c>
       <c r="L125" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N125" s="3">
         <v>1</v>
@@ -10080,7 +10591,7 @@
         <v>65</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T125" s="3">
         <v>1</v>
@@ -10091,11 +10602,14 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
-      <c r="AC125" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AF125" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -10107,7 +10621,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -10116,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K126" s="3">
         <v>0</v>
@@ -10125,7 +10639,7 @@
         <v>325</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N126" s="3">
         <v>1</v>
@@ -10143,22 +10657,31 @@
         <v>130</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T126" s="3">
         <v>0</v>
       </c>
       <c r="U126" s="3">
-        <v>10</v>
-      </c>
-      <c r="V126" s="3"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="AC126" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W126" s="3">
+        <v>0</v>
+      </c>
+      <c r="X126" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AF126" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -10174,7 +10697,7 @@
         <v>79589750</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -10183,16 +10706,16 @@
         <v>160</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K127" s="3">
         <v>0</v>
       </c>
       <c r="L127" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N127" s="3">
         <v>1</v>
@@ -10210,7 +10733,7 @@
         <v>65</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T127" s="3">
         <v>1</v>
@@ -10221,11 +10744,14 @@
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
-      <c r="AC127" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+      <c r="AF127" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -10241,7 +10767,7 @@
         <v>80596471</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
@@ -10250,16 +10776,16 @@
         <v>160</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K128" s="3">
         <v>0</v>
       </c>
       <c r="L128" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N128" s="3">
         <v>1</v>
@@ -10277,7 +10803,7 @@
         <v>65</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T128" s="3">
         <v>1</v>
@@ -10288,11 +10814,14 @@
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
-      <c r="AC128" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
+      <c r="AF128" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -10310,7 +10839,7 @@
         <v>82150378</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -10319,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K129" s="3">
         <v>0</v>
@@ -10328,7 +10857,7 @@
         <v>400</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N129" s="3">
         <v>1</v>
@@ -10346,22 +10875,31 @@
         <v>160</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T129" s="3">
         <v>0</v>
       </c>
       <c r="U129" s="3">
-        <v>10</v>
-      </c>
-      <c r="V129" s="3"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-      <c r="AC129" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W129" s="3">
+        <v>0</v>
+      </c>
+      <c r="X129" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
+      <c r="AF129" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -10377,7 +10915,7 @@
         <v>82206524</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -10386,16 +10924,16 @@
         <v>160</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K130" s="3">
         <v>0</v>
       </c>
       <c r="L130" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N130" s="3">
         <v>1</v>
@@ -10413,7 +10951,7 @@
         <v>65</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T130" s="3">
         <v>1</v>
@@ -10424,11 +10962,14 @@
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
-      <c r="AC130" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
+      <c r="AF130" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -10444,7 +10985,7 @@
         <v>82290667</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -10453,16 +10994,16 @@
         <v>160</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="K131" s="3">
         <v>0</v>
       </c>
       <c r="L131" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N131" s="3">
         <v>1</v>
@@ -10480,7 +11021,7 @@
         <v>65</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T131" s="3">
         <v>1</v>
@@ -10491,11 +11032,14 @@
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
-      <c r="AC131" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AF131" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -10507,7 +11051,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -10516,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K132" s="3">
         <v>0</v>
@@ -10525,7 +11069,7 @@
         <v>325</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N132" s="3">
         <v>1</v>
@@ -10543,22 +11087,37 @@
         <v>130</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T132" s="3">
         <v>0</v>
       </c>
       <c r="U132" s="3">
-        <v>10</v>
-      </c>
-      <c r="V132" s="3"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="AC132" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W132" s="3">
+        <v>0</v>
+      </c>
+      <c r="X132" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y132" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -10574,7 +11133,7 @@
         <v>87636681</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -10583,16 +11142,16 @@
         <v>175</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K133" s="3">
         <v>0</v>
       </c>
       <c r="L133" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N133" s="3">
         <v>1</v>
@@ -10610,7 +11169,7 @@
         <v>70</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T133" s="3">
         <v>1</v>
@@ -10621,11 +11180,14 @@
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
-      <c r="AC133" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AF133" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -10641,7 +11203,7 @@
         <v>88611996</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -10650,16 +11212,16 @@
         <v>175</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="K134" s="3">
         <v>0</v>
       </c>
       <c r="L134" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N134" s="3">
         <v>1</v>
@@ -10677,7 +11239,7 @@
         <v>70</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T134" s="3">
         <v>1</v>
@@ -10688,11 +11250,14 @@
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
-      <c r="AC134" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AF134" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -10710,7 +11275,7 @@
         <v>89671800</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -10719,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K135" s="3">
         <v>0</v>
@@ -10728,7 +11293,7 @@
         <v>435</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N135" s="3">
         <v>1</v>
@@ -10746,22 +11311,37 @@
         <v>175</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T135" s="3">
         <v>0</v>
       </c>
       <c r="U135" s="3">
-        <v>10</v>
-      </c>
-      <c r="V135" s="3"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="AC135" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W135" s="3">
+        <v>0</v>
+      </c>
+      <c r="X135" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y135" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF135" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -10777,7 +11357,7 @@
         <v>90191115</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -10786,16 +11366,16 @@
         <v>175</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K136" s="3">
         <v>0</v>
       </c>
       <c r="L136" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N136" s="3">
         <v>1</v>
@@ -10813,7 +11393,7 @@
         <v>70</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T136" s="3">
         <v>1</v>
@@ -10824,11 +11404,14 @@
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
-      <c r="AC136" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
+      <c r="AF136" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -10844,7 +11427,7 @@
         <v>90552510</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -10853,16 +11436,16 @@
         <v>175</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
       </c>
       <c r="L137" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N137" s="3">
         <v>1</v>
@@ -10880,7 +11463,7 @@
         <v>70</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T137" s="3">
         <v>1</v>
@@ -10891,11 +11474,14 @@
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
-      <c r="AC137" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+      <c r="AF137" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -10907,7 +11493,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -10916,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K138" s="3">
         <v>0</v>
@@ -10925,7 +11511,7 @@
         <v>375</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N138" s="3">
         <v>1</v>
@@ -10943,22 +11529,37 @@
         <v>150</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T138" s="3">
         <v>0</v>
       </c>
       <c r="U138" s="3">
-        <v>10</v>
-      </c>
-      <c r="V138" s="3"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="AC138" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W138" s="3">
+        <v>0</v>
+      </c>
+      <c r="X138" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y138" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z138" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF138" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -10974,7 +11575,7 @@
         <v>100328797</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -10983,16 +11584,16 @@
         <v>185</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K139" s="3">
         <v>0</v>
       </c>
       <c r="L139" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N139" s="3">
         <v>1</v>
@@ -11010,7 +11611,7 @@
         <v>75</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T139" s="3">
         <v>1</v>
@@ -11021,11 +11622,14 @@
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
-      <c r="AC139" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AF139" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -11041,7 +11645,7 @@
         <v>100427144</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -11050,16 +11654,16 @@
         <v>185</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="K140" s="3">
         <v>0</v>
       </c>
       <c r="L140" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N140" s="3">
         <v>1</v>
@@ -11077,7 +11681,7 @@
         <v>75</v>
       </c>
       <c r="S140" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T140" s="3">
         <v>1</v>
@@ -11088,11 +11692,14 @@
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
-      <c r="AC140" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+      <c r="AF140" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -11110,7 +11717,7 @@
         <v>100656605</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -11119,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K141" s="3">
         <v>0</v>
@@ -11128,7 +11735,7 @@
         <v>500</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N141" s="3">
         <v>1</v>
@@ -11146,28 +11753,43 @@
         <v>200</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T141" s="3">
         <v>0</v>
       </c>
       <c r="U141" s="3">
-        <v>10</v>
-      </c>
-      <c r="V141" s="3"/>
-      <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
-      <c r="AC141" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W141" s="3">
+        <v>0</v>
+      </c>
+      <c r="X141" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y141" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z141" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="P144" s="1"/>
     </row>
   </sheetData>
@@ -11182,7 +11804,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11197,22 +11819,22 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11220,19 +11842,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -11243,22 +11865,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -11269,16 +11891,16 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
@@ -11292,16 +11914,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>70</v>
@@ -11315,16 +11937,16 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G6" s="3">
         <v>100</v>
@@ -11344,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
@@ -11367,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="3">
         <v>50</v>
@@ -11390,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
@@ -11413,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
@@ -11436,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="3">
         <v>50</v>
@@ -11459,7 +12081,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="3">
         <v>50</v>
@@ -11482,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="3">
         <v>75</v>
@@ -11505,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="3">
         <v>75</v>
@@ -11528,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -11551,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="3">
         <v>100</v>
@@ -11574,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -11597,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -11620,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="3">
         <v>100</v>
@@ -11643,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -11666,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3">
         <v>150</v>
@@ -11689,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="3">
         <v>150</v>
@@ -11712,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="3">
         <v>600</v>
@@ -11735,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -11758,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="3">
         <v>300</v>
@@ -11781,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
@@ -11804,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3">
         <v>300</v>
@@ -11827,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3">
         <v>300</v>
@@ -11850,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="3">
         <v>450</v>
@@ -11873,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="3">
         <v>450</v>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480135F7-428B-4064-B4ED-C456CB685654}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A8FBD-AF7B-4488-A845-58AAB58C4357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1731,10 +1731,10 @@
   <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A8FBD-AF7B-4488-A845-58AAB58C4357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37390D10-F2EF-4870-8435-7877A5E6B815}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1730,11 +1730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A6AE-C641-48B5-AE4D-CE70B2979CBD}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2026,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="3">
-        <v>6870</v>
+        <v>8244</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>61</v>
@@ -2096,7 +2096,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="3">
-        <v>16631</v>
+        <v>19957</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>55</v>
@@ -2232,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="3">
-        <v>26903</v>
+        <v>32283</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>57</v>
@@ -2302,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="3">
-        <v>41298</v>
+        <v>49557</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -2374,7 +2374,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="3">
-        <v>46128</v>
+        <v>55353</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2444,7 +2444,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>76883</v>
+        <v>92259</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>51</v>
@@ -2514,7 +2514,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="3">
-        <v>81638</v>
+        <v>97965</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
@@ -2650,7 +2650,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="3">
-        <v>170926</v>
+        <v>205111</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>94</v>
@@ -2720,7 +2720,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3">
-        <v>203365</v>
+        <v>244038</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>94</v>
@@ -2792,7 +2792,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>300403</v>
+        <v>370083</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>69</v>
@@ -2862,7 +2862,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <v>333427</v>
+        <v>419312</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>94</v>
@@ -2932,7 +2932,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="3">
-        <v>366761</v>
+        <v>459313</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>94</v>
@@ -3068,7 +3068,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>475329</v>
+        <v>589594</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>94</v>
@@ -3138,7 +3138,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>625682</v>
+        <v>788018</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>94</v>
@@ -3210,7 +3210,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>659732</v>
+        <v>828878</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>71</v>
@@ -3280,7 +3280,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="3">
-        <v>663592</v>
+        <v>833510</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>94</v>
@@ -3350,7 +3350,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>850920</v>
+        <v>1118304</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>94</v>
@@ -3486,7 +3486,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>974262</v>
+        <v>1266314</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>94</v>
@@ -3556,7 +3556,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="3">
-        <v>539028</v>
+        <v>1267519</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>94</v>
@@ -3628,7 +3628,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="3">
-        <v>1116747</v>
+        <v>1437296</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>65</v>
@@ -3698,7 +3698,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>1178228</v>
+        <v>1511073</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>94</v>
@@ -3768,7 +3768,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="3">
-        <v>1196354</v>
+        <v>1532824</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>94</v>
@@ -3904,7 +3904,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="3">
-        <v>1415025</v>
+        <v>1874430</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>94</v>
@@ -3974,7 +3974,7 @@
         <v>60</v>
       </c>
       <c r="F32" s="3">
-        <v>1433567</v>
+        <v>1896680</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>94</v>
@@ -4046,7 +4046,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="3">
-        <v>1461790</v>
+        <v>1930548</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>77</v>
@@ -4116,7 +4116,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>1744508</v>
+        <v>2287809</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>94</v>
@@ -4186,7 +4186,7 @@
         <v>60</v>
       </c>
       <c r="F35" s="3">
-        <v>1764511</v>
+        <v>2311813</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>94</v>
@@ -4322,7 +4322,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="3">
-        <v>2201284</v>
+        <v>2948740</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>94</v>
@@ -4392,7 +4392,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="3">
-        <v>2257365</v>
+        <v>3016038</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>94</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="F39" s="3">
-        <v>2323402</v>
+        <v>3095282</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>79</v>
@@ -4534,7 +4534,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="3">
-        <v>2345825</v>
+        <v>3122190</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>94</v>
@@ -4604,7 +4604,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="3">
-        <v>2379484</v>
+        <v>3162580</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>94</v>
@@ -4740,7 +4740,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="3">
-        <v>3125751</v>
+        <v>4175701</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>94</v>
@@ -4810,7 +4810,7 @@
         <v>60</v>
       </c>
       <c r="F44" s="3">
-        <v>3211415</v>
+        <v>4278498</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>94</v>
@@ -4882,7 +4882,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="3">
-        <v>3848774</v>
+        <v>5099608</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>81</v>
@@ -4952,7 +4952,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="3">
-        <v>3856714</v>
+        <v>5109136</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>94</v>
@@ -5022,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="3">
-        <v>3868610</v>
+        <v>5123412</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>94</v>
@@ -5158,7 +5158,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="3">
-        <v>4545749</v>
+        <v>6014290</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>94</v>
@@ -5228,7 +5228,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="3">
-        <v>4555013</v>
+        <v>6025407</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>94</v>
@@ -5300,7 +5300,7 @@
         <v>60</v>
       </c>
       <c r="F51" s="3">
-        <v>5731760</v>
+        <v>7491072</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>83</v>
@@ -5370,7 +5370,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="3">
-        <v>5741897</v>
+        <v>7503236</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>94</v>
@@ -5440,7 +5440,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="3">
-        <v>5756967</v>
+        <v>7521320</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>94</v>
@@ -5576,7 +5576,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="3">
-        <v>6543652</v>
+        <v>8562446</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>94</v>
@@ -5646,7 +5646,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="3">
-        <v>6553760</v>
+        <v>8574576</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>94</v>
@@ -5718,7 +5718,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="3">
-        <v>7180317</v>
+        <v>9364076</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>85</v>
@@ -5788,7 +5788,7 @@
         <v>60</v>
       </c>
       <c r="F58" s="3">
-        <v>7195913</v>
+        <v>9382791</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>94</v>
@@ -5858,7 +5858,7 @@
         <v>60</v>
       </c>
       <c r="F59" s="3">
-        <v>7206355</v>
+        <v>9395322</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>94</v>
@@ -5994,7 +5994,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="3">
-        <v>7489694</v>
+        <v>9819184</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>94</v>
@@ -6064,7 +6064,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="3">
-        <v>7505300</v>
+        <v>9837912</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>94</v>
@@ -6136,7 +6136,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="3">
-        <v>8116270</v>
+        <v>10608708</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>87</v>
@@ -6206,7 +6206,7 @@
         <v>60</v>
       </c>
       <c r="F64" s="3">
-        <v>8127549</v>
+        <v>10622242</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>94</v>
@@ -6276,7 +6276,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="3">
-        <v>8144433</v>
+        <v>10642503</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>94</v>
@@ -6412,7 +6412,7 @@
         <v>60</v>
       </c>
       <c r="F67" s="3">
-        <v>9052945</v>
+        <v>11770350</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>94</v>
@@ -6482,7 +6482,7 @@
         <v>60</v>
       </c>
       <c r="F68" s="3">
-        <v>9084558</v>
+        <v>11808285</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>94</v>
@@ -6554,7 +6554,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="3">
-        <v>10170803</v>
+        <v>13243683</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>89</v>
@@ -6624,7 +6624,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="3">
-        <v>10205810</v>
+        <v>13285692</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>94</v>
@@ -6694,7 +6694,7 @@
         <v>60</v>
       </c>
       <c r="F71" s="3">
-        <v>11021655</v>
+        <v>14340930</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>94</v>
@@ -6830,7 +6830,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="3">
-        <v>11453017</v>
+        <v>15010052</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>94</v>
@@ -6900,7 +6900,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="3">
-        <v>11491264</v>
+        <v>15055948</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>94</v>
@@ -6972,7 +6972,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="3">
-        <v>13986611</v>
+        <v>18332173</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>91</v>
@@ -7042,7 +7042,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="3">
-        <v>14011431</v>
+        <v>18361957</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>94</v>
@@ -7112,7 +7112,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="3">
-        <v>14027931</v>
+        <v>18381757</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>94</v>
@@ -7254,7 +7254,7 @@
         <v>60</v>
       </c>
       <c r="F79" s="3">
-        <v>16196691</v>
+        <v>21178333</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>94</v>
@@ -7324,7 +7324,7 @@
         <v>60</v>
       </c>
       <c r="F80" s="3">
-        <v>16223479</v>
+        <v>21210478</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>94</v>
@@ -7396,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="3">
-        <v>20015825</v>
+        <v>26082414</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>93</v>
@@ -7472,7 +7472,7 @@
         <v>60</v>
       </c>
       <c r="F82" s="3">
-        <v>20066733</v>
+        <v>26143503</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>94</v>
@@ -7542,7 +7542,7 @@
         <v>60</v>
       </c>
       <c r="F83" s="3">
-        <v>22020415</v>
+        <v>28685298</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>94</v>
@@ -7684,7 +7684,7 @@
         <v>60</v>
       </c>
       <c r="F85" s="3">
-        <v>22765852</v>
+        <v>29715614</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>137</v>
@@ -7754,7 +7754,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="3">
-        <v>23995509</v>
+        <v>31332994</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>137</v>
@@ -7826,7 +7826,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="3">
-        <v>26470983</v>
+        <v>34415355</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>87</v>
@@ -7902,7 +7902,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="3">
-        <v>26496736</v>
+        <v>34446259</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>137</v>
@@ -7972,7 +7972,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="3">
-        <v>26535434</v>
+        <v>34492696</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>137</v>
@@ -8114,7 +8114,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="3">
-        <v>26599815</v>
+        <v>34569954</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>137</v>
@@ -8184,7 +8184,7 @@
         <v>60</v>
       </c>
       <c r="F92" s="3">
-        <v>26664236</v>
+        <v>34647259</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>137</v>
@@ -8256,7 +8256,7 @@
         <v>60</v>
       </c>
       <c r="F93" s="3">
-        <v>31579515</v>
+        <v>40808778</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>89</v>
@@ -8332,7 +8332,7 @@
         <v>60</v>
       </c>
       <c r="F94" s="3">
-        <v>31624603</v>
+        <v>40862883</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>137</v>
@@ -8402,7 +8402,7 @@
         <v>60</v>
       </c>
       <c r="F95" s="3">
-        <v>31654560</v>
+        <v>40898832</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>137</v>
@@ -8544,7 +8544,7 @@
         <v>60</v>
       </c>
       <c r="F97" s="3">
-        <v>38499654</v>
+        <v>49660708</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>137</v>
@@ -8614,7 +8614,7 @@
         <v>60</v>
       </c>
       <c r="F98" s="3">
-        <v>38547396</v>
+        <v>49717999</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>137</v>
@@ -8686,7 +8686,7 @@
         <v>60</v>
       </c>
       <c r="F99" s="3">
-        <v>38658483</v>
+        <v>49851303</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>91</v>
@@ -8762,7 +8762,7 @@
         <v>60</v>
       </c>
       <c r="F100" s="3">
-        <v>38690272</v>
+        <v>49889450</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>137</v>
@@ -8832,7 +8832,7 @@
         <v>60</v>
       </c>
       <c r="F101" s="3">
-        <v>38737923</v>
+        <v>49946631</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>137</v>
@@ -8974,7 +8974,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="3">
-        <v>40328854</v>
+        <v>52018252</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>137</v>
@@ -9044,7 +9044,7 @@
         <v>60</v>
       </c>
       <c r="F104" s="3">
-        <v>40565046</v>
+        <v>52301683</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>137</v>
@@ -9116,7 +9116,7 @@
         <v>60</v>
       </c>
       <c r="F105" s="3">
-        <v>40843081</v>
+        <v>52635325</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>93</v>
@@ -9192,7 +9192,7 @@
         <v>60</v>
       </c>
       <c r="F106" s="3">
-        <v>40937542</v>
+        <v>52748678</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>137</v>
@@ -9262,7 +9262,7 @@
         <v>60</v>
       </c>
       <c r="F107" s="3">
-        <v>41079214</v>
+        <v>52918684</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>137</v>
@@ -9404,7 +9404,7 @@
         <v>60</v>
       </c>
       <c r="F109" s="3">
-        <v>48200137</v>
+        <v>61781708</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>137</v>
@@ -9474,7 +9474,7 @@
         <v>60</v>
       </c>
       <c r="F110" s="3">
-        <v>48298910</v>
+        <v>61900236</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>137</v>
@@ -9546,7 +9546,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="3">
-        <v>57388220</v>
+        <v>72935424</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>139</v>
@@ -9622,7 +9622,7 @@
         <v>60</v>
       </c>
       <c r="F112" s="3">
-        <v>57434080</v>
+        <v>72990456</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>137</v>
@@ -9692,7 +9692,7 @@
         <v>60</v>
       </c>
       <c r="F113" s="3">
-        <v>57503264</v>
+        <v>73073476</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>137</v>
@@ -9834,7 +9834,7 @@
         <v>60</v>
       </c>
       <c r="F115" s="3">
-        <v>64137706</v>
+        <v>81238603</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>137</v>
@@ -9904,7 +9904,7 @@
         <v>60</v>
       </c>
       <c r="F116" s="3">
-        <v>64328720</v>
+        <v>81467820</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>137</v>
@@ -9976,7 +9976,7 @@
         <v>60</v>
       </c>
       <c r="F117" s="3">
-        <v>64835719</v>
+        <v>82076218</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>141</v>
@@ -10052,7 +10052,7 @@
         <v>60</v>
       </c>
       <c r="F118" s="3">
-        <v>64952096</v>
+        <v>82215871</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>137</v>
@@ -10122,7 +10122,7 @@
         <v>60</v>
       </c>
       <c r="F119" s="3">
-        <v>65029697</v>
+        <v>82308992</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>137</v>
@@ -10264,7 +10264,7 @@
         <v>60</v>
       </c>
       <c r="F121" s="3">
-        <v>72228603</v>
+        <v>91172895</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>137</v>
@@ -10334,7 +10334,7 @@
         <v>60</v>
       </c>
       <c r="F122" s="3">
-        <v>73372777</v>
+        <v>92545904</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>137</v>
@@ -10406,7 +10406,7 @@
         <v>60</v>
       </c>
       <c r="F123" s="3">
-        <v>75019457</v>
+        <v>94521920</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>143</v>
@@ -10482,7 +10482,7 @@
         <v>60</v>
       </c>
       <c r="F124" s="3">
-        <v>75073262</v>
+        <v>94586486</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>137</v>
@@ -10552,7 +10552,7 @@
         <v>60</v>
       </c>
       <c r="F125" s="3">
-        <v>75154070</v>
+        <v>94683456</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>137</v>
@@ -10694,7 +10694,7 @@
         <v>60</v>
       </c>
       <c r="F127" s="3">
-        <v>79589750</v>
+        <v>100177236</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>137</v>
@@ -10764,7 +10764,7 @@
         <v>60</v>
       </c>
       <c r="F128" s="3">
-        <v>80596471</v>
+        <v>101385301</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>137</v>
@@ -10836,7 +10836,7 @@
         <v>60</v>
       </c>
       <c r="F129" s="3">
-        <v>82150378</v>
+        <v>103249989</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>145</v>
@@ -10912,7 +10912,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="3">
-        <v>82206524</v>
+        <v>103317364</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>137</v>
@@ -10982,7 +10982,7 @@
         <v>60</v>
       </c>
       <c r="F131" s="3">
-        <v>82290667</v>
+        <v>103418336</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>137</v>
@@ -11130,7 +11130,7 @@
         <v>60</v>
       </c>
       <c r="F133" s="3">
-        <v>87636681</v>
+        <v>110001541</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>137</v>
@@ -11200,7 +11200,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="3">
-        <v>88611996</v>
+        <v>111171919</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>137</v>
@@ -11272,7 +11272,7 @@
         <v>60</v>
       </c>
       <c r="F135" s="3">
-        <v>89671800</v>
+        <v>112443684</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>147</v>
@@ -11354,7 +11354,7 @@
         <v>60</v>
       </c>
       <c r="F136" s="3">
-        <v>90191115</v>
+        <v>113066862</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>137</v>
@@ -11424,7 +11424,7 @@
         <v>60</v>
       </c>
       <c r="F137" s="3">
-        <v>90552510</v>
+        <v>113500536</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>137</v>
@@ -11572,7 +11572,7 @@
         <v>60</v>
       </c>
       <c r="F139" s="3">
-        <v>100328797</v>
+        <v>125480000</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>137</v>
@@ -11642,7 +11642,7 @@
         <v>60</v>
       </c>
       <c r="F140" s="3">
-        <v>100427144</v>
+        <v>125598016</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>137</v>
@@ -11714,7 +11714,7 @@
         <v>60</v>
       </c>
       <c r="F141" s="3">
-        <v>100656605</v>
+        <v>125873370</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>149</v>
@@ -11803,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF8874-8EA1-462F-A928-2420AC39B426}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB9A79-49A5-4632-9594-9A9661D8EEE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903BA4D-1A31-4BC6-B98C-63A407C6569B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,10 +550,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>timeLimit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1162,6 +1158,10 @@
   </si>
   <si>
     <t>5级增伤晶片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1805,7 +1805,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1847,10 +1847,10 @@
         <v>132</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
@@ -1907,13 +1907,13 @@
         <v>41</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="AF1" s="6"/>
     </row>
@@ -1928,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -2014,10 +2014,10 @@
         <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AF4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -2223,7 +2223,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -2247,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -2290,7 +2292,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AF6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2300,7 +2302,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3">
         <v>60</v>
@@ -2318,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -2361,7 +2363,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2371,7 +2373,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
@@ -2389,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -2432,7 +2434,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AF8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2444,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
         <v>60</v>
@@ -2462,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2505,7 +2507,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2515,7 +2517,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
@@ -2533,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2576,7 +2578,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AF10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2586,7 +2588,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -2604,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2647,7 +2649,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2658,7 +2660,9 @@
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
@@ -2671,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2699,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -2714,7 +2718,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AF12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2724,7 +2728,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>60</v>
@@ -2743,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2785,7 +2789,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2795,7 +2799,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>60</v>
@@ -2814,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2856,7 +2860,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AF14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2868,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>60</v>
@@ -2886,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2914,7 +2918,7 @@
         <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -2929,7 +2933,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AF15" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -2939,7 +2943,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3">
         <v>60</v>
@@ -2958,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -3000,7 +3004,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3010,7 +3014,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>60</v>
@@ -3029,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -3071,7 +3075,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AF17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3082,7 +3086,9 @@
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
@@ -3095,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -3123,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -3138,7 +3144,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AF18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3148,7 +3154,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <v>60</v>
@@ -3167,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3209,7 +3215,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3219,7 +3225,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
         <v>60</v>
@@ -3238,7 +3244,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3280,7 +3286,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AF20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3292,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3">
         <v>60</v>
@@ -3310,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -3338,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -3353,7 +3359,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AF21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3363,7 +3369,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3">
         <v>60</v>
@@ -3382,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3424,7 +3430,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AF22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3434,7 +3440,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3">
         <v>60</v>
@@ -3453,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3495,7 +3501,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AF23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3506,7 +3512,9 @@
         <v>1</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>21</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
@@ -3519,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3547,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -3562,7 +3570,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AF24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3572,7 +3580,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3">
         <v>60</v>
@@ -3591,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3633,7 +3641,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AF25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3643,7 +3651,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3">
         <v>60</v>
@@ -3662,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3704,7 +3712,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AF26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3716,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
         <v>60</v>
@@ -3734,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -3762,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -3777,7 +3785,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AF27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3787,7 +3795,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3">
         <v>60</v>
@@ -3806,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -3848,7 +3856,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AF28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3858,7 +3866,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3">
         <v>60</v>
@@ -3877,7 +3885,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -3919,7 +3927,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AF29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3930,7 +3938,9 @@
         <v>1</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>27</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
@@ -3943,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -3971,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -3986,7 +3996,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AF30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -3996,7 +4006,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3">
         <v>60</v>
@@ -4015,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -4057,7 +4067,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AF31" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4067,7 +4077,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E32" s="3">
         <v>60</v>
@@ -4086,7 +4096,7 @@
         <v>15</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -4128,7 +4138,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AF32" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4140,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3">
         <v>60</v>
@@ -4158,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -4186,7 +4196,7 @@
         <v>15</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -4201,7 +4211,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AF33" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4211,7 +4221,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3">
         <v>60</v>
@@ -4230,7 +4240,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -4272,7 +4282,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AF34" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4282,7 +4292,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E35" s="3">
         <v>60</v>
@@ -4301,7 +4311,7 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -4343,7 +4353,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AF35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4354,7 +4364,9 @@
         <v>1</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>33</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
@@ -4367,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -4395,7 +4407,7 @@
         <v>14</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
@@ -4410,7 +4422,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AF36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4420,7 +4432,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3">
         <v>60</v>
@@ -4439,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -4481,7 +4493,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AF37" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4491,7 +4503,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E38" s="3">
         <v>60</v>
@@ -4510,7 +4522,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -4552,7 +4564,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AF38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4564,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3">
         <v>60</v>
@@ -4582,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -4610,7 +4622,7 @@
         <v>17</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>
@@ -4625,7 +4637,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AF39" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4635,7 +4647,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E40" s="3">
         <v>60</v>
@@ -4654,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -4696,7 +4708,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AF40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4706,7 +4718,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E41" s="3">
         <v>60</v>
@@ -4725,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -4767,7 +4779,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AF41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4778,7 +4790,9 @@
         <v>1</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>39</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
@@ -4791,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -4819,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -4834,7 +4848,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AF42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4844,7 +4858,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3">
         <v>60</v>
@@ -4863,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -4905,7 +4919,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AF43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4915,7 +4929,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E44" s="3">
         <v>60</v>
@@ -4934,7 +4948,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -4976,7 +4990,7 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AF44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -4988,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E45" s="3">
         <v>60</v>
@@ -5006,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -5034,7 +5048,7 @@
         <v>20</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -5049,7 +5063,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AF45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5059,7 +5073,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E46" s="3">
         <v>60</v>
@@ -5078,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -5120,7 +5134,7 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AF46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5130,7 +5144,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E47" s="3">
         <v>60</v>
@@ -5149,7 +5163,7 @@
         <v>22</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -5191,7 +5205,7 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AF47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5202,7 +5216,9 @@
         <v>1</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3">
+        <v>45</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
@@ -5215,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -5243,7 +5259,7 @@
         <v>18</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -5258,7 +5274,7 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AF48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5268,7 +5284,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3">
         <v>60</v>
@@ -5287,7 +5303,7 @@
         <v>22</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -5329,7 +5345,7 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AF49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5339,7 +5355,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3">
         <v>60</v>
@@ -5358,7 +5374,7 @@
         <v>22</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -5400,7 +5416,7 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AF50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5412,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3">
         <v>60</v>
@@ -5430,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -5458,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T51" s="3">
         <v>0</v>
@@ -5473,7 +5489,7 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AF51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5483,7 +5499,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3">
         <v>60</v>
@@ -5502,7 +5518,7 @@
         <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -5544,7 +5560,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AF52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5554,7 +5570,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E53" s="3">
         <v>60</v>
@@ -5573,7 +5589,7 @@
         <v>25</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -5615,7 +5631,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AF53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5626,7 +5642,9 @@
         <v>1</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3">
+        <v>51</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
@@ -5639,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -5667,7 +5685,7 @@
         <v>20</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -5682,7 +5700,7 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AF54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5692,7 +5710,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E55" s="3">
         <v>60</v>
@@ -5711,7 +5729,7 @@
         <v>25</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -5753,7 +5771,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AF55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5763,7 +5781,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E56" s="3">
         <v>60</v>
@@ -5782,7 +5800,7 @@
         <v>25</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -5824,7 +5842,7 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AF56" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5836,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E57" s="3">
         <v>60</v>
@@ -5854,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -5882,7 +5900,7 @@
         <v>25</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -5897,7 +5915,7 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AF57" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5907,7 +5925,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3">
         <v>60</v>
@@ -5926,7 +5944,7 @@
         <v>30</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -5968,7 +5986,7 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AF58" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -5978,7 +5996,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E59" s="3">
         <v>60</v>
@@ -5997,7 +6015,7 @@
         <v>30</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -6039,7 +6057,7 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AF59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6050,7 +6068,9 @@
         <v>1</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3">
+        <v>57</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
@@ -6063,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -6091,7 +6111,7 @@
         <v>24</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -6106,7 +6126,7 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AF60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6116,7 +6136,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E61" s="3">
         <v>60</v>
@@ -6135,7 +6155,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -6177,7 +6197,7 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AF61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6187,7 +6207,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E62" s="3">
         <v>60</v>
@@ -6206,7 +6226,7 @@
         <v>30</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -6248,7 +6268,7 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AF62" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6260,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E63" s="3">
         <v>60</v>
@@ -6278,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -6306,7 +6326,7 @@
         <v>30</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T63" s="3">
         <v>0</v>
@@ -6321,7 +6341,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AF63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6331,7 +6351,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E64" s="3">
         <v>60</v>
@@ -6350,7 +6370,7 @@
         <v>35</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -6392,7 +6412,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AF64" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6402,7 +6422,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E65" s="3">
         <v>60</v>
@@ -6421,7 +6441,7 @@
         <v>35</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -6463,7 +6483,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AF65" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6474,7 +6494,9 @@
         <v>1</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>63</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
@@ -6487,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -6515,7 +6537,7 @@
         <v>28</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -6530,7 +6552,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AF66" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6540,7 +6562,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E67" s="3">
         <v>60</v>
@@ -6559,7 +6581,7 @@
         <v>35</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -6601,7 +6623,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AF67" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6611,7 +6633,7 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E68" s="3">
         <v>60</v>
@@ -6630,7 +6652,7 @@
         <v>35</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -6672,7 +6694,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AF68" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6684,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E69" s="3">
         <v>60</v>
@@ -6702,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -6730,7 +6752,7 @@
         <v>35</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T69" s="3">
         <v>0</v>
@@ -6745,7 +6767,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AF69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6755,7 +6777,7 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E70" s="3">
         <v>60</v>
@@ -6774,7 +6796,7 @@
         <v>40</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -6816,7 +6838,7 @@
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AF70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6826,7 +6848,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E71" s="3">
         <v>60</v>
@@ -6845,7 +6867,7 @@
         <v>40</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -6887,7 +6909,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AF71" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6898,7 +6920,9 @@
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>69</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
@@ -6911,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -6939,7 +6963,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -6954,7 +6978,7 @@
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AF72" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -6964,7 +6988,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
@@ -6983,7 +7007,7 @@
         <v>40</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
@@ -7025,7 +7049,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AF73" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7035,7 +7059,7 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E74" s="3">
         <v>60</v>
@@ -7054,7 +7078,7 @@
         <v>40</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
@@ -7096,7 +7120,7 @@
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AF74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7108,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E75" s="3">
         <v>60</v>
@@ -7126,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K75" s="3">
         <v>0</v>
@@ -7154,7 +7178,7 @@
         <v>40</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T75" s="3">
         <v>0</v>
@@ -7169,7 +7193,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AF75" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7179,7 +7203,7 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E76" s="3">
         <v>60</v>
@@ -7198,7 +7222,7 @@
         <v>45</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -7240,7 +7264,7 @@
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AF76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7250,7 +7274,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3">
         <v>60</v>
@@ -7269,7 +7293,7 @@
         <v>45</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
@@ -7311,7 +7335,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AF77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7322,7 +7346,9 @@
         <v>1</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>75</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
@@ -7335,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
@@ -7363,7 +7389,7 @@
         <v>36</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T78" s="3">
         <v>0</v>
@@ -7378,7 +7404,7 @@
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AF78" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7388,7 +7414,7 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E79" s="3">
         <v>60</v>
@@ -7407,7 +7433,7 @@
         <v>45</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
@@ -7449,7 +7475,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AF79" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7459,7 +7485,7 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E80" s="3">
         <v>60</v>
@@ -7478,7 +7504,7 @@
         <v>45</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
@@ -7520,7 +7546,7 @@
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AF80" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7532,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E81" s="3">
         <v>60</v>
@@ -7550,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -7578,7 +7604,7 @@
         <v>45</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -7593,7 +7619,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AF81" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7603,7 +7629,7 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -7622,7 +7648,7 @@
         <v>50</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -7664,7 +7690,7 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AF82" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7674,7 +7700,7 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E83" s="3">
         <v>60</v>
@@ -7693,7 +7719,7 @@
         <v>50</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -7735,7 +7761,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AF83" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7746,7 +7772,9 @@
         <v>1</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3">
+        <v>81</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
@@ -7759,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -7787,7 +7815,7 @@
         <v>40</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T84" s="3">
         <v>0</v>
@@ -7796,7 +7824,7 @@
         <v>26</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W84" s="3">
         <v>0</v>
@@ -7808,7 +7836,7 @@
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AF84" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7818,7 +7846,7 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E85" s="3">
         <v>60</v>
@@ -7827,7 +7855,7 @@
         <v>29951643</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -7837,7 +7865,7 @@
         <v>50</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -7879,7 +7907,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AF85" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7889,7 +7917,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3">
         <v>60</v>
@@ -7898,7 +7926,7 @@
         <v>30994506</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -7908,7 +7936,7 @@
         <v>50</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -7950,7 +7978,7 @@
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AF86" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -7962,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E87" s="3">
         <v>60</v>
@@ -7980,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -8008,7 +8036,7 @@
         <v>50</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T87" s="3">
         <v>0</v>
@@ -8023,7 +8051,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AF87" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8033,7 +8061,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E88" s="3">
         <v>60</v>
@@ -8042,7 +8070,7 @@
         <v>36518050</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -8052,7 +8080,7 @@
         <v>55</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -8094,7 +8122,7 @@
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AF88" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8104,7 +8132,7 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3">
         <v>60</v>
@@ -8113,7 +8141,7 @@
         <v>36824817</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -8123,7 +8151,7 @@
         <v>55</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -8165,7 +8193,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AF89" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8176,7 +8204,9 @@
         <v>1</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>87</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
@@ -8189,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
@@ -8217,7 +8247,7 @@
         <v>44</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T90" s="3">
         <v>0</v>
@@ -8226,7 +8256,7 @@
         <v>28</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W90" s="3">
         <v>0</v>
@@ -8238,7 +8268,7 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AF90" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8248,7 +8278,7 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E91" s="3">
         <v>60</v>
@@ -8257,7 +8287,7 @@
         <v>37480363</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -8267,7 +8297,7 @@
         <v>55</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -8309,7 +8339,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AF91" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8319,7 +8349,7 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E92" s="3">
         <v>60</v>
@@ -8328,7 +8358,7 @@
         <v>37758729</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -8338,7 +8368,7 @@
         <v>55</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K92" s="3">
         <v>0</v>
@@ -8380,7 +8410,7 @@
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AF92" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8392,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3">
         <v>60</v>
@@ -8410,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K93" s="3">
         <v>0</v>
@@ -8438,7 +8468,7 @@
         <v>55</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T93" s="3">
         <v>0</v>
@@ -8453,7 +8483,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AF93" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8463,7 +8493,7 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E94" s="3">
         <v>60</v>
@@ -8472,7 +8502,7 @@
         <v>43902657</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -8482,7 +8512,7 @@
         <v>60</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -8524,7 +8554,7 @@
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AF94" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8534,7 +8564,7 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E95" s="3">
         <v>60</v>
@@ -8543,7 +8573,7 @@
         <v>44123179</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -8553,7 +8583,7 @@
         <v>60</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K95" s="3">
         <v>0</v>
@@ -8595,7 +8625,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AF95" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8606,7 +8636,9 @@
         <v>1</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3">
+        <v>93</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
@@ -8619,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -8647,7 +8679,7 @@
         <v>48</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -8656,7 +8688,7 @@
         <v>31</v>
       </c>
       <c r="V96" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -8668,7 +8700,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AF96" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8678,7 +8710,7 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E97" s="3">
         <v>60</v>
@@ -8687,7 +8719,7 @@
         <v>53172646</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -8697,7 +8729,7 @@
         <v>60</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K97" s="3">
         <v>0</v>
@@ -8739,7 +8771,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AF97" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8749,7 +8781,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E98" s="3">
         <v>60</v>
@@ -8758,7 +8790,7 @@
         <v>53392593</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -8768,7 +8800,7 @@
         <v>60</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K98" s="3">
         <v>0</v>
@@ -8810,7 +8842,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AF98" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8822,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E99" s="3">
         <v>60</v>
@@ -8840,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
@@ -8868,7 +8900,7 @@
         <v>60</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T99" s="3">
         <v>0</v>
@@ -8883,7 +8915,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AF99" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8893,7 +8925,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E100" s="3">
         <v>60</v>
@@ -8902,7 +8934,7 @@
         <v>54528716</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -8912,7 +8944,7 @@
         <v>65</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -8954,7 +8986,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AF100" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -8964,7 +8996,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E101" s="3">
         <v>60</v>
@@ -8973,7 +9005,7 @@
         <v>54784515</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -8983,7 +9015,7 @@
         <v>65</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -9025,7 +9057,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AF101" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9036,7 +9068,9 @@
         <v>1</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3">
+        <v>99</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
@@ -9049,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -9077,7 +9111,7 @@
         <v>52</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -9086,7 +9120,7 @@
         <v>33</v>
       </c>
       <c r="V102" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -9098,7 +9132,7 @@
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
       <c r="AF102" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9108,7 +9142,7 @@
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E103" s="3">
         <v>60</v>
@@ -9117,7 +9151,7 @@
         <v>55988058</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -9127,7 +9161,7 @@
         <v>65</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K103" s="3">
         <v>0</v>
@@ -9169,7 +9203,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
       <c r="AF103" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9179,7 +9213,7 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E104" s="3">
         <v>60</v>
@@ -9188,7 +9222,7 @@
         <v>56340098</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -9198,7 +9232,7 @@
         <v>65</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K104" s="3">
         <v>0</v>
@@ -9240,7 +9274,7 @@
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
       <c r="AF104" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9252,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="3">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E105" s="3">
         <v>60</v>
@@ -9270,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K105" s="3">
         <v>0</v>
@@ -9298,7 +9332,7 @@
         <v>65</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T105" s="3">
         <v>0</v>
@@ -9313,7 +9347,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AF105" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9323,7 +9357,7 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E106" s="3">
         <v>60</v>
@@ -9332,7 +9366,7 @@
         <v>57129958</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -9342,7 +9376,7 @@
         <v>70</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K106" s="3">
         <v>0</v>
@@ -9384,7 +9418,7 @@
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
       <c r="AF106" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9394,7 +9428,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E107" s="3">
         <v>60</v>
@@ -9403,7 +9437,7 @@
         <v>57387972</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -9413,7 +9447,7 @@
         <v>70</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
@@ -9455,7 +9489,7 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AF107" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9466,11 +9500,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3">
+        <v>105</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -9479,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
@@ -9507,7 +9543,7 @@
         <v>56</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T108" s="3">
         <v>0</v>
@@ -9516,7 +9552,7 @@
         <v>36</v>
       </c>
       <c r="V108" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W108" s="3">
         <v>0</v>
@@ -9528,7 +9564,7 @@
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
       <c r="AF108" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9538,7 +9574,7 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E109" s="3">
         <v>60</v>
@@ -9547,7 +9583,7 @@
         <v>66940735</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -9557,7 +9593,7 @@
         <v>70</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K109" s="3">
         <v>0</v>
@@ -9599,7 +9635,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
       <c r="AF109" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9609,7 +9645,7 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E110" s="3">
         <v>60</v>
@@ -9618,7 +9654,7 @@
         <v>67391797</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -9628,7 +9664,7 @@
         <v>70</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K110" s="3">
         <v>0</v>
@@ -9670,7 +9706,7 @@
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
       <c r="AF110" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9682,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="3">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E111" s="3">
         <v>60</v>
@@ -9691,7 +9727,7 @@
         <v>78853921</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -9700,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
@@ -9728,7 +9764,7 @@
         <v>70</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T111" s="3">
         <v>0</v>
@@ -9737,7 +9773,7 @@
         <v>34</v>
       </c>
       <c r="V111" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W111" s="3">
         <v>0</v>
@@ -9749,7 +9785,7 @@
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
       <c r="AF111" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9759,7 +9795,7 @@
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E112" s="3">
         <v>60</v>
@@ -9768,7 +9804,7 @@
         <v>79014985</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -9778,7 +9814,7 @@
         <v>75</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K112" s="3">
         <v>0</v>
@@ -9820,7 +9856,7 @@
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
       <c r="AF112" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9830,7 +9866,7 @@
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E113" s="3">
         <v>60</v>
@@ -9839,7 +9875,7 @@
         <v>79257007</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -9849,7 +9885,7 @@
         <v>75</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K113" s="3">
         <v>0</v>
@@ -9891,7 +9927,7 @@
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
       <c r="AF113" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9902,11 +9938,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3">
+        <v>111</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -9915,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K114" s="3">
         <v>0</v>
@@ -9943,7 +9981,7 @@
         <v>60</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T114" s="3">
         <v>0</v>
@@ -9952,7 +9990,7 @@
         <v>39</v>
       </c>
       <c r="V114" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W114" s="3">
         <v>0</v>
@@ -9964,7 +10002,7 @@
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
       <c r="AF114" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -9974,7 +10012,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E115" s="3">
         <v>60</v>
@@ -9983,7 +10021,7 @@
         <v>87750912</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -9993,7 +10031,7 @@
         <v>75</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K115" s="3">
         <v>0</v>
@@ -10035,7 +10073,7 @@
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
       <c r="AF115" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10045,7 +10083,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E116" s="3">
         <v>60</v>
@@ -10054,7 +10092,7 @@
         <v>88041675</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -10064,7 +10102,7 @@
         <v>75</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K116" s="3">
         <v>0</v>
@@ -10106,7 +10144,7 @@
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
       <c r="AF116" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10118,7 +10156,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="3">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E117" s="3">
         <v>60</v>
@@ -10127,7 +10165,7 @@
         <v>88980241</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -10136,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K117" s="3">
         <v>0</v>
@@ -10164,7 +10202,7 @@
         <v>75</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T117" s="3">
         <v>0</v>
@@ -10173,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="V117" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W117" s="3">
         <v>0</v>
@@ -10185,7 +10223,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
       <c r="AF117" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10195,7 +10233,7 @@
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E118" s="3">
         <v>60</v>
@@ -10204,7 +10242,7 @@
         <v>89265654</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -10214,7 +10252,7 @@
         <v>80</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K118" s="3">
         <v>0</v>
@@ -10256,7 +10294,7 @@
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
       <c r="AF118" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10266,7 +10304,7 @@
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E119" s="3">
         <v>60</v>
@@ -10275,7 +10313,7 @@
         <v>89370319</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -10285,7 +10323,7 @@
         <v>80</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K119" s="3">
         <v>0</v>
@@ -10327,7 +10365,7 @@
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
       <c r="AF119" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10338,11 +10376,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3">
+        <v>117</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -10351,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120" s="3">
         <v>0</v>
@@ -10379,7 +10419,7 @@
         <v>64</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T120" s="3">
         <v>0</v>
@@ -10388,7 +10428,7 @@
         <v>41</v>
       </c>
       <c r="V120" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W120" s="3">
         <v>0</v>
@@ -10400,7 +10440,7 @@
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
       <c r="AF120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10410,7 +10450,7 @@
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E121" s="3">
         <v>60</v>
@@ -10419,7 +10459,7 @@
         <v>98509515</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -10429,7 +10469,7 @@
         <v>80</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K121" s="3">
         <v>0</v>
@@ -10471,7 +10511,7 @@
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
       <c r="AF121" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10481,7 +10521,7 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E122" s="3">
         <v>60</v>
@@ -10490,7 +10530,7 @@
         <v>100206820</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -10500,7 +10540,7 @@
         <v>80</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K122" s="3">
         <v>0</v>
@@ -10542,7 +10582,7 @@
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
       <c r="AF122" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10554,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E123" s="3">
         <v>60</v>
@@ -10563,7 +10603,7 @@
         <v>103210810</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -10572,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K123" s="3">
         <v>0</v>
@@ -10600,7 +10640,7 @@
         <v>80</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T123" s="3">
         <v>0</v>
@@ -10609,7 +10649,7 @@
         <v>39</v>
       </c>
       <c r="V123" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W123" s="3">
         <v>0</v>
@@ -10621,7 +10661,7 @@
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
       <c r="AF123" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10631,7 +10671,7 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E124" s="3">
         <v>60</v>
@@ -10640,7 +10680,7 @@
         <v>103399401</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -10650,7 +10690,7 @@
         <v>85</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K124" s="3">
         <v>0</v>
@@ -10692,7 +10732,7 @@
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
       <c r="AF124" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10702,7 +10742,7 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E125" s="3">
         <v>60</v>
@@ -10711,7 +10751,7 @@
         <v>103682631</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -10721,7 +10761,7 @@
         <v>85</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K125" s="3">
         <v>0</v>
@@ -10763,7 +10803,7 @@
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
       <c r="AF125" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10774,11 +10814,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3">
+        <v>123</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -10787,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K126" s="3">
         <v>0</v>
@@ -10815,7 +10857,7 @@
         <v>68</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T126" s="3">
         <v>0</v>
@@ -10824,7 +10866,7 @@
         <v>43</v>
       </c>
       <c r="V126" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W126" s="3">
         <v>0</v>
@@ -10836,7 +10878,7 @@
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
       <c r="AF126" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10846,7 +10888,7 @@
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E127" s="3">
         <v>60</v>
@@ -10855,7 +10897,7 @@
         <v>108496335</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -10865,7 +10907,7 @@
         <v>85</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K127" s="3">
         <v>0</v>
@@ -10907,7 +10949,7 @@
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
       <c r="AF127" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10917,7 +10959,7 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E128" s="3">
         <v>60</v>
@@ -10926,7 +10968,7 @@
         <v>110206287</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
@@ -10936,7 +10978,7 @@
         <v>85</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K128" s="3">
         <v>0</v>
@@ -10978,7 +11020,7 @@
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
       <c r="AF128" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -10990,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="3">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E129" s="3">
         <v>60</v>
@@ -10999,7 +11041,7 @@
         <v>113097285</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -11008,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K129" s="3">
         <v>0</v>
@@ -11036,7 +11078,7 @@
         <v>85</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T129" s="3">
         <v>0</v>
@@ -11045,7 +11087,7 @@
         <v>42</v>
       </c>
       <c r="V129" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W129" s="3">
         <v>0</v>
@@ -11057,7 +11099,7 @@
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
       <c r="AF129" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11067,7 +11109,7 @@
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E130" s="3">
         <v>60</v>
@@ -11076,7 +11118,7 @@
         <v>113293345</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -11086,7 +11128,7 @@
         <v>90</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K130" s="3">
         <v>0</v>
@@ -11128,7 +11170,7 @@
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
       <c r="AF130" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11138,7 +11180,7 @@
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E131" s="3">
         <v>60</v>
@@ -11147,7 +11189,7 @@
         <v>113587386</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -11157,7 +11199,7 @@
         <v>90</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K131" s="3">
         <v>0</v>
@@ -11199,7 +11241,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
       <c r="AF131" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11210,11 +11252,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
+      <c r="D132" s="3">
+        <v>129</v>
+      </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -11223,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K132" s="3">
         <v>0</v>
@@ -11251,7 +11295,7 @@
         <v>72</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T132" s="3">
         <v>0</v>
@@ -11260,7 +11304,7 @@
         <v>46</v>
       </c>
       <c r="V132" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W132" s="3">
         <v>0</v>
@@ -11272,7 +11316,7 @@
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
       <c r="AF132" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11282,7 +11326,7 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E133" s="3">
         <v>60</v>
@@ -11291,7 +11335,7 @@
         <v>119751212</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -11301,7 +11345,7 @@
         <v>90</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K133" s="3">
         <v>0</v>
@@ -11343,7 +11387,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
       <c r="AF133" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11353,7 +11397,7 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E134" s="3">
         <v>60</v>
@@ -11362,7 +11406,7 @@
         <v>121304476</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -11372,7 +11416,7 @@
         <v>90</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K134" s="3">
         <v>0</v>
@@ -11414,7 +11458,7 @@
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
       <c r="AF134" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11426,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="3">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E135" s="3">
         <v>60</v>
@@ -11435,7 +11479,7 @@
         <v>123629438</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -11444,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K135" s="3">
         <v>0</v>
@@ -11472,7 +11516,7 @@
         <v>90</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T135" s="3">
         <v>0</v>
@@ -11481,7 +11525,7 @@
         <v>44</v>
       </c>
       <c r="V135" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W135" s="3">
         <v>0</v>
@@ -11493,7 +11537,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
       <c r="AF135" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11503,7 +11547,7 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E136" s="3">
         <v>60</v>
@@ -11512,7 +11556,7 @@
         <v>124540668</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -11522,7 +11566,7 @@
         <v>95</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K136" s="3">
         <v>0</v>
@@ -11564,7 +11608,7 @@
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
       <c r="AF136" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11574,7 +11618,7 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E137" s="3">
         <v>60</v>
@@ -11583,7 +11627,7 @@
         <v>125169487</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -11593,7 +11637,7 @@
         <v>95</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
@@ -11635,7 +11679,7 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
       <c r="AF137" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11646,11 +11690,13 @@
         <v>1</v>
       </c>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3">
+        <v>135</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -11659,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K138" s="3">
         <v>0</v>
@@ -11687,7 +11733,7 @@
         <v>76</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T138" s="3">
         <v>0</v>
@@ -11696,7 +11742,7 @@
         <v>48</v>
       </c>
       <c r="V138" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W138" s="3">
         <v>0</v>
@@ -11708,7 +11754,7 @@
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
       <c r="AF138" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11718,7 +11764,7 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E139" s="3">
         <v>60</v>
@@ -11727,7 +11773,7 @@
         <v>136750311</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -11737,7 +11783,7 @@
         <v>95</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K139" s="3">
         <v>0</v>
@@ -11779,7 +11825,7 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
       <c r="AF139" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11789,7 +11835,7 @@
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E140" s="3">
         <v>60</v>
@@ -11798,7 +11844,7 @@
         <v>137428473</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -11808,7 +11854,7 @@
         <v>95</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K140" s="3">
         <v>0</v>
@@ -11850,7 +11896,7 @@
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
       <c r="AF140" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11862,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="3">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E141" s="3">
         <v>60</v>
@@ -11871,7 +11917,7 @@
         <v>158818082</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -11880,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K141" s="3">
         <v>0</v>
@@ -11908,7 +11954,7 @@
         <v>95</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T141" s="3">
         <v>0</v>
@@ -11917,7 +11963,7 @@
         <v>47</v>
       </c>
       <c r="V141" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W141" s="3">
         <v>0</v>
@@ -11929,7 +11975,7 @@
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
       <c r="AF141" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -11939,7 +11985,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E142" s="3">
         <v>60</v>
@@ -11948,7 +11994,7 @@
         <v>159069744</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -11958,7 +12004,7 @@
         <v>100</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K142" s="3">
         <v>0</v>
@@ -12007,7 +12053,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E143" s="3">
         <v>60</v>
@@ -12016,7 +12062,7 @@
         <v>159447296</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -12026,7 +12072,7 @@
         <v>100</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K143" s="3">
         <v>0</v>
@@ -12076,11 +12122,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3">
+        <v>141</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -12089,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K144" s="3">
         <v>0</v>
@@ -12117,7 +12165,7 @@
         <v>80</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T144" s="3">
         <v>0</v>
@@ -12145,7 +12193,7 @@
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E145" s="3">
         <v>60</v>
@@ -12154,7 +12202,7 @@
         <v>184070380</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -12164,7 +12212,7 @@
         <v>100</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K145" s="3">
         <v>0</v>
@@ -12213,7 +12261,7 @@
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E146" s="3">
         <v>60</v>
@@ -12222,7 +12270,7 @@
         <v>184490736</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -12232,7 +12280,7 @@
         <v>100</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K146" s="3">
         <v>0</v>
@@ -12283,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="3">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E147" s="3">
         <v>60</v>
@@ -12292,7 +12340,7 @@
         <v>185936941</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -12301,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K147" s="3">
         <v>0</v>
@@ -12329,7 +12377,7 @@
         <v>100</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T147" s="3">
         <v>0</v>
@@ -12357,7 +12405,7 @@
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E148" s="3">
         <v>60</v>
@@ -12366,7 +12414,7 @@
         <v>186217221</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -12376,7 +12424,7 @@
         <v>100</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K148" s="3">
         <v>0</v>
@@ -12425,7 +12473,7 @@
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E149" s="3">
         <v>60</v>
@@ -12434,7 +12482,7 @@
         <v>186637614</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
@@ -12444,7 +12492,7 @@
         <v>100</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K149" s="3">
         <v>0</v>
@@ -12494,11 +12542,13 @@
         <v>1</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="3">
+        <v>147</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
@@ -12507,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K150" s="3">
         <v>0</v>
@@ -12535,7 +12585,7 @@
         <v>80</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T150" s="3">
         <v>0</v>
@@ -12563,7 +12613,7 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E151" s="3">
         <v>60</v>
@@ -12572,7 +12622,7 @@
         <v>214225970</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
@@ -12582,7 +12632,7 @@
         <v>100</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K151" s="3">
         <v>0</v>
@@ -12631,7 +12681,7 @@
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E152" s="3">
         <v>60</v>
@@ -12640,7 +12690,7 @@
         <v>214693576</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
@@ -12650,7 +12700,7 @@
         <v>100</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K152" s="3">
         <v>0</v>
@@ -12701,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E153" s="3">
         <v>60</v>
@@ -12710,7 +12760,7 @@
         <v>216744582</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -12719,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K153" s="3">
         <v>0</v>
@@ -12747,7 +12797,7 @@
         <v>100</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T153" s="3">
         <v>0</v>
@@ -12775,7 +12825,7 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E154" s="3">
         <v>60</v>
@@ -12784,7 +12834,7 @@
         <v>217056480</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
@@ -12794,7 +12844,7 @@
         <v>100</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K154" s="3">
         <v>0</v>
@@ -12843,7 +12893,7 @@
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E155" s="3">
         <v>60</v>
@@ -12852,7 +12902,7 @@
         <v>217524050</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
@@ -12862,7 +12912,7 @@
         <v>100</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
@@ -12912,11 +12962,13 @@
         <v>1</v>
       </c>
       <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
+      <c r="D156" s="3">
+        <v>153</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
@@ -12925,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K156" s="3">
         <v>0</v>
@@ -12953,7 +13005,7 @@
         <v>80</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T156" s="3">
         <v>0</v>
@@ -12981,7 +13033,7 @@
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E157" s="3">
         <v>60</v>
@@ -12990,7 +13042,7 @@
         <v>253152879</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -13000,7 +13052,7 @@
         <v>100</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
@@ -13049,7 +13101,7 @@
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E158" s="3">
         <v>60</v>
@@ -13058,7 +13110,7 @@
         <v>253681896</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
@@ -13068,7 +13120,7 @@
         <v>100</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
@@ -13119,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="3">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E159" s="3">
         <v>60</v>
@@ -13128,7 +13180,7 @@
         <v>255463712</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
@@ -13137,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K159" s="3">
         <v>0</v>
@@ -13165,7 +13217,7 @@
         <v>100</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T159" s="3">
         <v>0</v>
@@ -13193,7 +13245,7 @@
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E160" s="3">
         <v>60</v>
@@ -13202,7 +13254,7 @@
         <v>255816477</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
@@ -13212,7 +13264,7 @@
         <v>100</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K160" s="3">
         <v>0</v>
@@ -13261,7 +13313,7 @@
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E161" s="3">
         <v>60</v>
@@ -13270,7 +13322,7 @@
         <v>256345506</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
@@ -13280,7 +13332,7 @@
         <v>100</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K161" s="3">
         <v>0</v>
@@ -13330,11 +13382,13 @@
         <v>1</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
+      <c r="D162" s="3">
+        <v>159</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
@@ -13343,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
@@ -13371,7 +13425,7 @@
         <v>80</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T162" s="3">
         <v>0</v>
@@ -13399,7 +13453,7 @@
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E163" s="3">
         <v>60</v>
@@ -13408,7 +13462,7 @@
         <v>262686639</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
@@ -13418,7 +13472,7 @@
         <v>100</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
@@ -13467,7 +13521,7 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E164" s="3">
         <v>60</v>
@@ -13476,7 +13530,7 @@
         <v>263226939</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H164" s="3">
         <v>0</v>
@@ -13486,7 +13540,7 @@
         <v>100</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K164" s="3">
         <v>0</v>
@@ -13537,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="3">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E165" s="3">
         <v>60</v>
@@ -13546,7 +13600,7 @@
         <v>265040463</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
@@ -13555,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K165" s="3">
         <v>0</v>
@@ -13583,7 +13637,7 @@
         <v>100</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T165" s="3">
         <v>0</v>
@@ -13611,7 +13665,7 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E166" s="3">
         <v>60</v>
@@ -13620,7 +13674,7 @@
         <v>265400880</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
@@ -13630,7 +13684,7 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
@@ -13679,7 +13733,7 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E167" s="3">
         <v>60</v>
@@ -13688,7 +13742,7 @@
         <v>265941142</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
@@ -13698,7 +13752,7 @@
         <v>100</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K167" s="3">
         <v>0</v>
@@ -13748,11 +13802,13 @@
         <v>1</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="3">
+        <v>165</v>
+      </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
@@ -13761,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K168" s="3">
         <v>0</v>
@@ -13789,7 +13845,7 @@
         <v>80</v>
       </c>
       <c r="S168" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T168" s="3">
         <v>0</v>
@@ -13817,7 +13873,7 @@
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E169" s="3">
         <v>60</v>
@@ -13826,7 +13882,7 @@
         <v>298390785</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
@@ -13836,7 +13892,7 @@
         <v>100</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K169" s="3">
         <v>0</v>
@@ -13885,7 +13941,7 @@
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E170" s="3">
         <v>60</v>
@@ -13894,7 +13950,7 @@
         <v>298967420</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
@@ -13904,7 +13960,7 @@
         <v>100</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K170" s="3">
         <v>0</v>
@@ -13955,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="3">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E171" s="3">
         <v>60</v>
@@ -13964,7 +14020,7 @@
         <v>304261689</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
@@ -13973,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K171" s="3">
         <v>0</v>
@@ -14001,7 +14057,7 @@
         <v>100</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T171" s="3">
         <v>0</v>
@@ -14029,7 +14085,7 @@
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E172" s="3">
         <v>60</v>
@@ -14038,7 +14094,7 @@
         <v>304646176</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
@@ -14048,7 +14104,7 @@
         <v>100</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
@@ -14097,7 +14153,7 @@
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="E173" s="3">
         <v>60</v>
@@ -14106,7 +14162,7 @@
         <v>305222860</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
@@ -14116,7 +14172,7 @@
         <v>100</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K173" s="3">
         <v>0</v>
@@ -14166,11 +14222,13 @@
         <v>1</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="3">
+        <v>171</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
@@ -14179,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K174" s="3">
         <v>0</v>
@@ -14207,7 +14265,7 @@
         <v>80</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T174" s="3">
         <v>0</v>
@@ -14235,7 +14293,7 @@
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E175" s="3">
         <v>60</v>
@@ -14244,7 +14302,7 @@
         <v>344083137</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
@@ -14254,7 +14312,7 @@
         <v>100</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K175" s="3">
         <v>0</v>
@@ -14303,7 +14361,7 @@
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E176" s="3">
         <v>60</v>
@@ -14312,7 +14370,7 @@
         <v>344709766</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
@@ -14322,7 +14380,7 @@
         <v>100</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K176" s="3">
         <v>0</v>
@@ -14373,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="3">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E177" s="3">
         <v>60</v>
@@ -14382,7 +14440,7 @@
         <v>346921165</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
@@ -14391,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K177" s="3">
         <v>0</v>
@@ -14419,7 +14477,7 @@
         <v>100</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T177" s="3">
         <v>0</v>
@@ -14447,7 +14505,7 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E178" s="3">
         <v>60</v>
@@ -14456,7 +14514,7 @@
         <v>347339006</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
@@ -14466,7 +14524,7 @@
         <v>100</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K178" s="3">
         <v>0</v>
@@ -14515,7 +14573,7 @@
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E179" s="3">
         <v>60</v>
@@ -14524,7 +14582,7 @@
         <v>347965335</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
@@ -14534,7 +14592,7 @@
         <v>100</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K179" s="3">
         <v>0</v>
@@ -14584,11 +14642,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="3">
+        <v>177</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
@@ -14597,7 +14657,7 @@
         <v>1</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K180" s="3">
         <v>0</v>
@@ -14625,7 +14685,7 @@
         <v>80</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T180" s="3">
         <v>0</v>
@@ -14653,7 +14713,7 @@
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="E181" s="3">
         <v>60</v>
@@ -14662,7 +14722,7 @@
         <v>364180920</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
@@ -14672,7 +14732,7 @@
         <v>100</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K181" s="3">
         <v>0</v>
@@ -14721,7 +14781,7 @@
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E182" s="3">
         <v>60</v>
@@ -14730,7 +14790,7 @@
         <v>364815937</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H182" s="3">
         <v>0</v>
@@ -14740,7 +14800,7 @@
         <v>100</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
@@ -14791,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E183" s="3">
         <v>60</v>
@@ -14800,7 +14860,7 @@
         <v>367047280</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -14809,7 +14869,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
@@ -14837,7 +14897,7 @@
         <v>100</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T183" s="3">
         <v>0</v>
@@ -14865,7 +14925,7 @@
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E184" s="3">
         <v>60</v>
@@ -14874,7 +14934,7 @@
         <v>367470642</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H184" s="3">
         <v>0</v>
@@ -14884,7 +14944,7 @@
         <v>100</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
@@ -14933,7 +14993,7 @@
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="E185" s="3">
         <v>60</v>
@@ -14942,7 +15002,7 @@
         <v>368105670</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H185" s="3">
         <v>0</v>
@@ -14952,7 +15012,7 @@
         <v>100</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K185" s="3">
         <v>0</v>
@@ -15002,11 +15062,13 @@
         <v>1</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="3">
+        <v>183</v>
+      </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H186" s="3">
         <v>0</v>
@@ -15015,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
@@ -15043,7 +15105,7 @@
         <v>80</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T186" s="3">
         <v>0</v>
@@ -15071,7 +15133,7 @@
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="E187" s="3">
         <v>60</v>
@@ -15080,7 +15142,7 @@
         <v>369800313</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H187" s="3">
         <v>0</v>
@@ -15090,7 +15152,7 @@
         <v>100</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
@@ -15139,7 +15201,7 @@
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E188" s="3">
         <v>60</v>
@@ -15148,7 +15210,7 @@
         <v>370435318</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H188" s="3">
         <v>0</v>
@@ -15158,7 +15220,7 @@
         <v>100</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
@@ -15209,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="3">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E189" s="3">
         <v>60</v>
@@ -15218,7 +15280,7 @@
         <v>372666723</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H189" s="3">
         <v>0</v>
@@ -15227,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
@@ -15255,7 +15317,7 @@
         <v>100</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T189" s="3">
         <v>0</v>
@@ -15283,7 +15345,7 @@
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E190" s="3">
         <v>60</v>
@@ -15292,7 +15354,7 @@
         <v>373090083</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H190" s="3">
         <v>0</v>
@@ -15302,7 +15364,7 @@
         <v>100</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
@@ -15351,7 +15413,7 @@
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="E191" s="3">
         <v>60</v>
@@ -15360,7 +15422,7 @@
         <v>373725100</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
@@ -15370,7 +15432,7 @@
         <v>100</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
@@ -15420,11 +15482,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
+      <c r="D192" s="3">
+        <v>189</v>
+      </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H192" s="3">
         <v>0</v>
@@ -15433,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
@@ -15461,7 +15525,7 @@
         <v>80</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T192" s="3">
         <v>0</v>
@@ -15489,7 +15553,7 @@
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E193" s="3">
         <v>60</v>
@@ -15498,7 +15562,7 @@
         <v>384174370</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
@@ -15508,7 +15572,7 @@
         <v>100</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K193" s="3">
         <v>0</v>
@@ -15557,7 +15621,7 @@
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E194" s="3">
         <v>60</v>
@@ -15566,7 +15630,7 @@
         <v>384824893</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H194" s="3">
         <v>0</v>
@@ -15576,7 +15640,7 @@
         <v>100</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
@@ -15627,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="3">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E195" s="3">
         <v>60</v>
@@ -15636,7 +15700,7 @@
         <v>387104395</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H195" s="3">
         <v>0</v>
@@ -15645,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
@@ -15673,7 +15737,7 @@
         <v>100</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T195" s="3">
         <v>0</v>
@@ -15701,7 +15765,7 @@
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E196" s="3">
         <v>60</v>
@@ -15710,7 +15774,7 @@
         <v>387538044</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H196" s="3">
         <v>0</v>
@@ -15720,7 +15784,7 @@
         <v>100</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
@@ -15769,7 +15833,7 @@
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E197" s="3">
         <v>60</v>
@@ -15778,7 +15842,7 @@
         <v>388188554</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H197" s="3">
         <v>0</v>
@@ -15788,7 +15852,7 @@
         <v>100</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K197" s="3">
         <v>0</v>
@@ -15838,11 +15902,13 @@
         <v>1</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
+      <c r="D198" s="3">
+        <v>195</v>
+      </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H198" s="3">
         <v>0</v>
@@ -15851,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K198" s="3">
         <v>0</v>
@@ -15879,7 +15945,7 @@
         <v>80</v>
       </c>
       <c r="S198" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T198" s="3">
         <v>0</v>
@@ -15907,7 +15973,7 @@
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E199" s="3">
         <v>60</v>
@@ -15916,7 +15982,7 @@
         <v>389921054</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
@@ -15926,7 +15992,7 @@
         <v>100</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K199" s="3">
         <v>0</v>
@@ -15975,7 +16041,7 @@
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E200" s="3">
         <v>60</v>
@@ -15984,7 +16050,7 @@
         <v>391220630</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H200" s="3">
         <v>0</v>
@@ -15994,7 +16060,7 @@
         <v>100</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
@@ -16045,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="3">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E201" s="3">
         <v>60</v>
@@ -16054,7 +16120,7 @@
         <v>445698687</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H201" s="3">
         <v>0</v>
@@ -16063,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
@@ -16091,7 +16157,7 @@
         <v>100</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T201" s="3">
         <v>0</v>
@@ -16119,7 +16185,7 @@
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E202" s="3">
         <v>60</v>
@@ -16128,7 +16194,7 @@
         <v>446186658</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
@@ -16138,7 +16204,7 @@
         <v>100</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
@@ -16187,7 +16253,7 @@
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E203" s="3">
         <v>60</v>
@@ -16196,7 +16262,7 @@
         <v>446918468</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" s="3">
         <v>0</v>
@@ -16206,7 +16272,7 @@
         <v>100</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K203" s="3">
         <v>0</v>
@@ -16256,11 +16322,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
+      <c r="D204" s="3">
+        <v>201</v>
+      </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H204" s="3">
         <v>0</v>
@@ -16269,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K204" s="3">
         <v>0</v>
@@ -16297,7 +16365,7 @@
         <v>80</v>
       </c>
       <c r="S204" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T204" s="3">
         <v>0</v>
@@ -16325,7 +16393,7 @@
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E205" s="3">
         <v>60</v>
@@ -16334,7 +16402,7 @@
         <v>466396722</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" s="3">
         <v>0</v>
@@ -16344,7 +16412,7 @@
         <v>100</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K205" s="3">
         <v>0</v>
@@ -16393,7 +16461,7 @@
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E206" s="3">
         <v>60</v>
@@ -16402,7 +16470,7 @@
         <v>467157303</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H206" s="3">
         <v>0</v>
@@ -16412,7 +16480,7 @@
         <v>100</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K206" s="3">
         <v>0</v>
@@ -16463,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="3">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="E207" s="3">
         <v>60</v>
@@ -16472,7 +16540,7 @@
         <v>469673170</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H207" s="3">
         <v>0</v>
@@ -16481,7 +16549,7 @@
         <v>1</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K207" s="3">
         <v>0</v>
@@ -16509,7 +16577,7 @@
         <v>100</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T207" s="3">
         <v>0</v>
@@ -16537,7 +16605,7 @@
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E208" s="3">
         <v>60</v>
@@ -16546,7 +16614,7 @@
         <v>470180233</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H208" s="3">
         <v>0</v>
@@ -16556,7 +16624,7 @@
         <v>100</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
@@ -16605,7 +16673,7 @@
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="E209" s="3">
         <v>60</v>
@@ -16614,7 +16682,7 @@
         <v>470940730</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H209" s="3">
         <v>0</v>
@@ -16624,7 +16692,7 @@
         <v>100</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K209" s="3">
         <v>0</v>
@@ -16674,11 +16742,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
+      <c r="D210" s="3">
+        <v>207</v>
+      </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H210" s="3">
         <v>0</v>
@@ -16687,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K210" s="3">
         <v>0</v>
@@ -16715,7 +16785,7 @@
         <v>80</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T210" s="3">
         <v>0</v>
@@ -16749,7 +16819,7 @@
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="E211" s="3">
         <v>60</v>
@@ -16758,7 +16828,7 @@
         <v>516334820</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H211" s="3">
         <v>0</v>
@@ -16768,7 +16838,7 @@
         <v>100</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K211" s="3">
         <v>0</v>
@@ -16817,7 +16887,7 @@
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="E212" s="3">
         <v>60</v>
@@ -16826,7 +16896,7 @@
         <v>517162690</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H212" s="3">
         <v>0</v>
@@ -16836,7 +16906,7 @@
         <v>100</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K212" s="3">
         <v>0</v>
@@ -16887,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="D213" s="3">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="E213" s="3">
         <v>60</v>
@@ -16896,7 +16966,7 @@
         <v>519880370</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H213" s="3">
         <v>0</v>
@@ -16905,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K213" s="3">
         <v>0</v>
@@ -16933,7 +17003,7 @@
         <v>100</v>
       </c>
       <c r="S213" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T213" s="3">
         <v>0</v>
@@ -16961,7 +17031,7 @@
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E214" s="3">
         <v>60</v>
@@ -16970,7 +17040,7 @@
         <v>520432256</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H214" s="3">
         <v>0</v>
@@ -16980,7 +17050,7 @@
         <v>100</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K214" s="3">
         <v>0</v>
@@ -17029,7 +17099,7 @@
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E215" s="3">
         <v>60</v>
@@ -17038,7 +17108,7 @@
         <v>521260126</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
@@ -17048,7 +17118,7 @@
         <v>100</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
@@ -17098,11 +17168,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
+      <c r="D216" s="3">
+        <v>213</v>
+      </c>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H216" s="3">
         <v>0</v>
@@ -17111,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K216" s="3">
         <v>0</v>
@@ -17139,7 +17211,7 @@
         <v>80</v>
       </c>
       <c r="S216" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T216" s="3">
         <v>0</v>
@@ -17173,7 +17245,7 @@
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="E217" s="3">
         <v>60</v>
@@ -17182,7 +17254,7 @@
         <v>568475014</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
@@ -17192,7 +17264,7 @@
         <v>100</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K217" s="3">
         <v>0</v>
@@ -17241,7 +17313,7 @@
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="E218" s="3">
         <v>60</v>
@@ -17250,7 +17322,7 @@
         <v>569350179</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
@@ -17260,7 +17332,7 @@
         <v>100</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
@@ -17311,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="3">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E219" s="3">
         <v>60</v>
@@ -17320,7 +17392,7 @@
         <v>572947983</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
@@ -17329,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
@@ -17357,7 +17429,7 @@
         <v>100</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T219" s="3">
         <v>0</v>
@@ -17385,7 +17457,7 @@
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="E220" s="3">
         <v>60</v>
@@ -17394,7 +17466,7 @@
         <v>573531415</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H220" s="3">
         <v>0</v>
@@ -17404,7 +17476,7 @@
         <v>100</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K220" s="3">
         <v>0</v>
@@ -17453,7 +17525,7 @@
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E221" s="3">
         <v>60</v>
@@ -17462,7 +17534,7 @@
         <v>574406580</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
@@ -17472,7 +17544,7 @@
         <v>100</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K221" s="3">
         <v>0</v>
@@ -17522,11 +17594,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+      <c r="D222" s="3">
+        <v>219</v>
+      </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
@@ -17535,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K222" s="3">
         <v>0</v>
@@ -17563,7 +17637,7 @@
         <v>80</v>
       </c>
       <c r="S222" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T222" s="3">
         <v>0</v>
@@ -17597,7 +17671,7 @@
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="E223" s="3">
         <v>60</v>
@@ -17606,7 +17680,7 @@
         <v>606272677</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H223" s="3">
         <v>0</v>
@@ -17616,7 +17690,7 @@
         <v>100</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K223" s="3">
         <v>0</v>
@@ -17665,7 +17739,7 @@
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="E224" s="3">
         <v>60</v>
@@ -17674,7 +17748,7 @@
         <v>607170343</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H224" s="3">
         <v>0</v>
@@ -17684,7 +17758,7 @@
         <v>100</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
@@ -17735,7 +17809,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="3">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="E225" s="3">
         <v>60</v>
@@ -17744,7 +17818,7 @@
         <v>610820833</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H225" s="3">
         <v>0</v>
@@ -17753,7 +17827,7 @@
         <v>1</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K225" s="3">
         <v>0</v>
@@ -17781,7 +17855,7 @@
         <v>100</v>
       </c>
       <c r="S225" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T225" s="3">
         <v>0</v>
@@ -17809,7 +17883,7 @@
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E226" s="3">
         <v>60</v>
@@ -17818,7 +17892,7 @@
         <v>611419316</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H226" s="3">
         <v>0</v>
@@ -17828,7 +17902,7 @@
         <v>100</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
@@ -17877,7 +17951,7 @@
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="E227" s="3">
         <v>60</v>
@@ -17886,7 +17960,7 @@
         <v>612317042</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
@@ -17896,7 +17970,7 @@
         <v>100</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
@@ -17946,11 +18020,13 @@
         <v>1</v>
       </c>
       <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
+      <c r="D228" s="3">
+        <v>225</v>
+      </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H228" s="3">
         <v>0</v>
@@ -17959,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
@@ -17987,7 +18063,7 @@
         <v>80</v>
       </c>
       <c r="S228" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T228" s="3">
         <v>0</v>
@@ -18021,7 +18097,7 @@
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="E229" s="3">
         <v>60</v>
@@ -18030,7 +18106,7 @@
         <v>813223687</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
@@ -18040,7 +18116,7 @@
         <v>100</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K229" s="3">
         <v>0</v>
@@ -18089,7 +18165,7 @@
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="E230" s="3">
         <v>60</v>
@@ -18098,7 +18174,7 @@
         <v>818340895</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
@@ -18108,7 +18184,7 @@
         <v>100</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K230" s="3">
         <v>0</v>
@@ -18159,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="3">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="E231" s="3">
         <v>60</v>
@@ -18168,7 +18244,7 @@
         <v>908002826</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H231" s="3">
         <v>0</v>
@@ -18177,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K231" s="3">
         <v>0</v>
@@ -18205,7 +18281,7 @@
         <v>100</v>
       </c>
       <c r="S231" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T231" s="3">
         <v>0</v>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903BA4D-1A31-4BC6-B98C-63A407C6569B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8024CC1-C1BB-4AB7-8C72-8F1D848A1589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,7 +1805,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2097,7 +2097,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="3">
-        <v>8244</v>
+        <v>9850</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>61</v>
@@ -2168,7 +2168,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="3">
-        <v>19957</v>
+        <v>23900</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>55</v>
@@ -2308,7 +2308,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="3">
-        <v>32283</v>
+        <v>38700</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>57</v>
@@ -2379,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="3">
-        <v>49557</v>
+        <v>59450</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -2452,7 +2452,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="3">
-        <v>55353</v>
+        <v>66400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2523,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>92259</v>
+        <v>110700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>51</v>
@@ -2594,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="3">
-        <v>97965</v>
+        <v>117550</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
@@ -2734,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="3">
-        <v>267228</v>
+        <v>320650</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>94</v>
@@ -2805,7 +2805,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3">
-        <v>307921</v>
+        <v>369500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>94</v>
@@ -2878,7 +2878,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>487723</v>
+        <v>585250</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>69</v>
@@ -2949,7 +2949,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <v>547017</v>
+        <v>656400</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>94</v>
@@ -3020,7 +3020,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="3">
-        <v>623394</v>
+        <v>748050</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>94</v>
@@ -3160,7 +3160,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>828950</v>
+        <v>994700</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>94</v>
@@ -3231,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>995126</v>
+        <v>1194150</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>94</v>
@@ -3304,7 +3304,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>1182926</v>
+        <v>1419500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>71</v>
@@ -3375,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="3">
-        <v>1238901</v>
+        <v>1486650</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>94</v>
@@ -3446,7 +3446,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>1366459</v>
+        <v>1639750</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>94</v>
@@ -3586,7 +3586,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>1576839</v>
+        <v>1892200</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>94</v>
@@ -3657,7 +3657,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="3">
-        <v>1589319</v>
+        <v>1907150</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>94</v>
@@ -3730,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="3">
-        <v>1912170</v>
+        <v>2294600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>65</v>
@@ -3801,7 +3801,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>2014094</v>
+        <v>2416900</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>94</v>
@@ -3872,7 +3872,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="3">
-        <v>2076813</v>
+        <v>2492150</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>94</v>
@@ -4012,7 +4012,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="3">
-        <v>2242611</v>
+        <v>2691100</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>94</v>
@@ -4083,7 +4083,7 @@
         <v>60</v>
       </c>
       <c r="F32" s="3">
-        <v>2276102</v>
+        <v>2731300</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>94</v>
@@ -4156,7 +4156,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="3">
-        <v>2415855</v>
+        <v>2899000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>77</v>
@@ -4227,7 +4227,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>2649993</v>
+        <v>3179950</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>94</v>
@@ -4298,7 +4298,7 @@
         <v>60</v>
       </c>
       <c r="F35" s="3">
-        <v>2716101</v>
+        <v>3259300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>94</v>
@@ -4438,7 +4438,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="3">
-        <v>3192134</v>
+        <v>3830550</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>94</v>
@@ -4509,7 +4509,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="3">
-        <v>3275815</v>
+        <v>3930950</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>94</v>
@@ -4582,7 +4582,7 @@
         <v>60</v>
       </c>
       <c r="F39" s="3">
-        <v>3433927</v>
+        <v>4120700</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>79</v>
@@ -4653,7 +4653,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="3">
-        <v>3476475</v>
+        <v>4171750</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>94</v>
@@ -4724,7 +4724,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="3">
-        <v>3559302</v>
+        <v>4271150</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>94</v>
@@ -4864,7 +4864,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="3">
-        <v>4488504</v>
+        <v>5386200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>94</v>
@@ -4935,7 +4935,7 @@
         <v>60</v>
       </c>
       <c r="F44" s="3">
-        <v>4643949</v>
+        <v>5572700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>94</v>
@@ -5008,7 +5008,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="3">
-        <v>5379039</v>
+        <v>6454800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>81</v>
@@ -5079,7 +5079,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="3">
-        <v>5431300</v>
+        <v>6517550</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>94</v>
@@ -5150,7 +5150,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="3">
-        <v>5536662</v>
+        <v>6643950</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>94</v>
@@ -5290,7 +5290,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="3">
-        <v>6289854</v>
+        <v>7547800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>94</v>
@@ -5361,7 +5361,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="3">
-        <v>6345894</v>
+        <v>7615050</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>94</v>
@@ -5434,7 +5434,7 @@
         <v>60</v>
       </c>
       <c r="F51" s="3">
-        <v>7874416</v>
+        <v>9449250</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>83</v>
@@ -5505,7 +5505,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="3">
-        <v>7939136</v>
+        <v>9526950</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>94</v>
@@ -5576,7 +5576,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="3">
-        <v>8065480</v>
+        <v>9678550</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>94</v>
@@ -5716,7 +5716,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="3">
-        <v>9164571</v>
+        <v>10997450</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>94</v>
@@ -5787,7 +5787,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="3">
-        <v>9232456</v>
+        <v>11078900</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>94</v>
@@ -5860,7 +5860,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="3">
-        <v>10138328</v>
+        <v>12165950</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>85</v>
@@ -5931,7 +5931,7 @@
         <v>60</v>
       </c>
       <c r="F58" s="3">
-        <v>10266786</v>
+        <v>12320100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>94</v>
@@ -6002,7 +6002,7 @@
         <v>60</v>
       </c>
       <c r="F59" s="3">
-        <v>10375858</v>
+        <v>12451000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>94</v>
@@ -6142,7 +6142,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="3">
-        <v>10677165</v>
+        <v>12812550</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>94</v>
@@ -6213,7 +6213,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="3">
-        <v>10772733</v>
+        <v>12927250</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>94</v>
@@ -6286,7 +6286,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="3">
-        <v>12017864</v>
+        <v>14421400</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>87</v>
@@ -6357,7 +6357,7 @@
         <v>60</v>
       </c>
       <c r="F64" s="3">
-        <v>12070675</v>
+        <v>14484800</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>94</v>
@@ -6428,7 +6428,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="3">
-        <v>12149821</v>
+        <v>14579750</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>94</v>
@@ -6568,7 +6568,7 @@
         <v>60</v>
       </c>
       <c r="F67" s="3">
-        <v>13276328</v>
+        <v>15931550</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>94</v>
@@ -6639,7 +6639,7 @@
         <v>60</v>
       </c>
       <c r="F68" s="3">
-        <v>13415838</v>
+        <v>16099000</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>94</v>
@@ -6712,7 +6712,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="3">
-        <v>15851328</v>
+        <v>19021550</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>89</v>
@@ -6783,7 +6783,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="3">
-        <v>16007625</v>
+        <v>19209150</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>94</v>
@@ -6854,7 +6854,7 @@
         <v>60</v>
       </c>
       <c r="F71" s="3">
-        <v>16877224</v>
+        <v>20252650</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>94</v>
@@ -6994,7 +6994,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="3">
-        <v>17388454</v>
+        <v>20866100</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>94</v>
@@ -7065,7 +7065,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="3">
-        <v>17663767</v>
+        <v>21196500</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>94</v>
@@ -7138,7 +7138,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="3">
-        <v>19406384</v>
+        <v>23287650</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>91</v>
@@ -7209,7 +7209,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="3">
-        <v>19621632</v>
+        <v>23545950</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>94</v>
@@ -7280,7 +7280,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="3">
-        <v>19729418</v>
+        <v>23675300</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>94</v>
@@ -7420,7 +7420,7 @@
         <v>60</v>
       </c>
       <c r="F79" s="3">
-        <v>22097577</v>
+        <v>26517050</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>94</v>
@@ -7491,7 +7491,7 @@
         <v>60</v>
       </c>
       <c r="F80" s="3">
-        <v>22209375</v>
+        <v>26651250</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>94</v>
@@ -7564,7 +7564,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="3">
-        <v>26605354</v>
+        <v>31926400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>93</v>
@@ -7635,7 +7635,7 @@
         <v>60</v>
       </c>
       <c r="F82" s="3">
-        <v>26840058</v>
+        <v>32208050</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>94</v>
@@ -7706,7 +7706,7 @@
         <v>60</v>
       </c>
       <c r="F83" s="3">
-        <v>29052274</v>
+        <v>34862700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>94</v>
@@ -7852,7 +7852,7 @@
         <v>60</v>
       </c>
       <c r="F85" s="3">
-        <v>29951643</v>
+        <v>35941950</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>136</v>
@@ -7923,7 +7923,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="3">
-        <v>30994506</v>
+        <v>37193400</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>136</v>
@@ -7996,7 +7996,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="3">
-        <v>36370980</v>
+        <v>43645150</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>87</v>
@@ -8067,7 +8067,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="3">
-        <v>36518050</v>
+        <v>43821650</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>136</v>
@@ -8138,7 +8138,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="3">
-        <v>36824817</v>
+        <v>44189750</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>136</v>
@@ -8284,7 +8284,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="3">
-        <v>37480363</v>
+        <v>44976400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>136</v>
@@ -8355,7 +8355,7 @@
         <v>60</v>
       </c>
       <c r="F92" s="3">
-        <v>37758729</v>
+        <v>45310450</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>136</v>
@@ -8428,7 +8428,7 @@
         <v>60</v>
       </c>
       <c r="F93" s="3">
-        <v>43704740</v>
+        <v>52445650</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>89</v>
@@ -8499,7 +8499,7 @@
         <v>60</v>
       </c>
       <c r="F94" s="3">
-        <v>43902657</v>
+        <v>52683150</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>136</v>
@@ -8570,7 +8570,7 @@
         <v>60</v>
       </c>
       <c r="F95" s="3">
-        <v>44123179</v>
+        <v>52947800</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>136</v>
@@ -8716,7 +8716,7 @@
         <v>60</v>
       </c>
       <c r="F97" s="3">
-        <v>53172646</v>
+        <v>63807150</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>136</v>
@@ -8787,7 +8787,7 @@
         <v>60</v>
       </c>
       <c r="F98" s="3">
-        <v>53392593</v>
+        <v>64071100</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>136</v>
@@ -8860,7 +8860,7 @@
         <v>60</v>
       </c>
       <c r="F99" s="3">
-        <v>54228362</v>
+        <v>65074000</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>91</v>
@@ -8931,7 +8931,7 @@
         <v>60</v>
       </c>
       <c r="F100" s="3">
-        <v>54528716</v>
+        <v>65434450</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>136</v>
@@ -9002,7 +9002,7 @@
         <v>60</v>
       </c>
       <c r="F101" s="3">
-        <v>54784515</v>
+        <v>65741400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>136</v>
@@ -9148,7 +9148,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="3">
-        <v>55988058</v>
+        <v>67185650</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>136</v>
@@ -9219,7 +9219,7 @@
         <v>60</v>
       </c>
       <c r="F104" s="3">
-        <v>56340098</v>
+        <v>67608100</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>136</v>
@@ -9292,7 +9292,7 @@
         <v>60</v>
       </c>
       <c r="F105" s="3">
-        <v>56945485</v>
+        <v>68334550</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>93</v>
@@ -9363,7 +9363,7 @@
         <v>60</v>
       </c>
       <c r="F106" s="3">
-        <v>57129958</v>
+        <v>68555900</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>136</v>
@@ -9434,7 +9434,7 @@
         <v>60</v>
       </c>
       <c r="F107" s="3">
-        <v>57387972</v>
+        <v>68865550</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>136</v>
@@ -9580,7 +9580,7 @@
         <v>60</v>
       </c>
       <c r="F109" s="3">
-        <v>66940735</v>
+        <v>80328850</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>136</v>
@@ -9651,7 +9651,7 @@
         <v>60</v>
       </c>
       <c r="F110" s="3">
-        <v>67391797</v>
+        <v>80870150</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>136</v>
@@ -9724,7 +9724,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="3">
-        <v>78853921</v>
+        <v>94624700</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>138</v>
@@ -9801,7 +9801,7 @@
         <v>60</v>
       </c>
       <c r="F112" s="3">
-        <v>79014985</v>
+        <v>94817950</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>136</v>
@@ -9872,7 +9872,7 @@
         <v>60</v>
       </c>
       <c r="F113" s="3">
-        <v>79257007</v>
+        <v>95108400</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>136</v>
@@ -10018,7 +10018,7 @@
         <v>60</v>
       </c>
       <c r="F115" s="3">
-        <v>87750912</v>
+        <v>105301050</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>136</v>
@@ -10089,7 +10089,7 @@
         <v>60</v>
       </c>
       <c r="F116" s="3">
-        <v>88041675</v>
+        <v>105650000</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>136</v>
@@ -10162,7 +10162,7 @@
         <v>60</v>
       </c>
       <c r="F117" s="3">
-        <v>88980241</v>
+        <v>106776250</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>140</v>
@@ -10239,7 +10239,7 @@
         <v>60</v>
       </c>
       <c r="F118" s="3">
-        <v>89265654</v>
+        <v>107118750</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>136</v>
@@ -10310,7 +10310,7 @@
         <v>60</v>
       </c>
       <c r="F119" s="3">
-        <v>89370319</v>
+        <v>107244350</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>136</v>
@@ -10456,7 +10456,7 @@
         <v>60</v>
       </c>
       <c r="F121" s="3">
-        <v>98509515</v>
+        <v>118211400</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>136</v>
@@ -10527,7 +10527,7 @@
         <v>60</v>
       </c>
       <c r="F122" s="3">
-        <v>100206820</v>
+        <v>120248150</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>136</v>
@@ -10600,7 +10600,7 @@
         <v>60</v>
       </c>
       <c r="F123" s="3">
-        <v>103210810</v>
+        <v>123852950</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>142</v>
@@ -10677,7 +10677,7 @@
         <v>60</v>
       </c>
       <c r="F124" s="3">
-        <v>103399401</v>
+        <v>124079250</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>136</v>
@@ -10748,7 +10748,7 @@
         <v>60</v>
       </c>
       <c r="F125" s="3">
-        <v>103682631</v>
+        <v>124419150</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>136</v>
@@ -10894,7 +10894,7 @@
         <v>60</v>
       </c>
       <c r="F127" s="3">
-        <v>108496335</v>
+        <v>130195600</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>136</v>
@@ -10965,7 +10965,7 @@
         <v>60</v>
       </c>
       <c r="F128" s="3">
-        <v>110206287</v>
+        <v>132247500</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>136</v>
@@ -11038,7 +11038,7 @@
         <v>60</v>
       </c>
       <c r="F129" s="3">
-        <v>113097285</v>
+        <v>135716700</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>144</v>
@@ -11115,7 +11115,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="3">
-        <v>113293345</v>
+        <v>135952000</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>136</v>
@@ -11186,7 +11186,7 @@
         <v>60</v>
       </c>
       <c r="F131" s="3">
-        <v>113587386</v>
+        <v>136304850</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>136</v>
@@ -11332,7 +11332,7 @@
         <v>60</v>
       </c>
       <c r="F133" s="3">
-        <v>119751212</v>
+        <v>143701450</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>136</v>
@@ -11403,7 +11403,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="3">
-        <v>121304476</v>
+        <v>145565350</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>136</v>
@@ -11476,7 +11476,7 @@
         <v>60</v>
       </c>
       <c r="F135" s="3">
-        <v>123629438</v>
+        <v>148355300</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>146</v>
@@ -11553,7 +11553,7 @@
         <v>60</v>
       </c>
       <c r="F136" s="3">
-        <v>124540668</v>
+        <v>149448800</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>136</v>
@@ -11624,7 +11624,7 @@
         <v>60</v>
       </c>
       <c r="F137" s="3">
-        <v>125169487</v>
+        <v>150203350</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>136</v>
@@ -11770,7 +11770,7 @@
         <v>60</v>
       </c>
       <c r="F139" s="3">
-        <v>136750311</v>
+        <v>164100350</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>136</v>
@@ -11841,7 +11841,7 @@
         <v>60</v>
       </c>
       <c r="F140" s="3">
-        <v>137428473</v>
+        <v>164914150</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>136</v>
@@ -11914,7 +11914,7 @@
         <v>60</v>
       </c>
       <c r="F141" s="3">
-        <v>158818082</v>
+        <v>190581650</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>148</v>
@@ -11991,7 +11991,7 @@
         <v>60</v>
       </c>
       <c r="F142" s="3">
-        <v>159069744</v>
+        <v>190883650</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>136</v>
@@ -12059,7 +12059,7 @@
         <v>60</v>
       </c>
       <c r="F143" s="3">
-        <v>159447296</v>
+        <v>191336750</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>136</v>
@@ -12199,7 +12199,7 @@
         <v>60</v>
       </c>
       <c r="F145" s="3">
-        <v>184070380</v>
+        <v>220884450</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>136</v>
@@ -12267,7 +12267,7 @@
         <v>60</v>
       </c>
       <c r="F146" s="3">
-        <v>184490736</v>
+        <v>221388850</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>136</v>
@@ -12337,7 +12337,7 @@
         <v>60</v>
       </c>
       <c r="F147" s="3">
-        <v>185936941</v>
+        <v>223124300</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>274</v>
@@ -12411,7 +12411,7 @@
         <v>60</v>
       </c>
       <c r="F148" s="3">
-        <v>186217221</v>
+        <v>223460650</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>136</v>
@@ -12479,7 +12479,7 @@
         <v>60</v>
       </c>
       <c r="F149" s="3">
-        <v>186637614</v>
+        <v>223965100</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>136</v>
@@ -12619,7 +12619,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="3">
-        <v>214225970</v>
+        <v>257071150</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>136</v>
@@ -12687,7 +12687,7 @@
         <v>60</v>
       </c>
       <c r="F152" s="3">
-        <v>214693576</v>
+        <v>257632250</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>136</v>
@@ -12757,7 +12757,7 @@
         <v>60</v>
       </c>
       <c r="F153" s="3">
-        <v>216744582</v>
+        <v>260093450</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>276</v>
@@ -12831,7 +12831,7 @@
         <v>60</v>
       </c>
       <c r="F154" s="3">
-        <v>217056480</v>
+        <v>260467750</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>136</v>
@@ -12899,7 +12899,7 @@
         <v>60</v>
       </c>
       <c r="F155" s="3">
-        <v>217524050</v>
+        <v>261028850</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>136</v>
@@ -13039,7 +13039,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="3">
-        <v>253152879</v>
+        <v>303783450</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>136</v>
@@ -13107,7 +13107,7 @@
         <v>60</v>
       </c>
       <c r="F158" s="3">
-        <v>253681896</v>
+        <v>304418250</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>136</v>
@@ -13177,7 +13177,7 @@
         <v>60</v>
       </c>
       <c r="F159" s="3">
-        <v>255463712</v>
+        <v>306556450</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>278</v>
@@ -13251,7 +13251,7 @@
         <v>60</v>
       </c>
       <c r="F160" s="3">
-        <v>255816477</v>
+        <v>306979750</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>136</v>
@@ -13319,7 +13319,7 @@
         <v>60</v>
       </c>
       <c r="F161" s="3">
-        <v>256345506</v>
+        <v>307614600</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>136</v>
@@ -13459,7 +13459,7 @@
         <v>60</v>
       </c>
       <c r="F163" s="3">
-        <v>262686639</v>
+        <v>315223950</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>136</v>
@@ -13527,7 +13527,7 @@
         <v>60</v>
       </c>
       <c r="F164" s="3">
-        <v>263226939</v>
+        <v>315872300</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>136</v>
@@ -13597,7 +13597,7 @@
         <v>60</v>
       </c>
       <c r="F165" s="3">
-        <v>265040463</v>
+        <v>318048550</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>280</v>
@@ -13671,7 +13671,7 @@
         <v>60</v>
       </c>
       <c r="F166" s="3">
-        <v>265400880</v>
+        <v>318481050</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>136</v>
@@ -13739,7 +13739,7 @@
         <v>60</v>
       </c>
       <c r="F167" s="3">
-        <v>265941142</v>
+        <v>319129350</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>136</v>
@@ -13879,7 +13879,7 @@
         <v>60</v>
       </c>
       <c r="F169" s="3">
-        <v>298390785</v>
+        <v>358068900</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>136</v>
@@ -13947,7 +13947,7 @@
         <v>60</v>
       </c>
       <c r="F170" s="3">
-        <v>298967420</v>
+        <v>358760900</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>136</v>
@@ -14017,7 +14017,7 @@
         <v>60</v>
       </c>
       <c r="F171" s="3">
-        <v>304261689</v>
+        <v>365114000</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>282</v>
@@ -14091,7 +14091,7 @@
         <v>60</v>
       </c>
       <c r="F172" s="3">
-        <v>304646176</v>
+        <v>365575400</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>136</v>
@@ -14159,7 +14159,7 @@
         <v>60</v>
       </c>
       <c r="F173" s="3">
-        <v>305222860</v>
+        <v>366267400</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>136</v>
@@ -14299,7 +14299,7 @@
         <v>60</v>
       </c>
       <c r="F175" s="3">
-        <v>344083137</v>
+        <v>412899750</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>136</v>
@@ -14367,7 +14367,7 @@
         <v>60</v>
       </c>
       <c r="F176" s="3">
-        <v>344709766</v>
+        <v>413651700</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>136</v>
@@ -14437,7 +14437,7 @@
         <v>60</v>
       </c>
       <c r="F177" s="3">
-        <v>346921165</v>
+        <v>416305350</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>284</v>
@@ -14511,7 +14511,7 @@
         <v>60</v>
       </c>
       <c r="F178" s="3">
-        <v>347339006</v>
+        <v>416806800</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>136</v>
@@ -14579,7 +14579,7 @@
         <v>60</v>
       </c>
       <c r="F179" s="3">
-        <v>347965335</v>
+        <v>417558400</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>136</v>
@@ -14719,7 +14719,7 @@
         <v>60</v>
       </c>
       <c r="F181" s="3">
-        <v>364180920</v>
+        <v>437017100</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>136</v>
@@ -14787,7 +14787,7 @@
         <v>60</v>
       </c>
       <c r="F182" s="3">
-        <v>364815937</v>
+        <v>437779100</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>136</v>
@@ -14857,7 +14857,7 @@
         <v>60</v>
       </c>
       <c r="F183" s="3">
-        <v>367047280</v>
+        <v>440456700</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>286</v>
@@ -14931,7 +14931,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="3">
-        <v>367470642</v>
+        <v>440964750</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>136</v>
@@ -14999,7 +14999,7 @@
         <v>60</v>
       </c>
       <c r="F185" s="3">
-        <v>368105670</v>
+        <v>441726800</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>136</v>
@@ -15139,7 +15139,7 @@
         <v>60</v>
       </c>
       <c r="F187" s="3">
-        <v>369800313</v>
+        <v>443760350</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>136</v>
@@ -15207,7 +15207,7 @@
         <v>60</v>
       </c>
       <c r="F188" s="3">
-        <v>370435318</v>
+        <v>444522350</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>136</v>
@@ -15277,7 +15277,7 @@
         <v>60</v>
       </c>
       <c r="F189" s="3">
-        <v>372666723</v>
+        <v>447200050</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>288</v>
@@ -15351,7 +15351,7 @@
         <v>60</v>
       </c>
       <c r="F190" s="3">
-        <v>373090083</v>
+        <v>447708050</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>136</v>
@@ -15419,7 +15419,7 @@
         <v>60</v>
       </c>
       <c r="F191" s="3">
-        <v>373725100</v>
+        <v>448470100</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>136</v>
@@ -15559,7 +15559,7 @@
         <v>60</v>
       </c>
       <c r="F193" s="3">
-        <v>384174370</v>
+        <v>461009200</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>136</v>
@@ -15627,7 +15627,7 @@
         <v>60</v>
       </c>
       <c r="F194" s="3">
-        <v>384824893</v>
+        <v>461789850</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>136</v>
@@ -15697,7 +15697,7 @@
         <v>60</v>
       </c>
       <c r="F195" s="3">
-        <v>387104395</v>
+        <v>464525250</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>290</v>
@@ -15771,7 +15771,7 @@
         <v>60</v>
       </c>
       <c r="F196" s="3">
-        <v>387538044</v>
+        <v>465045650</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>136</v>
@@ -15839,7 +15839,7 @@
         <v>60</v>
       </c>
       <c r="F197" s="3">
-        <v>388188554</v>
+        <v>465826250</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>136</v>
@@ -15979,7 +15979,7 @@
         <v>60</v>
       </c>
       <c r="F199" s="3">
-        <v>389921054</v>
+        <v>467905250</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>136</v>
@@ -16047,7 +16047,7 @@
         <v>60</v>
       </c>
       <c r="F200" s="3">
-        <v>391220630</v>
+        <v>469464750</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>136</v>
@@ -16117,7 +16117,7 @@
         <v>60</v>
       </c>
       <c r="F201" s="3">
-        <v>445698687</v>
+        <v>534838400</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>292</v>
@@ -16191,7 +16191,7 @@
         <v>60</v>
       </c>
       <c r="F202" s="3">
-        <v>446186658</v>
+        <v>535423950</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>136</v>
@@ -16259,7 +16259,7 @@
         <v>60</v>
       </c>
       <c r="F203" s="3">
-        <v>446918468</v>
+        <v>536302150</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>136</v>
@@ -16399,7 +16399,7 @@
         <v>60</v>
       </c>
       <c r="F205" s="3">
-        <v>466396722</v>
+        <v>559676050</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>136</v>
@@ -16467,7 +16467,7 @@
         <v>60</v>
       </c>
       <c r="F206" s="3">
-        <v>467157303</v>
+        <v>560588750</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>136</v>
@@ -16537,7 +16537,7 @@
         <v>60</v>
       </c>
       <c r="F207" s="3">
-        <v>469673170</v>
+        <v>563607800</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>284</v>
@@ -16611,7 +16611,7 @@
         <v>60</v>
       </c>
       <c r="F208" s="3">
-        <v>470180233</v>
+        <v>564216250</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>136</v>
@@ -16679,7 +16679,7 @@
         <v>60</v>
       </c>
       <c r="F209" s="3">
-        <v>470940730</v>
+        <v>565128850</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>136</v>
@@ -16825,7 +16825,7 @@
         <v>60</v>
       </c>
       <c r="F211" s="3">
-        <v>516334820</v>
+        <v>619601750</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>136</v>
@@ -16893,7 +16893,7 @@
         <v>60</v>
       </c>
       <c r="F212" s="3">
-        <v>517162690</v>
+        <v>620595200</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>136</v>
@@ -16963,7 +16963,7 @@
         <v>60</v>
       </c>
       <c r="F213" s="3">
-        <v>519880370</v>
+        <v>623856400</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>286</v>
@@ -17037,7 +17037,7 @@
         <v>60</v>
       </c>
       <c r="F214" s="3">
-        <v>520432256</v>
+        <v>624518700</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>136</v>
@@ -17105,7 +17105,7 @@
         <v>60</v>
       </c>
       <c r="F215" s="3">
-        <v>521260126</v>
+        <v>625512150</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>136</v>
@@ -17251,7 +17251,7 @@
         <v>60</v>
       </c>
       <c r="F217" s="3">
-        <v>568475014</v>
+        <v>682170000</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>136</v>
@@ -17319,7 +17319,7 @@
         <v>60</v>
       </c>
       <c r="F218" s="3">
-        <v>569350179</v>
+        <v>683220200</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>136</v>
@@ -17389,7 +17389,7 @@
         <v>60</v>
       </c>
       <c r="F219" s="3">
-        <v>572947983</v>
+        <v>687537550</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>288</v>
@@ -17463,7 +17463,7 @@
         <v>60</v>
       </c>
       <c r="F220" s="3">
-        <v>573531415</v>
+        <v>688237650</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>136</v>
@@ -17531,7 +17531,7 @@
         <v>60</v>
       </c>
       <c r="F221" s="3">
-        <v>574406580</v>
+        <v>689287850</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>136</v>
@@ -17677,7 +17677,7 @@
         <v>60</v>
       </c>
       <c r="F223" s="3">
-        <v>606272677</v>
+        <v>727527200</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>136</v>
@@ -17745,7 +17745,7 @@
         <v>60</v>
       </c>
       <c r="F224" s="3">
-        <v>607170343</v>
+        <v>728604400</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>136</v>
@@ -17815,7 +17815,7 @@
         <v>60</v>
       </c>
       <c r="F225" s="3">
-        <v>610820833</v>
+        <v>732984950</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>290</v>
@@ -17889,7 +17889,7 @@
         <v>60</v>
       </c>
       <c r="F226" s="3">
-        <v>611419316</v>
+        <v>733703150</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>136</v>
@@ -17957,7 +17957,7 @@
         <v>60</v>
       </c>
       <c r="F227" s="3">
-        <v>612317042</v>
+        <v>734780450</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>136</v>
@@ -18103,7 +18103,7 @@
         <v>60</v>
       </c>
       <c r="F229" s="3">
-        <v>813223687</v>
+        <v>975868400</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>136</v>
@@ -18171,7 +18171,7 @@
         <v>60</v>
       </c>
       <c r="F230" s="3">
-        <v>818340895</v>
+        <v>982009050</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>136</v>
@@ -18241,7 +18241,7 @@
         <v>60</v>
       </c>
       <c r="F231" s="3">
-        <v>908002826</v>
+        <v>1089603350</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>294</v>

--- a/Excel/towerup.通天塔.xlsx
+++ b/Excel/towerup.通天塔.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8024CC1-C1BB-4AB7-8C72-8F1D848A1589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19016B70-ADD7-443D-8669-1C771877CCF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,7 +1805,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H228" sqref="H228"/>
+      <selection pane="bottomRight" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2097,7 +2097,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="3">
-        <v>9850</v>
+        <v>10305</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>61</v>
@@ -2168,7 +2168,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="3">
-        <v>23900</v>
+        <v>24946</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>55</v>
@@ -2308,7 +2308,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="3">
-        <v>38700</v>
+        <v>40354</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>57</v>
@@ -2379,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="3">
-        <v>59450</v>
+        <v>61947</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>59</v>
@@ -2452,7 +2452,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="3">
-        <v>66400</v>
+        <v>69192</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2523,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>110700</v>
+        <v>104457</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>51</v>
@@ -2594,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="3">
-        <v>117550</v>
+        <v>111589</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
@@ -2734,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="3">
-        <v>320650</v>
+        <v>334035</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>94</v>
@@ -2805,7 +2805,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3">
-        <v>369500</v>
+        <v>384901</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>94</v>
@@ -2878,7 +2878,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>585250</v>
+        <v>609654</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>69</v>
@@ -2949,7 +2949,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <v>656400</v>
+        <v>683772</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>94</v>
@@ -3020,7 +3020,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="3">
-        <v>748050</v>
+        <v>779242</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>94</v>
@@ -3160,7 +3160,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>994700</v>
+        <v>1036188</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>94</v>
@@ -3231,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>1194150</v>
+        <v>1243908</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>94</v>
@@ -3304,7 +3304,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>1419500</v>
+        <v>1478658</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>71</v>
@@ -3375,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="3">
-        <v>1486650</v>
+        <v>1548627</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>94</v>
@@ -3446,7 +3446,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>1639750</v>
+        <v>1708074</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>94</v>
@@ -3586,7 +3586,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>1892200</v>
+        <v>1971049</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>94</v>
@@ -3657,7 +3657,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="3">
-        <v>1907150</v>
+        <v>1986649</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>94</v>
@@ -3730,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="3">
-        <v>2294600</v>
+        <v>2390212</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>65</v>
@@ -3801,7 +3801,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>2416900</v>
+        <v>2517618</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>94</v>
@@ -3872,7 +3872,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="3">
-        <v>2492150</v>
+        <v>2596017</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>94</v>
@@ -4012,7 +4012,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="3">
-        <v>2691100</v>
+        <v>2803264</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>94</v>
@@ -4083,7 +4083,7 @@
         <v>60</v>
       </c>
       <c r="F32" s="3">
-        <v>2731300</v>
+        <v>2845128</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>94</v>
@@ -4156,7 +4156,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="3">
-        <v>2899000</v>
+        <v>3019819</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>77</v>
@@ -4227,7 +4227,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>3179950</v>
+        <v>3312492</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>94</v>
@@ -4298,7 +4298,7 @@
         <v>60</v>
       </c>
       <c r="F35" s="3">
-        <v>3259300</v>
+        <v>3395127</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>94</v>
@@ -4438,7 +4438,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="3">
-        <v>3830550</v>
+        <v>3990168</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>94</v>
@@ -4509,7 +4509,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="3">
-        <v>3930950</v>
+        <v>4094769</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>94</v>
@@ -4582,7 +4582,7 @@
         <v>60</v>
       </c>
       <c r="F39" s="3">
-        <v>4120700</v>
+        <v>4292409</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>79</v>
@@ -4653,7 +4653,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="3">
-        <v>4171750</v>
+        <v>4345594</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>94</v>
@@ -4724,7 +4724,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="3">
-        <v>4271150</v>
+        <v>4449127</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>94</v>
@@ -4864,7 +4864,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="3">
-        <v>5386200</v>
+        <v>5610630</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>94</v>
@@ -4935,7 +4935,7 @@
         <v>60</v>
       </c>
       <c r="F44" s="3">
-        <v>5572700</v>
+        <v>5804937</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>94</v>
@@ -5008,7 +5008,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="3">
-        <v>6454800</v>
+        <v>6723799</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>81</v>
@@ -5079,7 +5079,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="3">
-        <v>6517550</v>
+        <v>6789126</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>94</v>
@@ -5150,7 +5150,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="3">
-        <v>6643950</v>
+        <v>6920827</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>94</v>
@@ -5290,7 +5290,7 @@
         <v>60</v>
       </c>
       <c r="F49" s="3">
-        <v>7547800</v>
+        <v>7862317</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>94</v>
@@ -5361,7 +5361,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="3">
-        <v>7615050</v>
+        <v>7932367</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>94</v>
@@ -5434,7 +5434,7 @@
         <v>60</v>
       </c>
       <c r="F51" s="3">
-        <v>9449250</v>
+        <v>9843021</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>83</v>
@@ -5505,7 +5505,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="3">
-        <v>9526950</v>
+        <v>9923920</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>94</v>
@@ -5576,7 +5576,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="3">
-        <v>9678550</v>
+        <v>10081851</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>94</v>
@@ -5716,7 +5716,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="3">
-        <v>10997450</v>
+        <v>11455714</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>94</v>
@@ -5787,7 +5787,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="3">
-        <v>11078900</v>
+        <v>11540571</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>94</v>
@@ -5860,7 +5860,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="3">
-        <v>12165950</v>
+        <v>12672910</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>85</v>
@@ -5931,7 +5931,7 @@
         <v>60</v>
       </c>
       <c r="F58" s="3">
-        <v>12320100</v>
+        <v>12833482</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>94</v>
@@ -6002,7 +6002,7 @@
         <v>60</v>
       </c>
       <c r="F59" s="3">
-        <v>12451000</v>
+        <v>12969823</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>94</v>
@@ -6142,7 +6142,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="3">
-        <v>12812550</v>
+        <v>13346457</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>94</v>
@@ -6213,7 +6213,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="3">
-        <v>12927250</v>
+        <v>13465917</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>94</v>
@@ -6286,7 +6286,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="3">
-        <v>14421400</v>
+        <v>15022330</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>87</v>
@@ -6357,7 +6357,7 @@
         <v>60</v>
       </c>
       <c r="F64" s="3">
-        <v>14484800</v>
+        <v>15088344</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>94</v>
@@ -6428,7 +6428,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="3">
-        <v>14579750</v>
+        <v>15187276</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>94</v>
@@ -6568,7 +6568,7 @@
         <v>60</v>
       </c>
       <c r="F67" s="3">
-        <v>15931550</v>
+        <v>16595410</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>94</v>
@@ -6639,7 +6639,7 @@
         <v>60</v>
       </c>
       <c r="F68" s="3">
-        <v>16099000</v>
+        <v>16769797</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>94</v>
@@ -6712,7 +6712,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="3">
-        <v>19021550</v>
+        <v>19814160</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>89</v>
@@ -6783,7 +6783,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="3">
-        <v>19209150</v>
+        <v>20009532</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>94</v>
@@ -6854,7 +6854,7 @@
         <v>60</v>
       </c>
       <c r="F71" s="3">
-        <v>20252650</v>
+        <v>21096531</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>94</v>
@@ -6994,7 +6994,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="3">
-        <v>20866100</v>
+        <v>21735568</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>94</v>
@@ -7065,7 +7065,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="3">
-        <v>21196500</v>
+        <v>22079709</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>94</v>
@@ -7138,7 +7138,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="3">
-        <v>23287650</v>
+        <v>24257980</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>91</v>
@@ -7209,7 +7209,7 @@
         <v>60</v>
       </c>
       <c r="F76" s="3">
-        <v>23545950</v>
+        <v>24527040</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>94</v>
@@ -7280,7 +7280,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="3">
-        <v>23675300</v>
+        <v>24661773</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>94</v>
@@ -7420,7 +7420,7 @@
         <v>60</v>
       </c>
       <c r="F79" s="3">
-        <v>26517050</v>
+        <v>27621972</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>94</v>
@@ -7491,7 +7491,7 @@
         <v>60</v>
       </c>
       <c r="F80" s="3">
-        <v>26651250</v>
+        <v>27761719</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>94</v>
@@ -7564,7 +7564,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="3">
-        <v>31926400</v>
+        <v>33256693</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>93</v>
@@ -7635,7 +7635,7 @@
         <v>60</v>
       </c>
       <c r="F82" s="3">
-        <v>32208050</v>
+        <v>33550072</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>94</v>
@@ -7706,7 +7706,7 @@
         <v>60</v>
       </c>
       <c r="F83" s="3">
-        <v>34862700</v>
+        <v>36315343</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>94</v>
@@ -7852,7 +7852,7 @@
         <v>60</v>
       </c>
       <c r="F85" s="3">
-        <v>35941950</v>
+        <v>37439554</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>136</v>
@@ -7923,7 +7923,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="3">
-        <v>37193400</v>
+        <v>38743132</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>136</v>
@@ -7996,7 +7996,7 @@
         <v>60</v>
       </c>
       <c r="F87" s="3">
-        <v>43645150</v>
+        <v>45463725</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>87</v>
@@ -8067,7 +8067,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="3">
-        <v>43821650</v>
+        <v>45647563</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>136</v>
@@ -8138,7 +8138,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="3">
-        <v>44189750</v>
+        <v>46031022</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>136</v>
@@ -8284,7 +8284,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="3">
-        <v>44976400</v>
+        <v>46850454</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>136</v>
@@ -8355,7 +8355,7 @@
         <v>60</v>
       </c>
       <c r="F92" s="3">
-        <v>45310450</v>
+        <v>47198412</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>136</v>
@@ -8428,7 +8428,7 @@
         <v>60</v>
       </c>
       <c r="F93" s="3">
-        <v>52445650</v>
+        <v>54630925</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>89</v>
@@ -8499,7 +8499,7 @@
         <v>60</v>
       </c>
       <c r="F94" s="3">
-        <v>52683150</v>
+        <v>54878322</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>136</v>
@@ -8570,7 +8570,7 @@
         <v>60</v>
       </c>
       <c r="F95" s="3">
-        <v>52947800</v>
+        <v>55153974</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>136</v>
@@ -8716,7 +8716,7 @@
         <v>60</v>
       </c>
       <c r="F97" s="3">
-        <v>63807150</v>
+        <v>66465808</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>136</v>
@@ -8787,7 +8787,7 @@
         <v>60</v>
       </c>
       <c r="F98" s="3">
-        <v>64071100</v>
+        <v>66740742</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>136</v>
@@ -8860,7 +8860,7 @@
         <v>60</v>
       </c>
       <c r="F99" s="3">
-        <v>65074000</v>
+        <v>67785453</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>91</v>
@@ -8931,7 +8931,7 @@
         <v>60</v>
       </c>
       <c r="F100" s="3">
-        <v>65434450</v>
+        <v>68160895</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>136</v>
@@ -9002,7 +9002,7 @@
         <v>60</v>
       </c>
       <c r="F101" s="3">
-        <v>65741400</v>
+        <v>68480644</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>136</v>
@@ -9148,7 +9148,7 @@
         <v>60</v>
       </c>
       <c r="F103" s="3">
-        <v>67185650</v>
+        <v>69985072</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>136</v>
@@ -9219,7 +9219,7 @@
         <v>60</v>
       </c>
       <c r="F104" s="3">
-        <v>67608100</v>
+        <v>70425123</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>136</v>
@@ -9292,7 +9292,7 @@
         <v>60</v>
       </c>
       <c r="F105" s="3">
-        <v>68334550</v>
+        <v>71181856</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>93</v>
@@ -9363,7 +9363,7 @@
         <v>60</v>
       </c>
       <c r="F106" s="3">
-        <v>68555900</v>
+        <v>71412448</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>136</v>
@@ -9434,7 +9434,7 @@
         <v>60</v>
       </c>
       <c r="F107" s="3">
-        <v>68865550</v>
+        <v>71734965</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>136</v>
@@ -9580,7 +9580,7 @@
         <v>60</v>
       </c>
       <c r="F109" s="3">
-        <v>80328850</v>
+        <v>83675919</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>136</v>
@@ -9651,7 +9651,7 @@
         <v>60</v>
       </c>
       <c r="F110" s="3">
-        <v>80870150</v>
+        <v>84239746</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>136</v>
@@ -9724,7 +9724,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="3">
-        <v>94624700</v>
+        <v>98567401</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>138</v>
@@ -9801,7 +9801,7 @@
         <v>60</v>
       </c>
       <c r="F112" s="3">
-        <v>94817950</v>
+        <v>98768731</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>136</v>
@@ -9872,7 +9872,7 @@
         <v>60</v>
       </c>
       <c r="F113" s="3">
-        <v>95108400</v>
+        <v>99071259</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>136</v>
@@ -10018,7 +10018,7 @@
         <v>60</v>
       </c>
       <c r="F115" s="3">
-        <v>105301050</v>
+        <v>109688640</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>136</v>
@@ -10089,7 +10089,7 @@
         <v>60</v>
       </c>
       <c r="F116" s="3">
-        <v>105650000</v>
+        <v>110052094</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>136</v>
@@ -10162,7 +10162,7 @@
         <v>60</v>
       </c>
       <c r="F117" s="3">
-        <v>106776250</v>
+        <v>111225301</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>140</v>
@@ -10239,7 +10239,7 @@
         <v>60</v>
       </c>
       <c r="F118" s="3">
-        <v>107118750</v>
+        <v>111582067</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>136</v>
@@ -10310,7 +10310,7 @@
         <v>60</v>
       </c>
       <c r="F119" s="3">
-        <v>107244350</v>
+        <v>111712899</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>136</v>
@@ -10456,7 +10456,7 @@
         <v>60</v>
       </c>
       <c r="F121" s="3">
-        <v>118211400</v>
+        <v>123136894</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>136</v>
@@ -10527,7 +10527,7 @@
         <v>60</v>
       </c>
       <c r="F122" s="3">
-        <v>120248150</v>
+        <v>125258526</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>136</v>
@@ -10600,7 +10600,7 @@
         <v>60</v>
       </c>
       <c r="F123" s="3">
-        <v>123852950</v>
+        <v>129013513</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>142</v>
@@ -10677,7 +10677,7 @@
         <v>60</v>
       </c>
       <c r="F124" s="3">
-        <v>124079250</v>
+        <v>129249252</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>136</v>
@@ -10748,7 +10748,7 @@
         <v>60</v>
       </c>
       <c r="F125" s="3">
-        <v>124419150</v>
+        <v>129603289</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>136</v>
@@ -10894,7 +10894,7 @@
         <v>60</v>
       </c>
       <c r="F127" s="3">
-        <v>130195600</v>
+        <v>135620419</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>136</v>
@@ -10965,7 +10965,7 @@
         <v>60</v>
       </c>
       <c r="F128" s="3">
-        <v>132247500</v>
+        <v>137757859</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>136</v>
@@ -11038,7 +11038,7 @@
         <v>60</v>
       </c>
       <c r="F129" s="3">
-        <v>135716700</v>
+        <v>141371607</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>144</v>
@@ -11115,7 +11115,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="3">
-        <v>135952000</v>
+        <v>141616681</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>136</v>
@@ -11186,7 +11186,7 @@
         <v>60</v>
       </c>
       <c r="F131" s="3">
-        <v>136304850</v>
+        <v>141984232</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>136</v>
@@ -11332,7 +11332,7 @@
         <v>60</v>
       </c>
       <c r="F133" s="3">
-        <v>143701450</v>
+        <v>149689015</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>136</v>
@@ -11403,7 +11403,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="3">
-        <v>145565350</v>
+        <v>151630596</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>136</v>
@@ -11476,7 +11476,7 @@
         <v>60</v>
       </c>
       <c r="F135" s="3">
-        <v>148355300</v>
+        <v>154536798</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>146</v>
@@ -11553,7 +11553,7 @@
         <v>60</v>
       </c>
       <c r="F136" s="3">
-        <v>149448800</v>
+        <v>155675835</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>136</v>
@@ -11624,7 +11624,7 @@
         <v>60</v>
       </c>
       <c r="F137" s="3">
-        <v>150203350</v>
+        <v>156461859</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>136</v>
@@ -11770,7 +11770,7 @@
         <v>60</v>
       </c>
       <c r="F139" s="3">
-        <v>164100350</v>
+        <v>170937889</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>136</v>
@@ -11841,7 +11841,7 @@
         <v>60</v>
       </c>
       <c r="F140" s="3">
-        <v>164914150</v>
+        <v>171785592</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>136</v>
@@ -11914,7 +11914,7 @@
         <v>60</v>
       </c>
       <c r="F141" s="3">
-        <v>190581650</v>
+        <v>198522603</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>148</v>
@@ -11991,7 +11991,7 @@
         <v>60</v>
       </c>
       <c r="F142" s="3">
-        <v>190883650</v>
+        <v>198837180</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>136</v>
@@ -12059,7 +12059,7 @@
         <v>60</v>
       </c>
       <c r="F143" s="3">
-        <v>191336750</v>
+        <v>199309120</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>136</v>
@@ -12199,7 +12199,7 @@
         <v>60</v>
       </c>
       <c r="F145" s="3">
-        <v>220884450</v>
+        <v>230087976</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>136</v>
@@ -12267,7 +12267,7 @@
         <v>60</v>
       </c>
       <c r="F146" s="3">
-        <v>221388850</v>
+        <v>230613420</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>136</v>
@@ -12337,7 +12337,7 @@
         <v>60</v>
       </c>
       <c r="F147" s="3">
-        <v>223124300</v>
+        <v>232421176</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>274</v>
@@ -12411,7 +12411,7 @@
         <v>60</v>
       </c>
       <c r="F148" s="3">
-        <v>223460650</v>
+        <v>232771527</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>136</v>
@@ -12479,7 +12479,7 @@
         <v>60</v>
       </c>
       <c r="F149" s="3">
-        <v>223965100</v>
+        <v>233297017</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>136</v>
@@ -12619,7 +12619,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="3">
-        <v>257071150</v>
+        <v>267782463</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>136</v>
@@ -12687,7 +12687,7 @@
         <v>60</v>
       </c>
       <c r="F152" s="3">
-        <v>257632250</v>
+        <v>268366971</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>136</v>
@@ -12757,7 +12757,7 @@
         <v>60</v>
       </c>
       <c r="F153" s="3">
-        <v>260093450</v>
+        <v>270930727</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>276</v>
@@ -12831,7 +12831,7 @@
         <v>60</v>
       </c>
       <c r="F154" s="3">
-        <v>260467750</v>
+        <v>271320600</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>136</v>
@@ -12899,7 +12899,7 @@
         <v>60</v>
       </c>
       <c r="F155" s="3">
-        <v>261028850</v>
+        <v>271905063</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>136</v>
@@ -13039,7 +13039,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="3">
-        <v>303783450</v>
+        <v>316441099</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>136</v>
@@ -13107,7 +13107,7 @@
         <v>60</v>
       </c>
       <c r="F158" s="3">
-        <v>304418250</v>
+        <v>317102370</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>136</v>
@@ -13177,7 +13177,7 @@
         <v>60</v>
       </c>
       <c r="F159" s="3">
-        <v>306556450</v>
+        <v>319329640</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>278</v>
@@ -13251,7 +13251,7 @@
         <v>60</v>
       </c>
       <c r="F160" s="3">
-        <v>306979750</v>
+        <v>319770597</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>136</v>
@@ -13319,7 +13319,7 @@
         <v>60</v>
       </c>
       <c r="F161" s="3">
-        <v>307614600</v>
+        <v>320431882</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>136</v>
@@ -13459,7 +13459,7 @@
         <v>60</v>
       </c>
       <c r="F163" s="3">
-        <v>315223950</v>
+        <v>328358299</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>136</v>
@@ -13527,7 +13527,7 @@
         <v>60</v>
       </c>
       <c r="F164" s="3">
-        <v>315872300</v>
+        <v>329033674</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>136</v>
@@ -13597,7 +13597,7 @@
         <v>60</v>
       </c>
       <c r="F165" s="3">
-        <v>318048550</v>
+        <v>331300579</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>280</v>
@@ -13671,7 +13671,7 @@
         <v>60</v>
       </c>
       <c r="F166" s="3">
-        <v>318481050</v>
+        <v>331751100</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>136</v>
@@ -13739,7 +13739,7 @@
         <v>60</v>
       </c>
       <c r="F167" s="3">
-        <v>319129350</v>
+        <v>332426428</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>136</v>
@@ -13879,7 +13879,7 @@
         <v>60</v>
       </c>
       <c r="F169" s="3">
-        <v>358068900</v>
+        <v>372988482</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>136</v>
@@ -13947,7 +13947,7 @@
         <v>60</v>
       </c>
       <c r="F170" s="3">
-        <v>358760900</v>
+        <v>373709275</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>136</v>
@@ -14017,7 +14017,7 @@
         <v>60</v>
       </c>
       <c r="F171" s="3">
-        <v>365114000</v>
+        <v>380327112</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>282</v>
@@ -14091,7 +14091,7 @@
         <v>60</v>
       </c>
       <c r="F172" s="3">
-        <v>365575400</v>
+        <v>380807721</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>136</v>
@@ -14159,7 +14159,7 @@
         <v>60</v>
       </c>
       <c r="F173" s="3">
-        <v>366267400</v>
+        <v>381528576</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>136</v>
@@ -14299,7 +14299,7 @@
         <v>60</v>
       </c>
       <c r="F175" s="3">
-        <v>412899750</v>
+        <v>430103922</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>136</v>
@@ -14367,7 +14367,7 @@
         <v>60</v>
       </c>
       <c r="F176" s="3">
-        <v>413651700</v>
+        <v>430887208</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>136</v>
@@ -14437,7 +14437,7 @@
         <v>60</v>
       </c>
       <c r="F177" s="3">
-        <v>416305350</v>
+        <v>433651456</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>284</v>
@@ -14511,7 +14511,7 @@
         <v>60</v>
       </c>
       <c r="F178" s="3">
-        <v>416806800</v>
+        <v>434173758</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>136</v>
@@ -14579,7 +14579,7 @@
         <v>60</v>
       </c>
       <c r="F179" s="3">
-        <v>417558400</v>
+        <v>434956669</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>136</v>
@@ -14719,7 +14719,7 @@
         <v>60</v>
       </c>
       <c r="F181" s="3">
-        <v>437017100</v>
+        <v>455226150</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>136</v>
@@ -14787,7 +14787,7 @@
         <v>60</v>
       </c>
       <c r="F182" s="3">
-        <v>437779100</v>
+        <v>456019921</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>136</v>
@@ -14857,7 +14857,7 @@
         <v>60</v>
       </c>
       <c r="F183" s="3">
-        <v>440456700</v>
+        <v>458809101</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>286</v>
@@ -14931,7 +14931,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="3">
-        <v>440964750</v>
+        <v>459338302</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>136</v>
@@ -14999,7 +14999,7 @@
         <v>60</v>
       </c>
       <c r="F185" s="3">
-        <v>441726800</v>
+        <v>460132087</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>136</v>
@@ -15139,7 +15139,7 @@
         <v>60</v>
       </c>
       <c r="F187" s="3">
-        <v>443760350</v>
+        <v>462250392</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>136</v>
@@ -15207,7 +15207,7 @@
         <v>60</v>
       </c>
       <c r="F188" s="3">
-        <v>444522350</v>
+        <v>463044148</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>136</v>
@@ -15277,7 +15277,7 @@
         <v>60</v>
       </c>
       <c r="F189" s="3">
-        <v>447200050</v>
+        <v>465833404</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>288</v>
@@ -15351,7 +15351,7 @@
         <v>60</v>
       </c>
       <c r="F190" s="3">
-        <v>447708050</v>
+        <v>466362604</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>136</v>
@@ -15419,7 +15419,7 @@
         <v>60</v>
       </c>
       <c r="F191" s="3">
-        <v>448470100</v>
+        <v>467156376</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>136</v>
@@ -15559,7 +15559,7 @@
         <v>60</v>
       </c>
       <c r="F193" s="3">
-        <v>461009200</v>
+        <v>480217963</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>136</v>
@@ -15627,7 +15627,7 @@
         <v>60</v>
       </c>
       <c r="F194" s="3">
-        <v>461789850</v>
+        <v>481031116</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>136</v>
@@ -15697,7 +15697,7 @@
         <v>60</v>
       </c>
       <c r="F195" s="3">
-        <v>464525250</v>
+        <v>483880494</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>290</v>
@@ -15771,7 +15771,7 @@
         <v>60</v>
       </c>
       <c r="F196" s="3">
-        <v>465045650</v>
+        <v>484422555</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>136</v>
@@ -15839,7 +15839,7 @@
         <v>60</v>
       </c>
       <c r="F197" s="3">
-        <v>465826250</v>
+        <v>485235693</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>136</v>
@@ -15979,7 +15979,7 @@
         <v>60</v>
       </c>
       <c r="F199" s="3">
-        <v>467905250</v>
+        <v>487401318</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>136</v>
@@ -16047,7 +16047,7 @@
         <v>60</v>
       </c>
       <c r="F200" s="3">
-        <v>469464750</v>
+        <v>489025788</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>136</v>
@@ -16117,7 +16117,7 @@
         <v>60</v>
       </c>
       <c r="F201" s="3">
-        <v>534838400</v>
+        <v>557123359</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>292</v>
@@ -16191,7 +16191,7 @@
         <v>60</v>
       </c>
       <c r="F202" s="3">
-        <v>535423950</v>
+        <v>557733322</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>136</v>
@@ -16259,7 +16259,7 @@
         <v>60</v>
       </c>
       <c r="F203" s="3">
-        <v>536302150</v>
+        <v>558648085</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>136</v>
@@ -16399,7 +16399,7 @@
         <v>60</v>
       </c>
       <c r="F205" s="3">
-        <v>559676050</v>
+        <v>582995902</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>136</v>
@@ -16467,7 +16467,7 @@
         <v>60</v>
       </c>
       <c r="F206" s="3">
-        <v>560588750</v>
+        <v>583946629</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>136</v>
@@ -16537,7 +16537,7 @@
         <v>60</v>
       </c>
       <c r="F207" s="3">
-        <v>563607800</v>
+        <v>587091463</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>284</v>
@@ -16611,7 +16611,7 @@
         <v>60</v>
       </c>
       <c r="F208" s="3">
-        <v>564216250</v>
+        <v>587725291</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>136</v>
@@ -16679,7 +16679,7 @@
         <v>60</v>
       </c>
       <c r="F209" s="3">
-        <v>565128850</v>
+        <v>588675913</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>136</v>
@@ -16825,7 +16825,7 @@
         <v>60</v>
       </c>
       <c r="F211" s="3">
-        <v>619601750</v>
+        <v>645418525</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>136</v>
@@ -16893,7 +16893,7 @@
         <v>60</v>
       </c>
       <c r="F212" s="3">
-        <v>620595200</v>
+        <v>646453363</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>136</v>
@@ -16963,7 +16963,7 @@
         <v>60</v>
       </c>
       <c r="F213" s="3">
-        <v>623856400</v>
+        <v>649850463</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>286</v>
@@ -17037,7 +17037,7 @@
         <v>60</v>
       </c>
       <c r="F214" s="3">
-        <v>624518700</v>
+        <v>650540320</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>136</v>
@@ -17105,7 +17105,7 @@
         <v>60</v>
       </c>
       <c r="F215" s="3">
-        <v>625512150</v>
+        <v>651575158</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>136</v>
@@ -17251,7 +17251,7 @@
         <v>60</v>
       </c>
       <c r="F217" s="3">
-        <v>682170000</v>
+        <v>710593768</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>136</v>
@@ -17319,7 +17319,7 @@
         <v>60</v>
       </c>
       <c r="F218" s="3">
-        <v>683220200</v>
+        <v>711687724</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>136</v>
@@ -17389,7 +17389,7 @@
         <v>60</v>
       </c>
       <c r="F219" s="3">
-        <v>687537550</v>
+        <v>716184979</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>288</v>
@@ -17463,7 +17463,7 @@
         <v>60</v>
       </c>
       <c r="F220" s="3">
-        <v>688237650</v>
+        <v>716914269</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>136</v>
@@ -17531,7 +17531,7 @@
         <v>60</v>
       </c>
       <c r="F221" s="3">
-        <v>689287850</v>
+        <v>718008225</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>136</v>
@@ -17677,7 +17677,7 @@
         <v>60</v>
       </c>
       <c r="F223" s="3">
-        <v>727527200</v>
+        <v>757840846</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>136</v>
@@ -17745,7 +17745,7 @@
         <v>60</v>
       </c>
       <c r="F224" s="3">
-        <v>728604400</v>
+        <v>758962929</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>136</v>
@@ -17815,7 +17815,7 @@
         <v>60</v>
       </c>
       <c r="F225" s="3">
-        <v>732984950</v>
+        <v>763526041</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>290</v>
@@ -17889,7 +17889,7 @@
         <v>60</v>
       </c>
       <c r="F226" s="3">
-        <v>733703150</v>
+        <v>764274145</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>136</v>
@@ -17957,7 +17957,7 @@
         <v>60</v>
       </c>
       <c r="F227" s="3">
-        <v>734780450</v>
+        <v>765396303</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>136</v>
@@ -18103,7 +18103,7 @@
         <v>60</v>
       </c>
       <c r="F229" s="3">
-        <v>975868400</v>
+        <v>1016529609</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>136</v>
@@ -18171,7 +18171,7 @@
         <v>60</v>
       </c>
       <c r="F230" s="3">
-        <v>982009050</v>
+        <v>1022926119</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>136</v>
@@ -18241,7 +18241,7 @@
         <v>60</v>
       </c>
       <c r="F231" s="3">
-        <v>1089603350</v>
+        <v>1135003533</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>294</v>
